--- a/src/main/resources/caseconf/CashAccountModify/Case_CashAccountModify.xlsx
+++ b/src/main/resources/caseconf/CashAccountModify/Case_CashAccountModify.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15390" windowHeight="9230"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="7900"/>
   </bookViews>
   <sheets>
     <sheet name="CashAccountModify" sheetId="2" r:id="rId1"/>
@@ -137,63 +137,63 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="82">
   <si>
     <t>lable</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>用例编号</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Comment</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>author</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>flag</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>preDataSQL</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>clearDataSQL</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>serviceEnv</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>url</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>requestType</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>baseParamJson</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>expectParamJson</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>exectResult</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>1级</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>1级</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>必传参数-tenantUserId为空</t>
@@ -234,31 +234,31 @@
   </si>
   <si>
     <t>exceptSQL1</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>selSQL1</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>exceptSQL2</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>selSQL2</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>000113,0123,success</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>select tenant_account_id,key_name,key_value from cash_account_item where tenant_account_id = 0123 and tenant_id = 1001 and key_name = "ICBC"</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>select tenant_user_id,tenant_account_id,account_status from cash_account where tenant_account_id =0123</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>修改成功</t>
@@ -274,7 +274,7 @@
  "requestId": "204321200",
  "params": {"ICBC": "7222888899993322"}
 }</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -291,7 +291,7 @@
  "requestId": "2043202110",
  "params": {"ICBC": "6222888899991212"}
 }</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -300,7 +300,7 @@
     "successful": 0,
     "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.BankCardController.updateBank(***.web.request.CashAccountRequest): [Field error in object 'cashAccountRequest' on field 'tenantId': rejected value []; codes [NotBlank.cashAccountRequest.tenantId,NotBlank.tenantId,NotBlank.java.lang.String,NotBlank]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [cashAccountRequest.tenantId,tenantId]; arguments []; default message [tenantId]]; default message [渠道编号不能为空]] "
 }</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -310,7 +310,7 @@
  "requestId": "204320209910",
  "params": {"ICBC": "6222888899991212"}
 }</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -319,7 +319,7 @@
     "successful": 0,
     "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.BankCardController.updateBank(***.web.request.CashAccountRequest): [Field error in object 'cashAccountRequest' on field 'tenantUserId': rejected value []; codes [NotBlank.cashAccountRequest.tenantUserId,NotBlank.tenantUserId,NotBlank.java.lang.String,NotBlank]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [cashAccountRequest.tenantUserId,tenantUserId]; arguments []; default message [tenantUserId]]; default message [渠道用户编号不能为空]] "
 }</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -329,7 +329,7 @@
  "requestId": "204320209810",
  "params": {"ICBC": "6222888899991212"}
 }</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -347,7 +347,7 @@
  "requestId": "",
  "param": {"ICBC": "6222888899991212"}
 }</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -357,7 +357,7 @@
  "requestId": "783273827",
  "params": {}
 }</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -365,7 +365,7 @@
     "resMsg": "参数异常",
     "successful": 0
 }</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -374,7 +374,7 @@
  "requestId": "20432000",
  "params": {"ICBC": "6222888899991212"}
 }</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -383,7 +383,7 @@
     "successful": 0,
     "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.BankCardController.updateBank(***.web.request.CashAccountRequest): [Field error in object 'cashAccountRequest' on field 'tenantId': rejected value [null]; codes [NotBlank.cashAccountRequest.tenantId,NotBlank.tenantId,NotBlank.java.lang.String,NotBlank]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [cashAccountRequest.tenantId,tenantId]; arguments []; default message [tenantId]]; default message [渠道编号不能为空]] "
 }</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -392,7 +392,7 @@
  "requestId": "20211432000",
  "params": {"ICBC": "6222888899991212"}
 }</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -401,7 +401,7 @@
     "successful": 0,
     "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.BankCardController.updateBank(***.web.request.CashAccountRequest): [Field error in object 'cashAccountRequest' on field 'tenantUserId': rejected value [null]; codes [NotBlank.cashAccountRequest.tenantUserId,NotBlank.tenantUserId,NotBlank.java.lang.String,NotBlank]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [cashAccountRequest.tenantUserId,tenantUserId]; arguments []; default message [tenantUserId]]; default message [渠道用户编号不能为空]] "
 }</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -410,7 +410,7 @@
  "requestId": "20439872000",
  "param": {"ICBC": "6222888899991212"}
 }</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -419,7 +419,7 @@
     "successful": 0,
     "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.BankCardController.updateBank(***.web.request.CashAccountRequest): [Field error in object 'cashAccountRequest' on field 'tenantAccountId': rejected value [null]; codes [NotBlank.cashAccountRequest.tenantAccountId,NotBlank.tenantAccountId,NotBlank.java.lang.String,NotBlank]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [cashAccountRequest.tenantAccountId,tenantAccountId]; arguments []; default message [tenantAccountId]]; default message [渠道收还款账户编号不能为空]] "
 }</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -428,7 +428,7 @@
  "tenantAccountId": "2",
  "params": {"ICBC": "6222888899991212"}
 }</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -437,7 +437,7 @@
  "tenantAccountId": "2",
  "requestId": "20436522000"
 }</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">
@@ -446,13 +446,13 @@
     "resMsg": "参数异常",
     "successful": 0
 }</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>CashAccountModify-001</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>CashAccountModify-001</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>CashAccountModify-002</t>
   </si>
   <si>
@@ -487,55 +487,43 @@
   </si>
   <si>
     <t>https://user-center-thu.tunaikita.id/cashAccount</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>https://user-center-thu.tunaikita.id/cashAccount</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>https://user-center-thu.tunaikita.id/cashAccount</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>/modify</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>/modify</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>/modify</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>/modify</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>/modify</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>/modify</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>/modify</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into cash_account_item values ("48539","699998561629069312","1001","0123","ICBC","6222888899313","+ZkyOt8RzrQvZg==","8461eeb015cadb49aa1e92ea22c2a6ec","1","2020-04-15 15:04:22","2020-04-15 15:04:22");
-insert into cash_account values ("699998561629069312","699222007535509504","000113","1001","0123","ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTVicVBJWFVtZ2c1RVljMGF5WFBQOXUrUm9mMmgwczhjQ2JBQUFBQUFBQUFBQUQzNmF6NjMwQ0xwZWVrRmM5cGdKSXBEaEJmdWc1aXF1ZENhdDhTdnFwcXAzWko1MngxVGNjOFJoYkM3YkZnejJOV1h0UUhmemxmYnhDeUI5OTBXTWxMNHV4bDhjSC9zUjBGejlIaXdETjU3SGxzcmcxNEk0QkNBUDVXNmVkMkFteDMwZU1VV1o5RzluNEFmeUhkRlNPMkZwTVBrUjEzMmxTa1VzVHd6elAyZWVjY1E5VXNldjFQUGFFQld0aExtSVdnR2lNTmpSeitTaGVTS3hxOXJEc0dObFd3R3l4RlhiRUpjU09mYmZWaFRMZm12dy9iQkxjWUF3TUttL0hCYjh1bWNIUWo2Y2xZdi9SV3Z5QnJYOC9reEh2N1I1T05jZmgrTWdySEZFUEJQbUxLV3ZXMlowTzdBUUdEaWQxNisrdURQV29zb29uSHI2YTF1YmlGYkNGcWMyMjlGbEhCOTBsSlFxWVBzNjVXc1pTYlRjQ3dYVVJNb3dzbWZZbkhqVFREQUZxY1oxMUpLbTVoK0lrVDlVdEFnbTh1WFAvS0grTC83aFkxWE1OOWhIZVo0UmhnakJQcjdObVVSaE02QWwwdFdodDVLUHQ1S0pZU3Q0TEFRQlhibjY3NGxwYWxKZz0=","success","2020-04-15 15:04:22","2020-04-15 15:04:22")</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete from user_request_serial where tenant_id = 1001;
-delete from user_request_serial where tenant_id = 1001;
-delete from cash_account where tenant_account_id =0123 and tenant_user_id = 000113;
-delete from cash_account_item where tenant_account_id = 0123</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -545,7 +533,7 @@
  "requestId": "204320001",
  "params": {"ICBC": "7222888899993322"}
 }</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -553,7 +541,7 @@
     "resMsg": "成功",
     "successful": 1
 }</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -570,19 +558,40 @@
       </rPr>
       <t>7***************</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">insert into cash_account_item (id,account_id,tenant_id,tenant_account_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("48539","699998561629069312","1001","0123","ICBC","6222888899313","+ZkyOt8RzrQvZg==","8461eeb015cadb49aa1e92ea22c2a6ec","1","2020-04-15 15:04:22","2020-04-15 15:04:22");
+insert into cash_account (account_id,user_id,tenant_user_id,tenant_id,tenant_account_id,secret_key,account_status,create_time,update_time) values ("699998561629069312","699222007535509504","000113","1001","0123","ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTVicVBJWFVtZ2c1RVljMGF5WFBQOXUrUm9mMmgwczhjQ2JBQUFBQUFBQUFBQUQzNmF6NjMwQ0xwZWVrRmM5cGdKSXBEaEJmdWc1aXF1ZENhdDhTdnFwcXAzWko1MngxVGNjOFJoYkM3YkZnejJOV1h0UUhmemxmYnhDeUI5OTBXTWxMNHV4bDhjSC9zUjBGejlIaXdETjU3SGxzcmcxNEk0QkNBUDVXNmVkMkFteDMwZU1VV1o5RzluNEFmeUhkRlNPMkZwTVBrUjEzMmxTa1VzVHd6elAyZWVjY1E5VXNldjFQUGFFQld0aExtSVdnR2lNTmpSeitTaGVTS3hxOXJEc0dObFd3R3l4RlhiRUpjU09mYmZWaFRMZm12dy9iQkxjWUF3TUttL0hCYjh1bWNIUWo2Y2xZdi9SV3Z5QnJYOC9reEh2N1I1T05jZmgrTWdySEZFUEJQbUxLV3ZXMlowTzdBUUdEaWQxNisrdURQV29zb29uSHI2YTF1YmlGYkNGcWMyMjlGbEhCOTBsSlFxWVBzNjVXc1pTYlRjQ3dYVVJNb3dzbWZZbkhqVFREQUZxY1oxMUpLbTVoK0lrVDlVdEFnbTh1WFAvS0grTC83aFkxWE1OOWhIZVo0UmhnakJQcjdObVVSaE02QWwwdFdodDVLUHQ1S0pZU3Q0TEFRQlhibjY3NGxwYWxKZz0=","success","2020-04-15 15:04:22","2020-04-15 15:04:22")
+</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from user_request_serial where request_id = 204320001;
+delete from user_request_serial where tenant_id = 1001;
+delete from cash_account where tenant_account_id =0123 ;
+delete from cash_account_item where tenant_account_id = 0123</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -774,67 +783,67 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="14" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFill="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -843,10 +852,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -858,7 +867,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -867,7 +876,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -876,89 +885,92 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1244,9 +1256,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14"/>
@@ -1336,11 +1348,11 @@
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
-      <c r="F2" s="58" t="s">
-        <v>77</v>
+      <c r="F2" s="59" t="s">
+        <v>80</v>
       </c>
       <c r="G2" s="48" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H2" s="33" t="s">
         <v>67</v>
@@ -1349,14 +1361,14 @@
         <v>70</v>
       </c>
       <c r="J2" s="5"/>
-      <c r="K2" s="57" t="s">
+      <c r="K2" s="60" t="s">
+        <v>77</v>
+      </c>
+      <c r="M2" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="N2" s="58" t="s">
         <v>79</v>
-      </c>
-      <c r="M2" s="57" t="s">
-        <v>80</v>
-      </c>
-      <c r="N2" s="59" t="s">
-        <v>81</v>
       </c>
       <c r="O2" s="47" t="s">
         <v>31</v>
@@ -4667,7 +4679,7 @@
       <c r="M189" s="23"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="H3:H15" r:id="rId1" display="https://user-center-thu.tunaikita.id/cashAccount"/>
     <hyperlink ref="H2:H13" r:id="rId2" display="https://user-center-thu.tunaikita.id/cashAccount"/>

--- a/src/main/resources/caseconf/CashAccountModify/Case_CashAccountModify.xlsx
+++ b/src/main/resources/caseconf/CashAccountModify/Case_CashAccountModify.xlsx
@@ -1,17 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27011"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wecash/Desktop/Data_Center_Platform/src/main/resources/caseconf/CashAccountModify/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="7900"/>
+    <workbookView xWindow="1920" yWindow="-26160" windowWidth="37880" windowHeight="20680"/>
   </bookViews>
   <sheets>
     <sheet name="CashAccountModify" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +35,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -39,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -54,7 +65,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -69,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -84,7 +95,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -99,7 +110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -114,7 +125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -134,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="91">
   <si>
     <t>lable</t>
     <phoneticPr fontId="13" type="noConversion"/>
@@ -246,18 +257,6 @@
   </si>
   <si>
     <t>selSQL2</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>000113,0123,success</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>select tenant_account_id,key_name,key_value from cash_account_item where tenant_account_id = 0123 and tenant_id = 1001 and key_name = "ICBC"</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>select tenant_user_id,tenant_account_id,account_status from cash_account where tenant_account_id =0123</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
@@ -527,16 +526,6 @@
   </si>
   <si>
     <t>{
- "tenantId": "1001",
- "tenantUserId": "000113",
- "tenantAccountId": "0123",
- "requestId": "204320001",
- "params": {"ICBC": "7222888899993322"}
-}</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
     "resCode": "E0000",
     "resMsg": "成功",
     "successful": 1
@@ -544,41 +533,170 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>0123,ICBC,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>7***************</t>
-    </r>
+    <t>0123,success</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">insert into cash_account_item (id,account_id,tenant_id,tenant_account_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("48539","699998561629069312","1001","0123","ICBC","6222888899313","+ZkyOt8RzrQvZg==","8461eeb015cadb49aa1e92ea22c2a6ec","1","2020-04-15 15:04:22","2020-04-15 15:04:22");
-insert into cash_account (account_id,user_id,tenant_user_id,tenant_id,tenant_account_id,secret_key,account_status,create_time,update_time) values ("699998561629069312","699222007535509504","000113","1001","0123","ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTVicVBJWFVtZ2c1RVljMGF5WFBQOXUrUm9mMmgwczhjQ2JBQUFBQUFBQUFBQUQzNmF6NjMwQ0xwZWVrRmM5cGdKSXBEaEJmdWc1aXF1ZENhdDhTdnFwcXAzWko1MngxVGNjOFJoYkM3YkZnejJOV1h0UUhmemxmYnhDeUI5OTBXTWxMNHV4bDhjSC9zUjBGejlIaXdETjU3SGxzcmcxNEk0QkNBUDVXNmVkMkFteDMwZU1VV1o5RzluNEFmeUhkRlNPMkZwTVBrUjEzMmxTa1VzVHd6elAyZWVjY1E5VXNldjFQUGFFQld0aExtSVdnR2lNTmpSeitTaGVTS3hxOXJEc0dObFd3R3l4RlhiRUpjU09mYmZWaFRMZm12dy9iQkxjWUF3TUttL0hCYjh1bWNIUWo2Y2xZdi9SV3Z5QnJYOC9reEh2N1I1T05jZmgrTWdySEZFUEJQbUxLV3ZXMlowTzdBUUdEaWQxNisrdURQV29zb29uSHI2YTF1YmlGYkNGcWMyMjlGbEhCOTBsSlFxWVBzNjVXc1pTYlRjQ3dYVVJNb3dzbWZZbkhqVFREQUZxY1oxMUpLbTVoK0lrVDlVdEFnbTh1WFAvS0grTC83aFkxWE1OOWhIZVo0UmhnakJQcjdObVVSaE02QWwwdFdodDVLUHQ1S0pZU3Q0TEFRQlhibjY3NGxwYWxKZz0=","success","2020-04-15 15:04:22","2020-04-15 15:04:22")
-</t>
+    <t>select enant_account_id,account_status from cash_account where tenant_account_id =0123</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>delete from user_request_serial where request_id = 204320001;
-delete from user_request_serial where tenant_id = 1001;
-delete from cash_account where tenant_account_id =0123 ;
-delete from cash_account_item where tenant_account_id = 0123</t>
+    <t>params中value段值为空</t>
+    <rPh sb="6" eb="7">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>zhi</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>kong</t>
+    </rPh>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>params为空</t>
+    <rPh sb="6" eb="7">
+      <t>wei'kong</t>
+    </rPh>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改为相同的字段</t>
+    <rPh sb="0" eb="1">
+      <t>xiu'gai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xiang'tong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>de</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zi'duan</t>
+    </rPh>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加字段，原来保持不变</t>
+    <rPh sb="0" eb="1">
+      <t>zeng'jia</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zi'duan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yuan'lai'bao'chi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>bu'mian</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>bian</t>
+    </rPh>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "tenantId": "1001",
+ "tenantUserId": "000113",
+ "tenantAccountId": "0123",
+ "requestId": "204320001",
+ "params": {"ICBC": "6222888899993322"}
+}</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改成功</t>
+    <rPh sb="0" eb="1">
+      <t>xiiu'gai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cheng'g</t>
+    </rPh>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>select count(*) from cash_account_item where tenant_account_id = 0123 and tenant_id = 1001 and key_name = "ICBC"</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>exceptSQL3</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>selSQL3</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>被修改原来的值不在了</t>
+    <rPh sb="0" eb="1">
+      <t>bei</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>xiu'ga</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yuan'lai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>de</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>bu'zai'le</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>le</t>
+    </rPh>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>select key_name,key_value,version from cash_account_item where tenant_account_id = 0123 and tenant_id = 1001 and key_name = "ICBC"</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICBC,6***************,2</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897131,"699222007535509504","1001","000113","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897133,"699222007535509504","1001","000113","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897135,"699222007535509504","1001","000113","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897137,"699222007535509504","1001","000113","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699222007535509504","1001","000113",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699222007535509504","1001","000113","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59");
+insert into cash_account_item (id,account_id,tenant_id,tenant_account_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("48539","699998561629069312","1001","0123","ICBC","7222888899313","+ZkyOt8RzrQvZg==","8461eeb015cadb49aa1e92ea22c2a6ec","1","2020-04-15 15:04:22","2020-04-15 15:04:22");
+insert into cash_account (account_id,user_id,tenant_user_id,tenant_id,tenant_account_id,secret_key,account_status,create_time,update_time) values ("699998561629069312","699222007535509504","000113","1001","0123","ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTVicVBJWFVtZ2c1RVljMGF5WFBQOXUrUm9mMmgwczhjQ2JBQUFBQUFBQUFBQUQzNmF6NjMwQ0xwZWVrRmM5cGdKSXBEaEJmdWc1aXF1ZENhdDhTdnFwcXAzWko1MngxVGNjOFJoYkM3YkZnejJOV1h0UUhmemxmYnhDeUI5OTBXTWxMNHV4bDhjSC9zUjBGejlIaXdETjU3SGxzcmcxNEk0QkNBUDVXNmVkMkFteDMwZU1VV1o5RzluNEFmeUhkRlNPMkZwTVBrUjEzMmxTa1VzVHd6elAyZWVjY1E5VXNldjFQUGFFQld0aExtSVdnR2lNTmpSeitTaGVTS3hxOXJEc0dObFd3R3l4RlhiRUpjU09mYmZWaFRMZm12dy9iQkxjWUF3TUttL0hCYjh1bWNIUWo2Y2xZdi9SV3Z5QnJYOC9reEh2N1I1T05jZmgrTWdySEZFUEJQbUxLV3ZXMlowTzdBUUdEaWQxNisrdURQV29zb29uSHI2YTF1YmlGYkNGcWMyMjlGbEhCOTBsSlFxWVBzNjVXc1pTYlRjQ3dYVVJNb3dzbWZZbkhqVFREQUZxY1oxMUpLbTVoK0lrVDlVdEFnbTh1WFAvS0grTC83aFkxWE1OOWhIZVo0UmhnakJQcjdObVVSaE02QWwwdFdodDVLUHQ1S0pZU3Q0TEFRQlhibjY3NGxwYWxKZz0=","success","2020-04-15 15:04:22","2020-04-15 15:04:22")</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from user_request_serial where request_id = "199991";
+delete from user_request_serial where tenant_id = "1001";
+delete from cash_account where tenant_account_id ="0123" and tenant_id = "1001";
+delete from cash_account_item where tenant_account_id = "0123" and tenant_id = "1001";
+delete from user_basic_info where tenant_user_id = "000113" and tenant_id = "1001";
+delete from user_info_item where tenant_user_id = "000113" and tenant_id = "1001";
+delete from user_index where tenant_user_id = "000113" and tenant_id = "1001";</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -790,7 +908,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="11" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -966,11 +1084,20 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1254,36 +1381,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q189"/>
+  <dimension ref="A1:V197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="108" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.25" style="8" customWidth="1"/>
-    <col min="2" max="2" width="19.08203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.25" style="8" customWidth="1"/>
-    <col min="4" max="4" width="1.08203125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="7.9140625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="19" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.1640625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="8" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="7.83203125" style="8" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="54" style="8" customWidth="1"/>
     <col min="7" max="7" width="32" style="8" customWidth="1"/>
-    <col min="8" max="8" width="31.9140625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="29.83203125" style="8" customWidth="1"/>
-    <col min="10" max="10" width="20.1640625" style="14" customWidth="1"/>
-    <col min="11" max="11" width="43.75" style="5" customWidth="1"/>
-    <col min="12" max="12" width="10.25" style="5" customWidth="1"/>
-    <col min="13" max="13" width="42.75" style="5" customWidth="1"/>
-    <col min="14" max="14" width="25.4140625" style="8" customWidth="1"/>
-    <col min="15" max="15" width="65.9140625" style="9" customWidth="1"/>
-    <col min="16" max="16" width="18.75" style="9" customWidth="1"/>
-    <col min="17" max="17" width="22.6640625" style="9" customWidth="1"/>
-    <col min="18" max="16384" width="11" style="5"/>
+    <col min="8" max="8" width="31.83203125" style="8" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="29.83203125" style="8" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="20.1640625" style="14" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="43.6640625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="10.1640625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="42.6640625" style="5" customWidth="1"/>
+    <col min="14" max="14" width="18.33203125" style="5" customWidth="1"/>
+    <col min="15" max="15" width="25.33203125" style="8" customWidth="1"/>
+    <col min="16" max="17" width="65.83203125" style="9" customWidth="1"/>
+    <col min="18" max="18" width="18.6640625" style="9" customWidth="1"/>
+    <col min="19" max="19" width="22.6640625" style="9" customWidth="1"/>
+    <col min="20" max="20" width="19" style="5" customWidth="1"/>
+    <col min="21" max="21" width="37" style="5" customWidth="1"/>
+    <col min="22" max="16384" width="11" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="21" customHeight="1">
+    <row r="1" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1323,770 +1453,895 @@
       <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="3"/>
+      <c r="O1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="51" t="s">
+      <c r="P1" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="51" t="s">
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="51" t="s">
+      <c r="S1" s="51" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" ht="409.5" customHeight="1">
+      <c r="T1" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="U1" s="51" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
-      <c r="F2" s="59" t="s">
-        <v>80</v>
+      <c r="F2" s="60" t="s">
+        <v>89</v>
       </c>
       <c r="G2" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="H2" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="I2" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="60" t="s">
-        <v>77</v>
-      </c>
       <c r="M2" s="57" t="s">
-        <v>78</v>
-      </c>
-      <c r="N2" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="N2" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="O2" s="5">
+        <v>2</v>
+      </c>
+      <c r="P2" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q2" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="R2" s="62" t="s">
+        <v>88</v>
+      </c>
+      <c r="S2" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="T2" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="U2" s="61" t="s">
+        <v>76</v>
+      </c>
+      <c r="V2" s="61"/>
+    </row>
+    <row r="3" spans="1:22" ht="409" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="61" t="s">
         <v>79</v>
-      </c>
-      <c r="O2" s="47" t="s">
-        <v>31</v>
-      </c>
-      <c r="P2" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q2" s="47" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="208.5" customHeight="1">
-      <c r="A3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>34</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="33" t="s">
-        <v>68</v>
+      <c r="F3" s="60" t="s">
+        <v>89</v>
+      </c>
+      <c r="G3" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="H3" t="s">
+        <v>64</v>
       </c>
       <c r="I3" s="56" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="J3" s="5"/>
-      <c r="K3" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="N3" s="49"/>
-      <c r="O3" s="47"/>
+      <c r="K3" s="61" t="s">
+        <v>81</v>
+      </c>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="58"/>
       <c r="P3" s="47"/>
       <c r="Q3" s="47"/>
-    </row>
-    <row r="4" spans="1:17" ht="100" customHeight="1">
-      <c r="A4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>20</v>
+      <c r="R3" s="61"/>
+      <c r="S3" s="61"/>
+    </row>
+    <row r="4" spans="1:22" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="61" t="s">
+        <v>77</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="I4" s="56" t="s">
-        <v>71</v>
-      </c>
+      <c r="F4" s="60"/>
+      <c r="G4" s="48"/>
+      <c r="H4"/>
+      <c r="I4" s="56"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="N4" s="45"/>
-      <c r="O4" s="52"/>
-    </row>
-    <row r="5" spans="1:17" ht="266">
-      <c r="A5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>15</v>
+      <c r="K4" s="61"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="61"/>
+      <c r="S4" s="61"/>
+    </row>
+    <row r="5" spans="1:22" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="61" t="s">
+        <v>78</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="I5" s="56" t="s">
-        <v>72</v>
-      </c>
+      <c r="F5" s="60"/>
+      <c r="G5" s="48"/>
+      <c r="H5"/>
+      <c r="I5" s="56"/>
       <c r="J5" s="5"/>
-      <c r="K5" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="N5" s="15"/>
-      <c r="O5" s="53"/>
-    </row>
-    <row r="6" spans="1:17" ht="266">
-      <c r="A6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>21</v>
+      <c r="K5" s="61"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
+      <c r="O5" s="58"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="47"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="61"/>
+    </row>
+    <row r="6" spans="1:22" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="61" t="s">
+        <v>80</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="I6" s="56" t="s">
-        <v>73</v>
-      </c>
+      <c r="F6" s="60"/>
+      <c r="G6" s="48"/>
+      <c r="H6"/>
+      <c r="I6" s="56"/>
       <c r="J6" s="5"/>
-      <c r="K6" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="N6" s="16"/>
-      <c r="O6" s="53"/>
-    </row>
-    <row r="7" spans="1:17" ht="98">
-      <c r="A7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>18</v>
-      </c>
+      <c r="K6" s="61"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="58"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="47"/>
+      <c r="R6" s="61"/>
+      <c r="S6" s="61"/>
+    </row>
+    <row r="7" spans="1:22" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="61"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="I7" s="56" t="s">
-        <v>70</v>
-      </c>
+      <c r="F7" s="60"/>
+      <c r="G7" s="48"/>
+      <c r="H7"/>
+      <c r="I7" s="56"/>
       <c r="J7" s="5"/>
-      <c r="K7" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="M7" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N7" s="16"/>
-      <c r="O7" s="53"/>
-    </row>
-    <row r="8" spans="1:17" ht="98">
-      <c r="A8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>22</v>
-      </c>
+      <c r="K7" s="59"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="58"/>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="47"/>
+      <c r="R7" s="61"/>
+      <c r="S7" s="61"/>
+    </row>
+    <row r="8" spans="1:22" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="61"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="I8" s="56" t="s">
-        <v>76</v>
-      </c>
+      <c r="F8" s="60"/>
+      <c r="G8" s="48"/>
+      <c r="H8"/>
+      <c r="I8" s="56"/>
       <c r="J8" s="5"/>
-      <c r="K8" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="M8" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="N8" s="16"/>
-      <c r="O8" s="53"/>
-    </row>
-    <row r="9" spans="1:17" ht="252">
-      <c r="A9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>16</v>
-      </c>
+      <c r="K8" s="59"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="58"/>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="47"/>
+      <c r="R8" s="61"/>
+      <c r="S8" s="61"/>
+    </row>
+    <row r="9" spans="1:22" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="61"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="I9" s="56" t="s">
-        <v>72</v>
-      </c>
+      <c r="F9" s="60"/>
+      <c r="G9" s="48"/>
+      <c r="H9"/>
+      <c r="I9" s="56"/>
       <c r="J9" s="5"/>
-      <c r="K9" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="N9" s="16"/>
-      <c r="O9" s="32"/>
-    </row>
-    <row r="10" spans="1:17" ht="266">
-      <c r="A10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="K9" s="59"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="58"/>
+      <c r="P9" s="47"/>
+      <c r="Q9" s="47"/>
+      <c r="R9" s="61"/>
+      <c r="S9" s="61"/>
+    </row>
+    <row r="10" spans="1:22" ht="18" x14ac:dyDescent="0.2">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="9"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="I10" s="56" t="s">
-        <v>70</v>
-      </c>
+      <c r="F10" s="60"/>
+      <c r="G10" s="48"/>
+      <c r="H10"/>
+      <c r="I10" s="56"/>
       <c r="J10" s="5"/>
-      <c r="K10" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="M10" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="N10" s="16"/>
-      <c r="O10" s="53"/>
-    </row>
-    <row r="11" spans="1:17" ht="266">
+      <c r="K10" s="59"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="58"/>
+      <c r="P10" s="47"/>
+      <c r="Q10" s="47"/>
+      <c r="R10" s="61"/>
+      <c r="S10" s="61"/>
+    </row>
+    <row r="11" spans="1:22" ht="208.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="33" t="s">
-        <v>69</v>
+      <c r="H11" t="s">
+        <v>65</v>
       </c>
       <c r="I11" s="56" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J11" s="5"/>
       <c r="K11" s="9" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="N11" s="16"/>
-      <c r="O11" s="32"/>
-    </row>
-    <row r="12" spans="1:17" ht="84">
+        <v>33</v>
+      </c>
+      <c r="N11" s="9"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="47"/>
+      <c r="Q11" s="47"/>
+      <c r="R11" s="47"/>
+      <c r="S11" s="47"/>
+    </row>
+    <row r="12" spans="1:22" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="33" t="s">
+      <c r="H12" t="s">
+        <v>65</v>
+      </c>
+      <c r="I12" s="56" t="s">
         <v>68</v>
-      </c>
-      <c r="I12" s="56" t="s">
-        <v>70</v>
       </c>
       <c r="J12" s="5"/>
       <c r="K12" s="9" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="84">
+        <v>35</v>
+      </c>
+      <c r="N12" s="9"/>
+      <c r="O12" s="45"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="52"/>
+    </row>
+    <row r="13" spans="1:22" ht="285" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
-      <c r="H13" s="33" t="s">
-        <v>67</v>
+      <c r="H13" t="s">
+        <v>65</v>
       </c>
       <c r="I13" s="56" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="J13" s="5"/>
-      <c r="K13" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="L13" s="44"/>
-      <c r="M13" s="43" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="17.5">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="9"/>
+      <c r="K13" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="M13" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="N13" s="9"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="53"/>
+      <c r="Q13" s="53"/>
+    </row>
+    <row r="14" spans="1:22" ht="300" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="9"/>
-      <c r="M14" s="9"/>
-    </row>
-    <row r="15" spans="1:17" ht="17.5">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="9"/>
+      <c r="H14" t="s">
+        <v>65</v>
+      </c>
+      <c r="I14" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="J14" s="5"/>
+      <c r="K14" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N14" s="9"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="53"/>
+      <c r="Q14" s="53"/>
+    </row>
+    <row r="15" spans="1:22" ht="105" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="44"/>
-      <c r="M15" s="43"/>
-    </row>
-    <row r="16" spans="1:17" s="12" customFormat="1" ht="50" customHeight="1">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-    </row>
-    <row r="17" spans="1:17" s="12" customFormat="1" ht="17.5">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="54"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-    </row>
-    <row r="18" spans="1:17" s="12" customFormat="1" ht="127.5" customHeight="1">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="32"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-    </row>
-    <row r="19" spans="1:17" s="12" customFormat="1" ht="93" customHeight="1">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="55"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-    </row>
-    <row r="20" spans="1:17" s="12" customFormat="1" ht="17.5">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
-    </row>
-    <row r="21" spans="1:17" s="12" customFormat="1" ht="17.5">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
-    </row>
-    <row r="22" spans="1:17" s="12" customFormat="1" ht="17.5">
+      <c r="H15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I15" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="J15" s="5"/>
+      <c r="K15" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N15" s="9"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="53"/>
+      <c r="Q15" s="53"/>
+    </row>
+    <row r="16" spans="1:22" ht="105" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" t="s">
+        <v>66</v>
+      </c>
+      <c r="I16" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="J16" s="5"/>
+      <c r="K16" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="M16" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="N16" s="9"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="53"/>
+      <c r="Q16" s="53"/>
+    </row>
+    <row r="17" spans="1:19" ht="270" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" t="s">
+        <v>65</v>
+      </c>
+      <c r="I17" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="J17" s="5"/>
+      <c r="K17" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="M17" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="N17" s="9"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="32"/>
+    </row>
+    <row r="18" spans="1:19" ht="285" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" t="s">
+        <v>64</v>
+      </c>
+      <c r="I18" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="J18" s="5"/>
+      <c r="K18" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="M18" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="N18" s="9"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="53"/>
+      <c r="Q18" s="53"/>
+    </row>
+    <row r="19" spans="1:19" ht="300" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" t="s">
+        <v>66</v>
+      </c>
+      <c r="I19" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="J19" s="5"/>
+      <c r="K19" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="M19" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="N19" s="9"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="32"/>
+      <c r="Q19" s="32"/>
+    </row>
+    <row r="20" spans="1:19" ht="90" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" t="s">
+        <v>65</v>
+      </c>
+      <c r="I20" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="J20" s="5"/>
+      <c r="K20" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="M20" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N20" s="9"/>
+    </row>
+    <row r="21" spans="1:19" ht="90" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" t="s">
+        <v>64</v>
+      </c>
+      <c r="I21" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="J21" s="5"/>
+      <c r="K21" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="L21" s="44"/>
+      <c r="M21" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="N21" s="43"/>
+    </row>
+    <row r="22" spans="1:19" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-    </row>
-    <row r="23" spans="1:17" s="12" customFormat="1" ht="17.5">
+      <c r="C22" s="9"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+    </row>
+    <row r="23" spans="1:19" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
       <c r="B23" s="7"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
-    </row>
-    <row r="24" spans="1:17" s="12" customFormat="1" ht="17.5">
+      <c r="C23" s="9"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="43"/>
+      <c r="N23" s="43"/>
+    </row>
+    <row r="24" spans="1:19" s="12" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
       <c r="B24" s="7"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
       <c r="H24" s="10"/>
       <c r="I24" s="21"/>
       <c r="J24" s="22"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="13"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="11"/>
       <c r="P24" s="13"/>
       <c r="Q24" s="13"/>
-    </row>
-    <row r="25" spans="1:17" s="12" customFormat="1" ht="17.5">
+      <c r="R24" s="13"/>
+      <c r="S24" s="13"/>
+    </row>
+    <row r="25" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
       <c r="B25" s="7"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
       <c r="H25" s="10"/>
       <c r="I25" s="21"/>
       <c r="J25" s="22"/>
       <c r="K25" s="23"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
-    </row>
-    <row r="26" spans="1:17" s="12" customFormat="1" ht="17.5">
+      <c r="L25" s="25"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="54"/>
+      <c r="Q25" s="54"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="13"/>
+    </row>
+    <row r="26" spans="1:19" s="12" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
       <c r="H26" s="10"/>
       <c r="I26" s="21"/>
       <c r="J26" s="22"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="13"/>
-    </row>
-    <row r="27" spans="1:17" s="12" customFormat="1" ht="110" customHeight="1">
+      <c r="K26" s="27"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="34"/>
+      <c r="P26" s="32"/>
+      <c r="Q26" s="32"/>
+      <c r="R26" s="13"/>
+      <c r="S26" s="13"/>
+    </row>
+    <row r="27" spans="1:19" s="12" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
       <c r="B27" s="7"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
       <c r="H27" s="10"/>
       <c r="I27" s="21"/>
       <c r="J27" s="22"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="13"/>
-    </row>
-    <row r="28" spans="1:17" ht="17.5">
+      <c r="K27" s="27"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="55"/>
+      <c r="Q27" s="55"/>
+      <c r="R27" s="13"/>
+      <c r="S27" s="13"/>
+    </row>
+    <row r="28" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
       <c r="B28" s="7"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="19"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="18"/>
       <c r="E28" s="19"/>
       <c r="F28" s="19"/>
       <c r="G28" s="19"/>
       <c r="H28" s="10"/>
       <c r="I28" s="21"/>
-      <c r="J28" s="35"/>
+      <c r="J28" s="22"/>
       <c r="K28" s="23"/>
       <c r="L28" s="20"/>
       <c r="M28" s="23"/>
-    </row>
-    <row r="29" spans="1:17" ht="17.5">
+      <c r="N28" s="23"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="13"/>
+    </row>
+    <row r="29" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
       <c r="H29" s="10"/>
       <c r="I29" s="21"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="23"/>
-    </row>
-    <row r="30" spans="1:17" ht="17.5">
+      <c r="J29" s="26"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="31"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="13"/>
+      <c r="S29" s="13"/>
+    </row>
+    <row r="30" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
       <c r="H30" s="10"/>
       <c r="I30" s="21"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="23"/>
-    </row>
-    <row r="31" spans="1:17" ht="17.5">
+      <c r="J30" s="22"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="13"/>
+      <c r="R30" s="13"/>
+      <c r="S30" s="13"/>
+    </row>
+    <row r="31" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
       <c r="H31" s="10"/>
       <c r="I31" s="21"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="23"/>
-    </row>
-    <row r="32" spans="1:17" ht="17.5">
+      <c r="J31" s="22"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="31"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
+      <c r="R31" s="13"/>
+      <c r="S31" s="13"/>
+    </row>
+    <row r="32" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
       <c r="H32" s="10"/>
       <c r="I32" s="21"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="23"/>
-    </row>
-    <row r="33" spans="1:17" ht="17.5">
+      <c r="J32" s="22"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="30"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="31"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="13"/>
+      <c r="R32" s="13"/>
+      <c r="S32" s="13"/>
+    </row>
+    <row r="33" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
       <c r="H33" s="10"/>
       <c r="I33" s="21"/>
-      <c r="J33" s="35"/>
+      <c r="J33" s="22"/>
       <c r="K33" s="23"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="23"/>
-    </row>
-    <row r="34" spans="1:17" ht="167" customHeight="1">
+      <c r="L33" s="30"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="31"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="13"/>
+      <c r="R33" s="13"/>
+      <c r="S33" s="13"/>
+    </row>
+    <row r="34" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
       <c r="H34" s="10"/>
       <c r="I34" s="21"/>
-      <c r="J34" s="35"/>
+      <c r="J34" s="22"/>
       <c r="K34" s="23"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="27"/>
-    </row>
-    <row r="35" spans="1:17" ht="207.5" customHeight="1">
+      <c r="L34" s="30"/>
+      <c r="M34" s="31"/>
+      <c r="N34" s="31"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="13"/>
+      <c r="R34" s="13"/>
+      <c r="S34" s="13"/>
+    </row>
+    <row r="35" spans="1:19" s="12" customFormat="1" ht="110" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
       <c r="B35" s="7"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
       <c r="H35" s="10"/>
       <c r="I35" s="21"/>
-      <c r="J35" s="35"/>
+      <c r="J35" s="22"/>
       <c r="K35" s="23"/>
-      <c r="L35" s="20"/>
-      <c r="M35" s="23"/>
-    </row>
-    <row r="36" spans="1:17" ht="17.5">
+      <c r="L35" s="30"/>
+      <c r="M35" s="31"/>
+      <c r="N35" s="31"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="13"/>
+      <c r="Q35" s="13"/>
+      <c r="R35" s="13"/>
+      <c r="S35" s="13"/>
+    </row>
+    <row r="36" spans="1:19" ht="18" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
       <c r="B36" s="7"/>
       <c r="C36" s="24"/>
@@ -2100,8 +2355,9 @@
       <c r="K36" s="23"/>
       <c r="L36" s="20"/>
       <c r="M36" s="23"/>
-    </row>
-    <row r="37" spans="1:17" s="12" customFormat="1" ht="17.5">
+      <c r="N36" s="23"/>
+    </row>
+    <row r="37" spans="1:19" ht="18" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
       <c r="B37" s="7"/>
       <c r="C37" s="24"/>
@@ -2115,12 +2371,9 @@
       <c r="K37" s="23"/>
       <c r="L37" s="20"/>
       <c r="M37" s="23"/>
-      <c r="N37" s="11"/>
-      <c r="O37" s="13"/>
-      <c r="P37" s="13"/>
-      <c r="Q37" s="13"/>
-    </row>
-    <row r="38" spans="1:17" s="12" customFormat="1" ht="17.5">
+      <c r="N37" s="23"/>
+    </row>
+    <row r="38" spans="1:19" ht="18" x14ac:dyDescent="0.2">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
       <c r="C38" s="24"/>
@@ -2134,12 +2387,9 @@
       <c r="K38" s="23"/>
       <c r="L38" s="20"/>
       <c r="M38" s="23"/>
-      <c r="N38" s="11"/>
-      <c r="O38" s="13"/>
-      <c r="P38" s="13"/>
-      <c r="Q38" s="13"/>
-    </row>
-    <row r="39" spans="1:17" s="12" customFormat="1" ht="17.5">
+      <c r="N38" s="23"/>
+    </row>
+    <row r="39" spans="1:19" ht="18" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
       <c r="C39" s="24"/>
@@ -2152,13 +2402,10 @@
       <c r="J39" s="35"/>
       <c r="K39" s="23"/>
       <c r="L39" s="20"/>
-      <c r="M39" s="27"/>
-      <c r="N39" s="11"/>
-      <c r="O39" s="13"/>
-      <c r="P39" s="13"/>
-      <c r="Q39" s="13"/>
-    </row>
-    <row r="40" spans="1:17" s="12" customFormat="1" ht="17.5">
+      <c r="M39" s="23"/>
+      <c r="N39" s="23"/>
+    </row>
+    <row r="40" spans="1:19" ht="18" x14ac:dyDescent="0.2">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
       <c r="C40" s="24"/>
@@ -2171,13 +2418,10 @@
       <c r="J40" s="35"/>
       <c r="K40" s="23"/>
       <c r="L40" s="20"/>
-      <c r="M40" s="27"/>
-      <c r="N40" s="11"/>
-      <c r="O40" s="13"/>
-      <c r="P40" s="13"/>
-      <c r="Q40" s="13"/>
-    </row>
-    <row r="41" spans="1:17" ht="17.5">
+      <c r="M40" s="23"/>
+      <c r="N40" s="23"/>
+    </row>
+    <row r="41" spans="1:19" ht="18" x14ac:dyDescent="0.2">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
       <c r="C41" s="24"/>
@@ -2190,9 +2434,10 @@
       <c r="J41" s="35"/>
       <c r="K41" s="23"/>
       <c r="L41" s="20"/>
-      <c r="M41" s="27"/>
-    </row>
-    <row r="42" spans="1:17" ht="17.5">
+      <c r="M41" s="23"/>
+      <c r="N41" s="23"/>
+    </row>
+    <row r="42" spans="1:19" ht="167" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
       <c r="C42" s="24"/>
@@ -2205,9 +2450,10 @@
       <c r="J42" s="35"/>
       <c r="K42" s="23"/>
       <c r="L42" s="20"/>
-      <c r="M42" s="31"/>
-    </row>
-    <row r="43" spans="1:17" ht="17.5">
+      <c r="M42" s="27"/>
+      <c r="N42" s="27"/>
+    </row>
+    <row r="43" spans="1:19" ht="207.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
       <c r="C43" s="24"/>
@@ -2220,42 +2466,50 @@
       <c r="J43" s="35"/>
       <c r="K43" s="23"/>
       <c r="L43" s="20"/>
-      <c r="M43" s="31"/>
-    </row>
-    <row r="44" spans="1:17" ht="114.5" customHeight="1">
+      <c r="M43" s="23"/>
+      <c r="N43" s="23"/>
+    </row>
+    <row r="44" spans="1:19" ht="18" x14ac:dyDescent="0.2">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
       <c r="H44" s="10"/>
       <c r="I44" s="21"/>
       <c r="J44" s="35"/>
       <c r="K44" s="23"/>
-      <c r="L44" s="30"/>
-      <c r="M44" s="31"/>
-    </row>
-    <row r="45" spans="1:17" ht="119" customHeight="1">
+      <c r="L44" s="20"/>
+      <c r="M44" s="23"/>
+      <c r="N44" s="23"/>
+    </row>
+    <row r="45" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A45" s="6"/>
       <c r="B45" s="7"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="28"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
       <c r="H45" s="10"/>
       <c r="I45" s="21"/>
       <c r="J45" s="35"/>
       <c r="K45" s="23"/>
-      <c r="L45" s="30"/>
-      <c r="M45" s="31"/>
-    </row>
-    <row r="46" spans="1:17" ht="169.5" customHeight="1">
+      <c r="L45" s="20"/>
+      <c r="M45" s="23"/>
+      <c r="N45" s="23"/>
+      <c r="O45" s="11"/>
+      <c r="P45" s="13"/>
+      <c r="Q45" s="13"/>
+      <c r="R45" s="13"/>
+      <c r="S45" s="13"/>
+    </row>
+    <row r="46" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A46" s="6"/>
       <c r="B46" s="7"/>
-      <c r="C46" s="36"/>
+      <c r="C46" s="24"/>
       <c r="D46" s="19"/>
       <c r="E46" s="19"/>
       <c r="F46" s="19"/>
@@ -2266,8 +2520,14 @@
       <c r="K46" s="23"/>
       <c r="L46" s="20"/>
       <c r="M46" s="23"/>
-    </row>
-    <row r="47" spans="1:17" ht="17.5">
+      <c r="N46" s="23"/>
+      <c r="O46" s="11"/>
+      <c r="P46" s="13"/>
+      <c r="Q46" s="13"/>
+      <c r="R46" s="13"/>
+      <c r="S46" s="13"/>
+    </row>
+    <row r="47" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A47" s="6"/>
       <c r="B47" s="7"/>
       <c r="C47" s="24"/>
@@ -2280,102 +2540,119 @@
       <c r="J47" s="35"/>
       <c r="K47" s="23"/>
       <c r="L47" s="20"/>
-      <c r="M47" s="23"/>
-    </row>
-    <row r="48" spans="1:17" ht="17.5">
+      <c r="M47" s="27"/>
+      <c r="N47" s="27"/>
+      <c r="O47" s="11"/>
+      <c r="P47" s="13"/>
+      <c r="Q47" s="13"/>
+      <c r="R47" s="13"/>
+      <c r="S47" s="13"/>
+    </row>
+    <row r="48" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A48" s="6"/>
       <c r="B48" s="7"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="28"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
       <c r="H48" s="10"/>
       <c r="I48" s="21"/>
       <c r="J48" s="35"/>
       <c r="K48" s="23"/>
       <c r="L48" s="20"/>
-      <c r="M48" s="23"/>
-    </row>
-    <row r="49" spans="1:17" ht="17.5">
+      <c r="M48" s="27"/>
+      <c r="N48" s="27"/>
+      <c r="O48" s="11"/>
+      <c r="P48" s="13"/>
+      <c r="Q48" s="13"/>
+      <c r="R48" s="13"/>
+      <c r="S48" s="13"/>
+    </row>
+    <row r="49" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A49" s="6"/>
       <c r="B49" s="7"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="29"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="28"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
       <c r="H49" s="10"/>
       <c r="I49" s="21"/>
       <c r="J49" s="35"/>
       <c r="K49" s="23"/>
       <c r="L49" s="20"/>
-      <c r="M49" s="23"/>
-    </row>
-    <row r="50" spans="1:17" ht="17.5">
+      <c r="M49" s="27"/>
+      <c r="N49" s="27"/>
+    </row>
+    <row r="50" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A50" s="6"/>
       <c r="B50" s="7"/>
-      <c r="C50" s="28"/>
-      <c r="D50" s="29"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="28"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="19"/>
       <c r="H50" s="10"/>
       <c r="I50" s="21"/>
       <c r="J50" s="35"/>
       <c r="K50" s="23"/>
       <c r="L50" s="20"/>
-      <c r="M50" s="23"/>
-    </row>
-    <row r="51" spans="1:17" ht="105" customHeight="1">
+      <c r="M50" s="31"/>
+      <c r="N50" s="31"/>
+    </row>
+    <row r="51" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A51" s="6"/>
       <c r="B51" s="7"/>
-      <c r="C51" s="28"/>
-      <c r="D51" s="29"/>
-      <c r="E51" s="28"/>
-      <c r="F51" s="28"/>
-      <c r="G51" s="28"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="19"/>
       <c r="H51" s="10"/>
       <c r="I51" s="21"/>
       <c r="J51" s="35"/>
       <c r="K51" s="23"/>
       <c r="L51" s="20"/>
-      <c r="M51" s="23"/>
-    </row>
-    <row r="52" spans="1:17" ht="17.5">
+      <c r="M51" s="31"/>
+      <c r="N51" s="31"/>
+    </row>
+    <row r="52" spans="1:14" ht="114.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="6"/>
       <c r="B52" s="7"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="19"/>
-      <c r="G52" s="19"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="29"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="28"/>
       <c r="H52" s="10"/>
       <c r="I52" s="21"/>
       <c r="J52" s="35"/>
       <c r="K52" s="23"/>
-      <c r="L52" s="20"/>
-      <c r="M52" s="23"/>
-    </row>
-    <row r="53" spans="1:17" ht="116.5" customHeight="1">
+      <c r="L52" s="30"/>
+      <c r="M52" s="31"/>
+      <c r="N52" s="31"/>
+    </row>
+    <row r="53" spans="1:14" ht="119" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="6"/>
       <c r="B53" s="7"/>
-      <c r="C53" s="24"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="19"/>
+      <c r="C53" s="28"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
       <c r="H53" s="10"/>
       <c r="I53" s="21"/>
       <c r="J53" s="35"/>
       <c r="K53" s="23"/>
-      <c r="L53" s="20"/>
-      <c r="M53" s="23"/>
-    </row>
-    <row r="54" spans="1:17" ht="17.5">
+      <c r="L53" s="30"/>
+      <c r="M53" s="31"/>
+      <c r="N53" s="31"/>
+    </row>
+    <row r="54" spans="1:14" ht="169.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="6"/>
       <c r="B54" s="7"/>
-      <c r="C54" s="24"/>
+      <c r="C54" s="36"/>
       <c r="D54" s="19"/>
       <c r="E54" s="19"/>
       <c r="F54" s="19"/>
@@ -2386,8 +2663,9 @@
       <c r="K54" s="23"/>
       <c r="L54" s="20"/>
       <c r="M54" s="23"/>
-    </row>
-    <row r="55" spans="1:17" ht="17.5">
+      <c r="N54" s="23"/>
+    </row>
+    <row r="55" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A55" s="6"/>
       <c r="B55" s="7"/>
       <c r="C55" s="24"/>
@@ -2401,72 +2679,73 @@
       <c r="K55" s="23"/>
       <c r="L55" s="20"/>
       <c r="M55" s="23"/>
-    </row>
-    <row r="56" spans="1:17" ht="17.5">
+      <c r="N55" s="23"/>
+    </row>
+    <row r="56" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A56" s="6"/>
       <c r="B56" s="7"/>
-      <c r="C56" s="24"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="19"/>
-      <c r="F56" s="19"/>
-      <c r="G56" s="19"/>
+      <c r="C56" s="28"/>
+      <c r="D56" s="29"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="28"/>
       <c r="H56" s="10"/>
       <c r="I56" s="21"/>
       <c r="J56" s="35"/>
       <c r="K56" s="23"/>
       <c r="L56" s="20"/>
       <c r="M56" s="23"/>
-    </row>
-    <row r="57" spans="1:17" ht="117.5" customHeight="1">
+      <c r="N56" s="23"/>
+    </row>
+    <row r="57" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A57" s="6"/>
       <c r="B57" s="7"/>
-      <c r="C57" s="24"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="19"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="19"/>
+      <c r="C57" s="28"/>
+      <c r="D57" s="29"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="28"/>
+      <c r="G57" s="28"/>
       <c r="H57" s="10"/>
       <c r="I57" s="21"/>
       <c r="J57" s="35"/>
       <c r="K57" s="23"/>
       <c r="L57" s="20"/>
       <c r="M57" s="23"/>
-    </row>
-    <row r="58" spans="1:17" ht="17.5">
+      <c r="N57" s="23"/>
+    </row>
+    <row r="58" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A58" s="6"/>
       <c r="B58" s="7"/>
-      <c r="C58" s="24"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="19"/>
-      <c r="G58" s="19"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="29"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="28"/>
+      <c r="G58" s="28"/>
       <c r="H58" s="10"/>
       <c r="I58" s="21"/>
       <c r="J58" s="35"/>
       <c r="K58" s="23"/>
       <c r="L58" s="20"/>
       <c r="M58" s="23"/>
-    </row>
-    <row r="59" spans="1:17" s="12" customFormat="1" ht="17.5">
+      <c r="N58" s="23"/>
+    </row>
+    <row r="59" spans="1:14" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="6"/>
       <c r="B59" s="7"/>
-      <c r="C59" s="24"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="19"/>
-      <c r="F59" s="19"/>
-      <c r="G59" s="19"/>
+      <c r="C59" s="28"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="28"/>
       <c r="H59" s="10"/>
       <c r="I59" s="21"/>
       <c r="J59" s="35"/>
       <c r="K59" s="23"/>
       <c r="L59" s="20"/>
       <c r="M59" s="23"/>
-      <c r="N59" s="11"/>
-      <c r="O59" s="13"/>
-      <c r="P59" s="13"/>
-      <c r="Q59" s="13"/>
-    </row>
-    <row r="60" spans="1:17" s="12" customFormat="1" ht="17.5">
+      <c r="N59" s="23"/>
+    </row>
+    <row r="60" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A60" s="6"/>
       <c r="B60" s="7"/>
       <c r="C60" s="24"/>
@@ -2480,12 +2759,9 @@
       <c r="K60" s="23"/>
       <c r="L60" s="20"/>
       <c r="M60" s="23"/>
-      <c r="N60" s="11"/>
-      <c r="O60" s="13"/>
-      <c r="P60" s="13"/>
-      <c r="Q60" s="13"/>
-    </row>
-    <row r="61" spans="1:17" s="12" customFormat="1" ht="17.5">
+      <c r="N60" s="23"/>
+    </row>
+    <row r="61" spans="1:14" ht="116.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="6"/>
       <c r="B61" s="7"/>
       <c r="C61" s="24"/>
@@ -2499,12 +2775,9 @@
       <c r="K61" s="23"/>
       <c r="L61" s="20"/>
       <c r="M61" s="23"/>
-      <c r="N61" s="11"/>
-      <c r="O61" s="13"/>
-      <c r="P61" s="13"/>
-      <c r="Q61" s="13"/>
-    </row>
-    <row r="62" spans="1:17" s="12" customFormat="1" ht="17.5">
+      <c r="N61" s="23"/>
+    </row>
+    <row r="62" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A62" s="6"/>
       <c r="B62" s="7"/>
       <c r="C62" s="24"/>
@@ -2515,15 +2788,12 @@
       <c r="H62" s="10"/>
       <c r="I62" s="21"/>
       <c r="J62" s="35"/>
-      <c r="K62" s="27"/>
+      <c r="K62" s="23"/>
       <c r="L62" s="20"/>
       <c r="M62" s="23"/>
-      <c r="N62" s="11"/>
-      <c r="O62" s="13"/>
-      <c r="P62" s="13"/>
-      <c r="Q62" s="13"/>
-    </row>
-    <row r="63" spans="1:17" s="12" customFormat="1" ht="125" customHeight="1">
+      <c r="N62" s="23"/>
+    </row>
+    <row r="63" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A63" s="6"/>
       <c r="B63" s="7"/>
       <c r="C63" s="24"/>
@@ -2537,12 +2807,9 @@
       <c r="K63" s="23"/>
       <c r="L63" s="20"/>
       <c r="M63" s="23"/>
-      <c r="N63" s="11"/>
-      <c r="O63" s="13"/>
-      <c r="P63" s="13"/>
-      <c r="Q63" s="13"/>
-    </row>
-    <row r="64" spans="1:17" s="12" customFormat="1" ht="166.5" customHeight="1">
+      <c r="N63" s="23"/>
+    </row>
+    <row r="64" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A64" s="6"/>
       <c r="B64" s="7"/>
       <c r="C64" s="24"/>
@@ -2555,13 +2822,10 @@
       <c r="J64" s="35"/>
       <c r="K64" s="23"/>
       <c r="L64" s="20"/>
-      <c r="M64" s="31"/>
-      <c r="N64" s="11"/>
-      <c r="O64" s="13"/>
-      <c r="P64" s="13"/>
-      <c r="Q64" s="13"/>
-    </row>
-    <row r="65" spans="1:17" s="12" customFormat="1" ht="110.5" customHeight="1">
+      <c r="M64" s="23"/>
+      <c r="N64" s="23"/>
+    </row>
+    <row r="65" spans="1:19" ht="117.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="6"/>
       <c r="B65" s="7"/>
       <c r="C65" s="24"/>
@@ -2574,54 +2838,50 @@
       <c r="J65" s="35"/>
       <c r="K65" s="23"/>
       <c r="L65" s="20"/>
-      <c r="M65" s="31"/>
-      <c r="N65" s="11"/>
-      <c r="O65" s="13"/>
-      <c r="P65" s="13"/>
-      <c r="Q65" s="13"/>
-    </row>
-    <row r="66" spans="1:17" s="12" customFormat="1" ht="131" customHeight="1">
+      <c r="M65" s="23"/>
+      <c r="N65" s="23"/>
+    </row>
+    <row r="66" spans="1:19" ht="18" x14ac:dyDescent="0.2">
       <c r="A66" s="6"/>
       <c r="B66" s="7"/>
-      <c r="C66" s="28"/>
-      <c r="D66" s="29"/>
-      <c r="E66" s="28"/>
-      <c r="F66" s="28"/>
-      <c r="G66" s="28"/>
+      <c r="C66" s="24"/>
+      <c r="D66" s="19"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="19"/>
+      <c r="G66" s="19"/>
       <c r="H66" s="10"/>
       <c r="I66" s="21"/>
       <c r="J66" s="35"/>
       <c r="K66" s="23"/>
-      <c r="L66" s="30"/>
-      <c r="M66" s="31"/>
-      <c r="N66" s="11"/>
-      <c r="O66" s="13"/>
-      <c r="P66" s="13"/>
-      <c r="Q66" s="13"/>
-    </row>
-    <row r="67" spans="1:17" s="12" customFormat="1" ht="141" customHeight="1">
+      <c r="L66" s="20"/>
+      <c r="M66" s="23"/>
+      <c r="N66" s="23"/>
+    </row>
+    <row r="67" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A67" s="6"/>
       <c r="B67" s="7"/>
-      <c r="C67" s="28"/>
-      <c r="D67" s="29"/>
-      <c r="E67" s="28"/>
-      <c r="F67" s="28"/>
-      <c r="G67" s="28"/>
+      <c r="C67" s="24"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="19"/>
+      <c r="G67" s="19"/>
       <c r="H67" s="10"/>
       <c r="I67" s="21"/>
       <c r="J67" s="35"/>
       <c r="K67" s="23"/>
-      <c r="L67" s="30"/>
-      <c r="M67" s="31"/>
-      <c r="N67" s="11"/>
-      <c r="O67" s="13"/>
+      <c r="L67" s="20"/>
+      <c r="M67" s="23"/>
+      <c r="N67" s="23"/>
+      <c r="O67" s="11"/>
       <c r="P67" s="13"/>
       <c r="Q67" s="13"/>
-    </row>
-    <row r="68" spans="1:17" s="12" customFormat="1" ht="118.5" customHeight="1">
+      <c r="R67" s="13"/>
+      <c r="S67" s="13"/>
+    </row>
+    <row r="68" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A68" s="6"/>
       <c r="B68" s="7"/>
-      <c r="C68" s="28"/>
+      <c r="C68" s="24"/>
       <c r="D68" s="19"/>
       <c r="E68" s="19"/>
       <c r="F68" s="19"/>
@@ -2632,15 +2892,17 @@
       <c r="K68" s="23"/>
       <c r="L68" s="20"/>
       <c r="M68" s="23"/>
-      <c r="N68" s="11"/>
-      <c r="O68" s="13"/>
+      <c r="N68" s="23"/>
+      <c r="O68" s="11"/>
       <c r="P68" s="13"/>
       <c r="Q68" s="13"/>
-    </row>
-    <row r="69" spans="1:17" s="12" customFormat="1" ht="123" customHeight="1">
+      <c r="R68" s="13"/>
+      <c r="S68" s="13"/>
+    </row>
+    <row r="69" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A69" s="6"/>
       <c r="B69" s="7"/>
-      <c r="C69" s="28"/>
+      <c r="C69" s="24"/>
       <c r="D69" s="19"/>
       <c r="E69" s="19"/>
       <c r="F69" s="19"/>
@@ -2651,15 +2913,17 @@
       <c r="K69" s="23"/>
       <c r="L69" s="20"/>
       <c r="M69" s="23"/>
-      <c r="N69" s="11"/>
-      <c r="O69" s="13"/>
+      <c r="N69" s="23"/>
+      <c r="O69" s="11"/>
       <c r="P69" s="13"/>
       <c r="Q69" s="13"/>
-    </row>
-    <row r="70" spans="1:17" s="12" customFormat="1" ht="148.5" customHeight="1">
+      <c r="R69" s="13"/>
+      <c r="S69" s="13"/>
+    </row>
+    <row r="70" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A70" s="6"/>
       <c r="B70" s="7"/>
-      <c r="C70" s="28"/>
+      <c r="C70" s="24"/>
       <c r="D70" s="19"/>
       <c r="E70" s="19"/>
       <c r="F70" s="19"/>
@@ -2667,18 +2931,20 @@
       <c r="H70" s="10"/>
       <c r="I70" s="21"/>
       <c r="J70" s="35"/>
-      <c r="K70" s="23"/>
+      <c r="K70" s="27"/>
       <c r="L70" s="20"/>
       <c r="M70" s="23"/>
-      <c r="N70" s="11"/>
-      <c r="O70" s="13"/>
+      <c r="N70" s="23"/>
+      <c r="O70" s="11"/>
       <c r="P70" s="13"/>
       <c r="Q70" s="13"/>
-    </row>
-    <row r="71" spans="1:17" s="12" customFormat="1" ht="191.5" customHeight="1">
+      <c r="R70" s="13"/>
+      <c r="S70" s="13"/>
+    </row>
+    <row r="71" spans="1:19" s="12" customFormat="1" ht="125" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="6"/>
       <c r="B71" s="7"/>
-      <c r="C71" s="28"/>
+      <c r="C71" s="24"/>
       <c r="D71" s="19"/>
       <c r="E71" s="19"/>
       <c r="F71" s="19"/>
@@ -2689,164 +2955,182 @@
       <c r="K71" s="23"/>
       <c r="L71" s="20"/>
       <c r="M71" s="23"/>
-      <c r="N71" s="11"/>
-      <c r="O71" s="13"/>
+      <c r="N71" s="23"/>
+      <c r="O71" s="11"/>
       <c r="P71" s="13"/>
       <c r="Q71" s="13"/>
-    </row>
-    <row r="72" spans="1:17" s="12" customFormat="1" ht="128" customHeight="1">
+      <c r="R71" s="13"/>
+      <c r="S71" s="13"/>
+    </row>
+    <row r="72" spans="1:19" s="12" customFormat="1" ht="166.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="6"/>
       <c r="B72" s="7"/>
-      <c r="C72" s="28"/>
-      <c r="D72" s="37"/>
-      <c r="E72" s="37"/>
-      <c r="F72" s="37"/>
-      <c r="G72" s="37"/>
+      <c r="C72" s="24"/>
+      <c r="D72" s="19"/>
+      <c r="E72" s="19"/>
+      <c r="F72" s="19"/>
+      <c r="G72" s="19"/>
       <c r="H72" s="10"/>
       <c r="I72" s="21"/>
       <c r="J72" s="35"/>
-      <c r="K72" s="38"/>
-      <c r="L72" s="37"/>
-      <c r="M72" s="38"/>
-      <c r="N72" s="11"/>
-      <c r="O72" s="13"/>
+      <c r="K72" s="23"/>
+      <c r="L72" s="20"/>
+      <c r="M72" s="31"/>
+      <c r="N72" s="31"/>
+      <c r="O72" s="11"/>
       <c r="P72" s="13"/>
       <c r="Q72" s="13"/>
-    </row>
-    <row r="73" spans="1:17" s="12" customFormat="1" ht="96.5" customHeight="1">
+      <c r="R72" s="13"/>
+      <c r="S72" s="13"/>
+    </row>
+    <row r="73" spans="1:19" s="12" customFormat="1" ht="110.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="6"/>
       <c r="B73" s="7"/>
-      <c r="C73" s="28"/>
-      <c r="D73" s="37"/>
-      <c r="E73" s="37"/>
-      <c r="F73" s="37"/>
-      <c r="G73" s="37"/>
+      <c r="C73" s="24"/>
+      <c r="D73" s="19"/>
+      <c r="E73" s="19"/>
+      <c r="F73" s="19"/>
+      <c r="G73" s="19"/>
       <c r="H73" s="10"/>
       <c r="I73" s="21"/>
       <c r="J73" s="35"/>
-      <c r="K73" s="38"/>
-      <c r="L73" s="37"/>
-      <c r="M73" s="38"/>
-      <c r="N73" s="11"/>
-      <c r="O73" s="13"/>
+      <c r="K73" s="23"/>
+      <c r="L73" s="20"/>
+      <c r="M73" s="31"/>
+      <c r="N73" s="31"/>
+      <c r="O73" s="11"/>
       <c r="P73" s="13"/>
       <c r="Q73" s="13"/>
-    </row>
-    <row r="74" spans="1:17" s="12" customFormat="1" ht="100.5" customHeight="1">
+      <c r="R73" s="13"/>
+      <c r="S73" s="13"/>
+    </row>
+    <row r="74" spans="1:19" s="12" customFormat="1" ht="131" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="6"/>
       <c r="B74" s="7"/>
       <c r="C74" s="28"/>
-      <c r="D74" s="37"/>
-      <c r="E74" s="37"/>
-      <c r="F74" s="37"/>
-      <c r="G74" s="37"/>
+      <c r="D74" s="29"/>
+      <c r="E74" s="28"/>
+      <c r="F74" s="28"/>
+      <c r="G74" s="28"/>
       <c r="H74" s="10"/>
       <c r="I74" s="21"/>
       <c r="J74" s="35"/>
-      <c r="K74" s="38"/>
-      <c r="L74" s="37"/>
-      <c r="M74" s="38"/>
-      <c r="N74" s="11"/>
-      <c r="O74" s="13"/>
+      <c r="K74" s="23"/>
+      <c r="L74" s="30"/>
+      <c r="M74" s="31"/>
+      <c r="N74" s="31"/>
+      <c r="O74" s="11"/>
       <c r="P74" s="13"/>
       <c r="Q74" s="13"/>
-    </row>
-    <row r="75" spans="1:17" s="12" customFormat="1" ht="156.5" customHeight="1">
+      <c r="R74" s="13"/>
+      <c r="S74" s="13"/>
+    </row>
+    <row r="75" spans="1:19" s="12" customFormat="1" ht="141" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="6"/>
       <c r="B75" s="7"/>
       <c r="C75" s="28"/>
-      <c r="D75" s="37"/>
-      <c r="E75" s="37"/>
-      <c r="F75" s="37"/>
-      <c r="G75" s="37"/>
+      <c r="D75" s="29"/>
+      <c r="E75" s="28"/>
+      <c r="F75" s="28"/>
+      <c r="G75" s="28"/>
       <c r="H75" s="10"/>
       <c r="I75" s="21"/>
       <c r="J75" s="35"/>
-      <c r="K75" s="38"/>
-      <c r="L75" s="37"/>
-      <c r="M75" s="38"/>
-      <c r="N75" s="11"/>
-      <c r="O75" s="13"/>
+      <c r="K75" s="23"/>
+      <c r="L75" s="30"/>
+      <c r="M75" s="31"/>
+      <c r="N75" s="31"/>
+      <c r="O75" s="11"/>
       <c r="P75" s="13"/>
       <c r="Q75" s="13"/>
-    </row>
-    <row r="76" spans="1:17" s="12" customFormat="1" ht="111" customHeight="1">
+      <c r="R75" s="13"/>
+      <c r="S75" s="13"/>
+    </row>
+    <row r="76" spans="1:19" s="12" customFormat="1" ht="118.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="6"/>
       <c r="B76" s="7"/>
       <c r="C76" s="28"/>
-      <c r="D76" s="37"/>
-      <c r="E76" s="37"/>
-      <c r="F76" s="37"/>
-      <c r="G76" s="37"/>
+      <c r="D76" s="19"/>
+      <c r="E76" s="19"/>
+      <c r="F76" s="19"/>
+      <c r="G76" s="19"/>
       <c r="H76" s="10"/>
       <c r="I76" s="21"/>
       <c r="J76" s="35"/>
-      <c r="K76" s="38"/>
-      <c r="L76" s="37"/>
-      <c r="M76" s="38"/>
-      <c r="N76" s="11"/>
-      <c r="O76" s="13"/>
+      <c r="K76" s="23"/>
+      <c r="L76" s="20"/>
+      <c r="M76" s="23"/>
+      <c r="N76" s="23"/>
+      <c r="O76" s="11"/>
       <c r="P76" s="13"/>
       <c r="Q76" s="13"/>
-    </row>
-    <row r="77" spans="1:17" s="12" customFormat="1" ht="17.5">
+      <c r="R76" s="13"/>
+      <c r="S76" s="13"/>
+    </row>
+    <row r="77" spans="1:19" s="12" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="6"/>
       <c r="B77" s="7"/>
       <c r="C77" s="28"/>
-      <c r="D77" s="37"/>
-      <c r="E77" s="37"/>
-      <c r="F77" s="37"/>
-      <c r="G77" s="37"/>
+      <c r="D77" s="19"/>
+      <c r="E77" s="19"/>
+      <c r="F77" s="19"/>
+      <c r="G77" s="19"/>
       <c r="H77" s="10"/>
       <c r="I77" s="21"/>
       <c r="J77" s="35"/>
-      <c r="K77" s="38"/>
-      <c r="L77" s="37"/>
-      <c r="M77" s="38"/>
-      <c r="N77" s="11"/>
-      <c r="O77" s="13"/>
+      <c r="K77" s="23"/>
+      <c r="L77" s="20"/>
+      <c r="M77" s="23"/>
+      <c r="N77" s="23"/>
+      <c r="O77" s="11"/>
       <c r="P77" s="13"/>
       <c r="Q77" s="13"/>
-    </row>
-    <row r="78" spans="1:17" s="12" customFormat="1" ht="161.5" customHeight="1">
+      <c r="R77" s="13"/>
+      <c r="S77" s="13"/>
+    </row>
+    <row r="78" spans="1:19" s="12" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="6"/>
       <c r="B78" s="7"/>
       <c r="C78" s="28"/>
-      <c r="D78" s="37"/>
-      <c r="E78" s="37"/>
-      <c r="F78" s="37"/>
-      <c r="G78" s="37"/>
+      <c r="D78" s="19"/>
+      <c r="E78" s="19"/>
+      <c r="F78" s="19"/>
+      <c r="G78" s="19"/>
       <c r="H78" s="10"/>
       <c r="I78" s="21"/>
       <c r="J78" s="35"/>
-      <c r="K78" s="38"/>
-      <c r="L78" s="37"/>
-      <c r="M78" s="38"/>
-      <c r="N78" s="11"/>
-      <c r="O78" s="13"/>
+      <c r="K78" s="23"/>
+      <c r="L78" s="20"/>
+      <c r="M78" s="23"/>
+      <c r="N78" s="23"/>
+      <c r="O78" s="11"/>
       <c r="P78" s="13"/>
       <c r="Q78" s="13"/>
-    </row>
-    <row r="79" spans="1:17" s="12" customFormat="1" ht="154.5" customHeight="1">
+      <c r="R78" s="13"/>
+      <c r="S78" s="13"/>
+    </row>
+    <row r="79" spans="1:19" s="12" customFormat="1" ht="191.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="6"/>
       <c r="B79" s="7"/>
       <c r="C79" s="28"/>
-      <c r="D79" s="37"/>
-      <c r="E79" s="37"/>
-      <c r="F79" s="37"/>
-      <c r="G79" s="37"/>
+      <c r="D79" s="19"/>
+      <c r="E79" s="19"/>
+      <c r="F79" s="19"/>
+      <c r="G79" s="19"/>
       <c r="H79" s="10"/>
       <c r="I79" s="21"/>
       <c r="J79" s="35"/>
-      <c r="K79" s="38"/>
-      <c r="L79" s="37"/>
-      <c r="M79" s="38"/>
-      <c r="N79" s="11"/>
-      <c r="O79" s="13"/>
+      <c r="K79" s="23"/>
+      <c r="L79" s="20"/>
+      <c r="M79" s="23"/>
+      <c r="N79" s="23"/>
+      <c r="O79" s="11"/>
       <c r="P79" s="13"/>
       <c r="Q79" s="13"/>
-    </row>
-    <row r="80" spans="1:17" s="12" customFormat="1" ht="17.5">
+      <c r="R79" s="13"/>
+      <c r="S79" s="13"/>
+    </row>
+    <row r="80" spans="1:19" s="12" customFormat="1" ht="128" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="6"/>
       <c r="B80" s="7"/>
       <c r="C80" s="28"/>
@@ -2860,12 +3144,14 @@
       <c r="K80" s="38"/>
       <c r="L80" s="37"/>
       <c r="M80" s="38"/>
-      <c r="N80" s="11"/>
-      <c r="O80" s="13"/>
+      <c r="N80" s="38"/>
+      <c r="O80" s="11"/>
       <c r="P80" s="13"/>
       <c r="Q80" s="13"/>
-    </row>
-    <row r="81" spans="1:17" s="12" customFormat="1" ht="17.5">
+      <c r="R80" s="13"/>
+      <c r="S80" s="13"/>
+    </row>
+    <row r="81" spans="1:19" s="12" customFormat="1" ht="96.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="6"/>
       <c r="B81" s="7"/>
       <c r="C81" s="28"/>
@@ -2879,12 +3165,14 @@
       <c r="K81" s="38"/>
       <c r="L81" s="37"/>
       <c r="M81" s="38"/>
-      <c r="N81" s="11"/>
-      <c r="O81" s="13"/>
+      <c r="N81" s="38"/>
+      <c r="O81" s="11"/>
       <c r="P81" s="13"/>
       <c r="Q81" s="13"/>
-    </row>
-    <row r="82" spans="1:17" s="12" customFormat="1" ht="17.5">
+      <c r="R81" s="13"/>
+      <c r="S81" s="13"/>
+    </row>
+    <row r="82" spans="1:19" s="12" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="6"/>
       <c r="B82" s="7"/>
       <c r="C82" s="28"/>
@@ -2898,12 +3186,14 @@
       <c r="K82" s="38"/>
       <c r="L82" s="37"/>
       <c r="M82" s="38"/>
-      <c r="N82" s="11"/>
-      <c r="O82" s="13"/>
+      <c r="N82" s="38"/>
+      <c r="O82" s="11"/>
       <c r="P82" s="13"/>
       <c r="Q82" s="13"/>
-    </row>
-    <row r="83" spans="1:17" s="12" customFormat="1" ht="17.5">
+      <c r="R82" s="13"/>
+      <c r="S82" s="13"/>
+    </row>
+    <row r="83" spans="1:19" s="12" customFormat="1" ht="156.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="6"/>
       <c r="B83" s="7"/>
       <c r="C83" s="28"/>
@@ -2917,163 +3207,185 @@
       <c r="K83" s="38"/>
       <c r="L83" s="37"/>
       <c r="M83" s="38"/>
-      <c r="N83" s="11"/>
-      <c r="O83" s="13"/>
+      <c r="N83" s="38"/>
+      <c r="O83" s="11"/>
       <c r="P83" s="13"/>
       <c r="Q83" s="13"/>
-    </row>
-    <row r="84" spans="1:17" s="12" customFormat="1" ht="17.5">
+      <c r="R83" s="13"/>
+      <c r="S83" s="13"/>
+    </row>
+    <row r="84" spans="1:19" s="12" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="6"/>
       <c r="B84" s="7"/>
       <c r="C84" s="28"/>
-      <c r="D84" s="19"/>
-      <c r="E84" s="19"/>
-      <c r="F84" s="19"/>
-      <c r="G84" s="19"/>
+      <c r="D84" s="37"/>
+      <c r="E84" s="37"/>
+      <c r="F84" s="37"/>
+      <c r="G84" s="37"/>
       <c r="H84" s="10"/>
       <c r="I84" s="21"/>
       <c r="J84" s="35"/>
-      <c r="K84" s="23"/>
-      <c r="L84" s="20"/>
-      <c r="M84" s="23"/>
-      <c r="N84" s="11"/>
-      <c r="O84" s="13"/>
+      <c r="K84" s="38"/>
+      <c r="L84" s="37"/>
+      <c r="M84" s="38"/>
+      <c r="N84" s="38"/>
+      <c r="O84" s="11"/>
       <c r="P84" s="13"/>
       <c r="Q84" s="13"/>
-    </row>
-    <row r="85" spans="1:17" s="12" customFormat="1" ht="17.5">
+      <c r="R84" s="13"/>
+      <c r="S84" s="13"/>
+    </row>
+    <row r="85" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A85" s="6"/>
       <c r="B85" s="7"/>
-      <c r="C85" s="24"/>
-      <c r="D85" s="19"/>
-      <c r="E85" s="19"/>
-      <c r="F85" s="19"/>
-      <c r="G85" s="19"/>
+      <c r="C85" s="28"/>
+      <c r="D85" s="37"/>
+      <c r="E85" s="37"/>
+      <c r="F85" s="37"/>
+      <c r="G85" s="37"/>
       <c r="H85" s="10"/>
       <c r="I85" s="21"/>
       <c r="J85" s="35"/>
-      <c r="K85" s="23"/>
-      <c r="L85" s="20"/>
-      <c r="M85" s="23"/>
-      <c r="N85" s="11"/>
-      <c r="O85" s="13"/>
+      <c r="K85" s="38"/>
+      <c r="L85" s="37"/>
+      <c r="M85" s="38"/>
+      <c r="N85" s="38"/>
+      <c r="O85" s="11"/>
       <c r="P85" s="13"/>
       <c r="Q85" s="13"/>
-    </row>
-    <row r="86" spans="1:17" s="12" customFormat="1" ht="17.5">
+      <c r="R85" s="13"/>
+      <c r="S85" s="13"/>
+    </row>
+    <row r="86" spans="1:19" s="12" customFormat="1" ht="161.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="6"/>
       <c r="B86" s="7"/>
-      <c r="C86" s="24"/>
-      <c r="D86" s="19"/>
-      <c r="E86" s="19"/>
-      <c r="F86" s="19"/>
-      <c r="G86" s="19"/>
+      <c r="C86" s="28"/>
+      <c r="D86" s="37"/>
+      <c r="E86" s="37"/>
+      <c r="F86" s="37"/>
+      <c r="G86" s="37"/>
       <c r="H86" s="10"/>
       <c r="I86" s="21"/>
       <c r="J86" s="35"/>
-      <c r="K86" s="23"/>
-      <c r="L86" s="20"/>
-      <c r="M86" s="27"/>
-      <c r="N86" s="11"/>
-      <c r="O86" s="13"/>
+      <c r="K86" s="38"/>
+      <c r="L86" s="37"/>
+      <c r="M86" s="38"/>
+      <c r="N86" s="38"/>
+      <c r="O86" s="11"/>
       <c r="P86" s="13"/>
       <c r="Q86" s="13"/>
-    </row>
-    <row r="87" spans="1:17" s="12" customFormat="1" ht="17.5">
+      <c r="R86" s="13"/>
+      <c r="S86" s="13"/>
+    </row>
+    <row r="87" spans="1:19" s="12" customFormat="1" ht="154.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="6"/>
       <c r="B87" s="7"/>
-      <c r="C87" s="24"/>
-      <c r="D87" s="19"/>
-      <c r="E87" s="19"/>
-      <c r="F87" s="19"/>
-      <c r="G87" s="19"/>
+      <c r="C87" s="28"/>
+      <c r="D87" s="37"/>
+      <c r="E87" s="37"/>
+      <c r="F87" s="37"/>
+      <c r="G87" s="37"/>
       <c r="H87" s="10"/>
       <c r="I87" s="21"/>
       <c r="J87" s="35"/>
-      <c r="K87" s="23"/>
-      <c r="L87" s="20"/>
-      <c r="M87" s="27"/>
-      <c r="N87" s="11"/>
-      <c r="O87" s="13"/>
+      <c r="K87" s="38"/>
+      <c r="L87" s="37"/>
+      <c r="M87" s="38"/>
+      <c r="N87" s="38"/>
+      <c r="O87" s="11"/>
       <c r="P87" s="13"/>
       <c r="Q87" s="13"/>
-    </row>
-    <row r="88" spans="1:17" s="12" customFormat="1" ht="204" customHeight="1">
+      <c r="R87" s="13"/>
+      <c r="S87" s="13"/>
+    </row>
+    <row r="88" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A88" s="6"/>
       <c r="B88" s="7"/>
-      <c r="C88" s="24"/>
-      <c r="D88" s="19"/>
-      <c r="E88" s="19"/>
-      <c r="F88" s="19"/>
-      <c r="G88" s="19"/>
+      <c r="C88" s="28"/>
+      <c r="D88" s="37"/>
+      <c r="E88" s="37"/>
+      <c r="F88" s="37"/>
+      <c r="G88" s="37"/>
       <c r="H88" s="10"/>
       <c r="I88" s="21"/>
       <c r="J88" s="35"/>
-      <c r="K88" s="23"/>
-      <c r="L88" s="20"/>
-      <c r="M88" s="27"/>
-      <c r="N88" s="11"/>
-      <c r="O88" s="13"/>
+      <c r="K88" s="38"/>
+      <c r="L88" s="37"/>
+      <c r="M88" s="38"/>
+      <c r="N88" s="38"/>
+      <c r="O88" s="11"/>
       <c r="P88" s="13"/>
       <c r="Q88" s="13"/>
-    </row>
-    <row r="89" spans="1:17" s="12" customFormat="1" ht="17.5">
+      <c r="R88" s="13"/>
+      <c r="S88" s="13"/>
+    </row>
+    <row r="89" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A89" s="6"/>
       <c r="B89" s="7"/>
-      <c r="C89" s="24"/>
-      <c r="D89" s="19"/>
-      <c r="E89" s="19"/>
-      <c r="F89" s="19"/>
-      <c r="G89" s="19"/>
+      <c r="C89" s="28"/>
+      <c r="D89" s="37"/>
+      <c r="E89" s="37"/>
+      <c r="F89" s="37"/>
+      <c r="G89" s="37"/>
       <c r="H89" s="10"/>
       <c r="I89" s="21"/>
       <c r="J89" s="35"/>
-      <c r="K89" s="23"/>
-      <c r="L89" s="20"/>
-      <c r="M89" s="27"/>
-      <c r="N89" s="11"/>
-      <c r="O89" s="13"/>
+      <c r="K89" s="38"/>
+      <c r="L89" s="37"/>
+      <c r="M89" s="38"/>
+      <c r="N89" s="38"/>
+      <c r="O89" s="11"/>
       <c r="P89" s="13"/>
       <c r="Q89" s="13"/>
-    </row>
-    <row r="90" spans="1:17" s="12" customFormat="1" ht="17.5">
+      <c r="R89" s="13"/>
+      <c r="S89" s="13"/>
+    </row>
+    <row r="90" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A90" s="6"/>
       <c r="B90" s="7"/>
-      <c r="C90" s="24"/>
-      <c r="D90" s="19"/>
-      <c r="E90" s="19"/>
-      <c r="F90" s="19"/>
-      <c r="G90" s="19"/>
+      <c r="C90" s="28"/>
+      <c r="D90" s="37"/>
+      <c r="E90" s="37"/>
+      <c r="F90" s="37"/>
+      <c r="G90" s="37"/>
       <c r="H90" s="10"/>
       <c r="I90" s="21"/>
       <c r="J90" s="35"/>
-      <c r="K90" s="23"/>
-      <c r="L90" s="20"/>
-      <c r="M90" s="23"/>
-      <c r="N90" s="11"/>
-      <c r="O90" s="13"/>
+      <c r="K90" s="38"/>
+      <c r="L90" s="37"/>
+      <c r="M90" s="38"/>
+      <c r="N90" s="38"/>
+      <c r="O90" s="11"/>
       <c r="P90" s="13"/>
       <c r="Q90" s="13"/>
-    </row>
-    <row r="91" spans="1:17" ht="17.5">
+      <c r="R90" s="13"/>
+      <c r="S90" s="13"/>
+    </row>
+    <row r="91" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A91" s="6"/>
       <c r="B91" s="7"/>
-      <c r="C91" s="24"/>
-      <c r="D91" s="19"/>
-      <c r="E91" s="19"/>
-      <c r="F91" s="19"/>
-      <c r="G91" s="19"/>
+      <c r="C91" s="28"/>
+      <c r="D91" s="37"/>
+      <c r="E91" s="37"/>
+      <c r="F91" s="37"/>
+      <c r="G91" s="37"/>
       <c r="H91" s="10"/>
       <c r="I91" s="21"/>
       <c r="J91" s="35"/>
-      <c r="K91" s="23"/>
-      <c r="L91" s="20"/>
-      <c r="M91" s="23"/>
-    </row>
-    <row r="92" spans="1:17" ht="158.5" customHeight="1">
+      <c r="K91" s="38"/>
+      <c r="L91" s="37"/>
+      <c r="M91" s="38"/>
+      <c r="N91" s="38"/>
+      <c r="O91" s="11"/>
+      <c r="P91" s="13"/>
+      <c r="Q91" s="13"/>
+      <c r="R91" s="13"/>
+      <c r="S91" s="13"/>
+    </row>
+    <row r="92" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A92" s="6"/>
       <c r="B92" s="7"/>
-      <c r="C92" s="24"/>
+      <c r="C92" s="28"/>
       <c r="D92" s="19"/>
       <c r="E92" s="19"/>
       <c r="F92" s="19"/>
@@ -3084,8 +3396,14 @@
       <c r="K92" s="23"/>
       <c r="L92" s="20"/>
       <c r="M92" s="23"/>
-    </row>
-    <row r="93" spans="1:17" ht="17.5">
+      <c r="N92" s="23"/>
+      <c r="O92" s="11"/>
+      <c r="P92" s="13"/>
+      <c r="Q92" s="13"/>
+      <c r="R92" s="13"/>
+      <c r="S92" s="13"/>
+    </row>
+    <row r="93" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A93" s="6"/>
       <c r="B93" s="7"/>
       <c r="C93" s="24"/>
@@ -3098,9 +3416,15 @@
       <c r="J93" s="35"/>
       <c r="K93" s="23"/>
       <c r="L93" s="20"/>
-      <c r="M93" s="27"/>
-    </row>
-    <row r="94" spans="1:17" ht="91.75" customHeight="1">
+      <c r="M93" s="23"/>
+      <c r="N93" s="23"/>
+      <c r="O93" s="11"/>
+      <c r="P93" s="13"/>
+      <c r="Q93" s="13"/>
+      <c r="R93" s="13"/>
+      <c r="S93" s="13"/>
+    </row>
+    <row r="94" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A94" s="6"/>
       <c r="B94" s="7"/>
       <c r="C94" s="24"/>
@@ -3114,8 +3438,14 @@
       <c r="K94" s="23"/>
       <c r="L94" s="20"/>
       <c r="M94" s="27"/>
-    </row>
-    <row r="95" spans="1:17" ht="165" customHeight="1">
+      <c r="N94" s="27"/>
+      <c r="O94" s="11"/>
+      <c r="P94" s="13"/>
+      <c r="Q94" s="13"/>
+      <c r="R94" s="13"/>
+      <c r="S94" s="13"/>
+    </row>
+    <row r="95" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A95" s="6"/>
       <c r="B95" s="7"/>
       <c r="C95" s="24"/>
@@ -3127,10 +3457,16 @@
       <c r="I95" s="21"/>
       <c r="J95" s="35"/>
       <c r="K95" s="23"/>
-      <c r="L95" s="37"/>
-      <c r="M95" s="38"/>
-    </row>
-    <row r="96" spans="1:17" ht="108" customHeight="1">
+      <c r="L95" s="20"/>
+      <c r="M95" s="27"/>
+      <c r="N95" s="27"/>
+      <c r="O95" s="11"/>
+      <c r="P95" s="13"/>
+      <c r="Q95" s="13"/>
+      <c r="R95" s="13"/>
+      <c r="S95" s="13"/>
+    </row>
+    <row r="96" spans="1:19" s="12" customFormat="1" ht="204" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="6"/>
       <c r="B96" s="7"/>
       <c r="C96" s="24"/>
@@ -3143,9 +3479,15 @@
       <c r="J96" s="35"/>
       <c r="K96" s="23"/>
       <c r="L96" s="20"/>
-      <c r="M96" s="31"/>
-    </row>
-    <row r="97" spans="1:13" ht="101" customHeight="1">
+      <c r="M96" s="27"/>
+      <c r="N96" s="27"/>
+      <c r="O96" s="11"/>
+      <c r="P96" s="13"/>
+      <c r="Q96" s="13"/>
+      <c r="R96" s="13"/>
+      <c r="S96" s="13"/>
+    </row>
+    <row r="97" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A97" s="6"/>
       <c r="B97" s="7"/>
       <c r="C97" s="24"/>
@@ -3158,42 +3500,55 @@
       <c r="J97" s="35"/>
       <c r="K97" s="23"/>
       <c r="L97" s="20"/>
-      <c r="M97" s="31"/>
-    </row>
-    <row r="98" spans="1:13" ht="88" customHeight="1">
+      <c r="M97" s="27"/>
+      <c r="N97" s="27"/>
+      <c r="O97" s="11"/>
+      <c r="P97" s="13"/>
+      <c r="Q97" s="13"/>
+      <c r="R97" s="13"/>
+      <c r="S97" s="13"/>
+    </row>
+    <row r="98" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A98" s="6"/>
       <c r="B98" s="7"/>
-      <c r="C98" s="28"/>
-      <c r="D98" s="29"/>
-      <c r="E98" s="28"/>
-      <c r="F98" s="28"/>
-      <c r="G98" s="28"/>
+      <c r="C98" s="24"/>
+      <c r="D98" s="19"/>
+      <c r="E98" s="19"/>
+      <c r="F98" s="19"/>
+      <c r="G98" s="19"/>
       <c r="H98" s="10"/>
       <c r="I98" s="21"/>
       <c r="J98" s="35"/>
       <c r="K98" s="23"/>
-      <c r="L98" s="30"/>
-      <c r="M98" s="31"/>
-    </row>
-    <row r="99" spans="1:13" ht="98" customHeight="1">
+      <c r="L98" s="20"/>
+      <c r="M98" s="23"/>
+      <c r="N98" s="23"/>
+      <c r="O98" s="11"/>
+      <c r="P98" s="13"/>
+      <c r="Q98" s="13"/>
+      <c r="R98" s="13"/>
+      <c r="S98" s="13"/>
+    </row>
+    <row r="99" spans="1:19" ht="18" x14ac:dyDescent="0.2">
       <c r="A99" s="6"/>
       <c r="B99" s="7"/>
-      <c r="C99" s="28"/>
-      <c r="D99" s="29"/>
-      <c r="E99" s="28"/>
-      <c r="F99" s="28"/>
-      <c r="G99" s="28"/>
+      <c r="C99" s="24"/>
+      <c r="D99" s="19"/>
+      <c r="E99" s="19"/>
+      <c r="F99" s="19"/>
+      <c r="G99" s="19"/>
       <c r="H99" s="10"/>
       <c r="I99" s="21"/>
       <c r="J99" s="35"/>
       <c r="K99" s="23"/>
-      <c r="L99" s="30"/>
-      <c r="M99" s="31"/>
-    </row>
-    <row r="100" spans="1:13" ht="156" customHeight="1">
+      <c r="L99" s="20"/>
+      <c r="M99" s="23"/>
+      <c r="N99" s="23"/>
+    </row>
+    <row r="100" spans="1:19" ht="158.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="6"/>
       <c r="B100" s="7"/>
-      <c r="C100" s="28"/>
+      <c r="C100" s="24"/>
       <c r="D100" s="19"/>
       <c r="E100" s="19"/>
       <c r="F100" s="19"/>
@@ -3204,11 +3559,12 @@
       <c r="K100" s="23"/>
       <c r="L100" s="20"/>
       <c r="M100" s="23"/>
-    </row>
-    <row r="101" spans="1:13" ht="172.5" customHeight="1">
+      <c r="N100" s="23"/>
+    </row>
+    <row r="101" spans="1:19" ht="18" x14ac:dyDescent="0.2">
       <c r="A101" s="6"/>
       <c r="B101" s="7"/>
-      <c r="C101" s="28"/>
+      <c r="C101" s="24"/>
       <c r="D101" s="19"/>
       <c r="E101" s="19"/>
       <c r="F101" s="19"/>
@@ -3218,12 +3574,13 @@
       <c r="J101" s="35"/>
       <c r="K101" s="23"/>
       <c r="L101" s="20"/>
-      <c r="M101" s="23"/>
-    </row>
-    <row r="102" spans="1:13" ht="79" customHeight="1">
+      <c r="M101" s="27"/>
+      <c r="N101" s="27"/>
+    </row>
+    <row r="102" spans="1:19" ht="91.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="6"/>
       <c r="B102" s="7"/>
-      <c r="C102" s="28"/>
+      <c r="C102" s="24"/>
       <c r="D102" s="19"/>
       <c r="E102" s="19"/>
       <c r="F102" s="19"/>
@@ -3233,12 +3590,13 @@
       <c r="J102" s="35"/>
       <c r="K102" s="23"/>
       <c r="L102" s="20"/>
-      <c r="M102" s="23"/>
-    </row>
-    <row r="103" spans="1:13" ht="102.5" customHeight="1">
+      <c r="M102" s="27"/>
+      <c r="N102" s="27"/>
+    </row>
+    <row r="103" spans="1:19" ht="165" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="6"/>
       <c r="B103" s="7"/>
-      <c r="C103" s="28"/>
+      <c r="C103" s="24"/>
       <c r="D103" s="19"/>
       <c r="E103" s="19"/>
       <c r="F103" s="19"/>
@@ -3247,13 +3605,14 @@
       <c r="I103" s="21"/>
       <c r="J103" s="35"/>
       <c r="K103" s="23"/>
-      <c r="L103" s="20"/>
-      <c r="M103" s="23"/>
-    </row>
-    <row r="104" spans="1:13" ht="51" customHeight="1">
+      <c r="L103" s="37"/>
+      <c r="M103" s="38"/>
+      <c r="N103" s="38"/>
+    </row>
+    <row r="104" spans="1:19" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="6"/>
       <c r="B104" s="7"/>
-      <c r="C104" s="28"/>
+      <c r="C104" s="24"/>
       <c r="D104" s="19"/>
       <c r="E104" s="19"/>
       <c r="F104" s="19"/>
@@ -3263,12 +3622,13 @@
       <c r="J104" s="35"/>
       <c r="K104" s="23"/>
       <c r="L104" s="20"/>
-      <c r="M104" s="23"/>
-    </row>
-    <row r="105" spans="1:13" ht="121.25" customHeight="1">
+      <c r="M104" s="31"/>
+      <c r="N104" s="31"/>
+    </row>
+    <row r="105" spans="1:19" ht="101" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="6"/>
       <c r="B105" s="7"/>
-      <c r="C105" s="28"/>
+      <c r="C105" s="24"/>
       <c r="D105" s="19"/>
       <c r="E105" s="19"/>
       <c r="F105" s="19"/>
@@ -3278,39 +3638,42 @@
       <c r="J105" s="35"/>
       <c r="K105" s="23"/>
       <c r="L105" s="20"/>
-      <c r="M105" s="23"/>
-    </row>
-    <row r="106" spans="1:13" ht="49.5" customHeight="1">
+      <c r="M105" s="31"/>
+      <c r="N105" s="31"/>
+    </row>
+    <row r="106" spans="1:19" ht="88" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="6"/>
       <c r="B106" s="7"/>
       <c r="C106" s="28"/>
-      <c r="D106" s="19"/>
-      <c r="E106" s="19"/>
-      <c r="F106" s="19"/>
-      <c r="G106" s="19"/>
+      <c r="D106" s="29"/>
+      <c r="E106" s="28"/>
+      <c r="F106" s="28"/>
+      <c r="G106" s="28"/>
       <c r="H106" s="10"/>
       <c r="I106" s="21"/>
       <c r="J106" s="35"/>
       <c r="K106" s="23"/>
-      <c r="L106" s="20"/>
-      <c r="M106" s="23"/>
-    </row>
-    <row r="107" spans="1:13" ht="56.4" customHeight="1">
+      <c r="L106" s="30"/>
+      <c r="M106" s="31"/>
+      <c r="N106" s="31"/>
+    </row>
+    <row r="107" spans="1:19" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="6"/>
       <c r="B107" s="7"/>
       <c r="C107" s="28"/>
-      <c r="D107" s="19"/>
-      <c r="E107" s="19"/>
-      <c r="F107" s="19"/>
-      <c r="G107" s="19"/>
+      <c r="D107" s="29"/>
+      <c r="E107" s="28"/>
+      <c r="F107" s="28"/>
+      <c r="G107" s="28"/>
       <c r="H107" s="10"/>
       <c r="I107" s="21"/>
       <c r="J107" s="35"/>
       <c r="K107" s="23"/>
-      <c r="L107" s="20"/>
-      <c r="M107" s="23"/>
-    </row>
-    <row r="108" spans="1:13" ht="104" customHeight="1">
+      <c r="L107" s="30"/>
+      <c r="M107" s="31"/>
+      <c r="N107" s="31"/>
+    </row>
+    <row r="108" spans="1:19" ht="156" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="6"/>
       <c r="B108" s="7"/>
       <c r="C108" s="28"/>
@@ -3324,8 +3687,9 @@
       <c r="K108" s="23"/>
       <c r="L108" s="20"/>
       <c r="M108" s="23"/>
-    </row>
-    <row r="109" spans="1:13" ht="95.4" customHeight="1">
+      <c r="N108" s="23"/>
+    </row>
+    <row r="109" spans="1:19" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="6"/>
       <c r="B109" s="7"/>
       <c r="C109" s="28"/>
@@ -3339,8 +3703,9 @@
       <c r="K109" s="23"/>
       <c r="L109" s="20"/>
       <c r="M109" s="23"/>
-    </row>
-    <row r="110" spans="1:13" ht="78" customHeight="1">
+      <c r="N109" s="23"/>
+    </row>
+    <row r="110" spans="1:19" ht="79" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="6"/>
       <c r="B110" s="7"/>
       <c r="C110" s="28"/>
@@ -3354,8 +3719,9 @@
       <c r="K110" s="23"/>
       <c r="L110" s="20"/>
       <c r="M110" s="23"/>
-    </row>
-    <row r="111" spans="1:13" ht="17.5">
+      <c r="N110" s="23"/>
+    </row>
+    <row r="111" spans="1:19" ht="102.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="6"/>
       <c r="B111" s="7"/>
       <c r="C111" s="28"/>
@@ -3369,8 +3735,9 @@
       <c r="K111" s="23"/>
       <c r="L111" s="20"/>
       <c r="M111" s="23"/>
-    </row>
-    <row r="112" spans="1:13" ht="17.5">
+      <c r="N111" s="23"/>
+    </row>
+    <row r="112" spans="1:19" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="6"/>
       <c r="B112" s="7"/>
       <c r="C112" s="28"/>
@@ -3384,8 +3751,9 @@
       <c r="K112" s="23"/>
       <c r="L112" s="20"/>
       <c r="M112" s="23"/>
-    </row>
-    <row r="113" spans="1:13" ht="17.5">
+      <c r="N112" s="23"/>
+    </row>
+    <row r="113" spans="1:14" ht="121.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="6"/>
       <c r="B113" s="7"/>
       <c r="C113" s="28"/>
@@ -3399,8 +3767,9 @@
       <c r="K113" s="23"/>
       <c r="L113" s="20"/>
       <c r="M113" s="23"/>
-    </row>
-    <row r="114" spans="1:13" ht="17.5">
+      <c r="N113" s="23"/>
+    </row>
+    <row r="114" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="6"/>
       <c r="B114" s="7"/>
       <c r="C114" s="28"/>
@@ -3414,8 +3783,9 @@
       <c r="K114" s="23"/>
       <c r="L114" s="20"/>
       <c r="M114" s="23"/>
-    </row>
-    <row r="115" spans="1:13" ht="17.5">
+      <c r="N114" s="23"/>
+    </row>
+    <row r="115" spans="1:14" ht="56.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="6"/>
       <c r="B115" s="7"/>
       <c r="C115" s="28"/>
@@ -3429,8 +3799,9 @@
       <c r="K115" s="23"/>
       <c r="L115" s="20"/>
       <c r="M115" s="23"/>
-    </row>
-    <row r="116" spans="1:13" ht="17.5">
+      <c r="N115" s="23"/>
+    </row>
+    <row r="116" spans="1:14" ht="104" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="6"/>
       <c r="B116" s="7"/>
       <c r="C116" s="28"/>
@@ -3444,8 +3815,9 @@
       <c r="K116" s="23"/>
       <c r="L116" s="20"/>
       <c r="M116" s="23"/>
-    </row>
-    <row r="117" spans="1:13" ht="17.5">
+      <c r="N116" s="23"/>
+    </row>
+    <row r="117" spans="1:14" ht="95.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="6"/>
       <c r="B117" s="7"/>
       <c r="C117" s="28"/>
@@ -3459,8 +3831,9 @@
       <c r="K117" s="23"/>
       <c r="L117" s="20"/>
       <c r="M117" s="23"/>
-    </row>
-    <row r="118" spans="1:13" ht="17.5">
+      <c r="N117" s="23"/>
+    </row>
+    <row r="118" spans="1:14" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="6"/>
       <c r="B118" s="7"/>
       <c r="C118" s="28"/>
@@ -3474,8 +3847,9 @@
       <c r="K118" s="23"/>
       <c r="L118" s="20"/>
       <c r="M118" s="23"/>
-    </row>
-    <row r="119" spans="1:13" ht="108" customHeight="1">
+      <c r="N118" s="23"/>
+    </row>
+    <row r="119" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A119" s="6"/>
       <c r="B119" s="7"/>
       <c r="C119" s="28"/>
@@ -3489,8 +3863,9 @@
       <c r="K119" s="23"/>
       <c r="L119" s="20"/>
       <c r="M119" s="23"/>
-    </row>
-    <row r="120" spans="1:13" ht="17.5">
+      <c r="N119" s="23"/>
+    </row>
+    <row r="120" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A120" s="6"/>
       <c r="B120" s="7"/>
       <c r="C120" s="28"/>
@@ -3504,8 +3879,9 @@
       <c r="K120" s="23"/>
       <c r="L120" s="20"/>
       <c r="M120" s="23"/>
-    </row>
-    <row r="121" spans="1:13" ht="17.5">
+      <c r="N120" s="23"/>
+    </row>
+    <row r="121" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A121" s="6"/>
       <c r="B121" s="7"/>
       <c r="C121" s="28"/>
@@ -3519,8 +3895,9 @@
       <c r="K121" s="23"/>
       <c r="L121" s="20"/>
       <c r="M121" s="23"/>
-    </row>
-    <row r="122" spans="1:13" ht="70.75" customHeight="1">
+      <c r="N121" s="23"/>
+    </row>
+    <row r="122" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A122" s="6"/>
       <c r="B122" s="7"/>
       <c r="C122" s="28"/>
@@ -3534,8 +3911,9 @@
       <c r="K122" s="23"/>
       <c r="L122" s="20"/>
       <c r="M122" s="23"/>
-    </row>
-    <row r="123" spans="1:13" ht="17.5">
+      <c r="N122" s="23"/>
+    </row>
+    <row r="123" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A123" s="6"/>
       <c r="B123" s="7"/>
       <c r="C123" s="28"/>
@@ -3549,68 +3927,73 @@
       <c r="K123" s="23"/>
       <c r="L123" s="20"/>
       <c r="M123" s="23"/>
-    </row>
-    <row r="124" spans="1:13" ht="17.5">
+      <c r="N123" s="23"/>
+    </row>
+    <row r="124" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A124" s="6"/>
       <c r="B124" s="7"/>
       <c r="C124" s="28"/>
-      <c r="D124" s="37"/>
-      <c r="E124" s="37"/>
-      <c r="F124" s="37"/>
-      <c r="G124" s="37"/>
+      <c r="D124" s="19"/>
+      <c r="E124" s="19"/>
+      <c r="F124" s="19"/>
+      <c r="G124" s="19"/>
       <c r="H124" s="10"/>
       <c r="I124" s="21"/>
       <c r="J124" s="35"/>
       <c r="K124" s="23"/>
       <c r="L124" s="20"/>
       <c r="M124" s="23"/>
-    </row>
-    <row r="125" spans="1:13" ht="17.5">
+      <c r="N124" s="23"/>
+    </row>
+    <row r="125" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A125" s="6"/>
       <c r="B125" s="7"/>
       <c r="C125" s="28"/>
-      <c r="D125" s="37"/>
-      <c r="E125" s="37"/>
-      <c r="F125" s="37"/>
-      <c r="G125" s="37"/>
+      <c r="D125" s="19"/>
+      <c r="E125" s="19"/>
+      <c r="F125" s="19"/>
+      <c r="G125" s="19"/>
       <c r="H125" s="10"/>
       <c r="I125" s="21"/>
       <c r="J125" s="35"/>
       <c r="K125" s="23"/>
       <c r="L125" s="20"/>
       <c r="M125" s="23"/>
-    </row>
-    <row r="126" spans="1:13" ht="17.5">
+      <c r="N125" s="23"/>
+    </row>
+    <row r="126" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A126" s="6"/>
       <c r="B126" s="7"/>
       <c r="C126" s="28"/>
-      <c r="D126" s="37"/>
-      <c r="E126" s="37"/>
-      <c r="F126" s="37"/>
-      <c r="G126" s="37"/>
+      <c r="D126" s="19"/>
+      <c r="E126" s="19"/>
+      <c r="F126" s="19"/>
+      <c r="G126" s="19"/>
       <c r="H126" s="10"/>
       <c r="I126" s="21"/>
       <c r="J126" s="35"/>
       <c r="K126" s="23"/>
       <c r="L126" s="20"/>
       <c r="M126" s="23"/>
-    </row>
-    <row r="127" spans="1:13" ht="17.5">
+      <c r="N126" s="23"/>
+    </row>
+    <row r="127" spans="1:14" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="6"/>
       <c r="B127" s="7"/>
       <c r="C127" s="28"/>
-      <c r="D127" s="37"/>
-      <c r="E127" s="37"/>
-      <c r="F127" s="37"/>
-      <c r="G127" s="37"/>
+      <c r="D127" s="19"/>
+      <c r="E127" s="19"/>
+      <c r="F127" s="19"/>
+      <c r="G127" s="19"/>
       <c r="H127" s="10"/>
       <c r="I127" s="21"/>
       <c r="J127" s="35"/>
-      <c r="K127" s="27"/>
+      <c r="K127" s="23"/>
       <c r="L127" s="20"/>
       <c r="M127" s="23"/>
-    </row>
-    <row r="128" spans="1:13" ht="17.5">
+      <c r="N127" s="23"/>
+    </row>
+    <row r="128" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A128" s="6"/>
       <c r="B128" s="7"/>
       <c r="C128" s="28"/>
@@ -3624,11 +4007,12 @@
       <c r="K128" s="23"/>
       <c r="L128" s="20"/>
       <c r="M128" s="23"/>
-    </row>
-    <row r="129" spans="1:17" ht="17.5">
+      <c r="N128" s="23"/>
+    </row>
+    <row r="129" spans="1:19" ht="18" x14ac:dyDescent="0.2">
       <c r="A129" s="6"/>
       <c r="B129" s="7"/>
-      <c r="C129" s="24"/>
+      <c r="C129" s="28"/>
       <c r="D129" s="19"/>
       <c r="E129" s="19"/>
       <c r="F129" s="19"/>
@@ -3638,137 +4022,138 @@
       <c r="J129" s="35"/>
       <c r="K129" s="23"/>
       <c r="L129" s="20"/>
-      <c r="M129" s="31"/>
-    </row>
-    <row r="130" spans="1:17" ht="17.5">
+      <c r="M129" s="23"/>
+      <c r="N129" s="23"/>
+    </row>
+    <row r="130" spans="1:19" ht="70.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="6"/>
       <c r="B130" s="7"/>
       <c r="C130" s="28"/>
-      <c r="D130" s="29"/>
-      <c r="E130" s="28"/>
-      <c r="F130" s="28"/>
-      <c r="G130" s="28"/>
+      <c r="D130" s="19"/>
+      <c r="E130" s="19"/>
+      <c r="F130" s="19"/>
+      <c r="G130" s="19"/>
       <c r="H130" s="10"/>
       <c r="I130" s="21"/>
       <c r="J130" s="35"/>
       <c r="K130" s="23"/>
-      <c r="L130" s="30"/>
-      <c r="M130" s="31"/>
-    </row>
-    <row r="131" spans="1:17" ht="17.5">
+      <c r="L130" s="20"/>
+      <c r="M130" s="23"/>
+      <c r="N130" s="23"/>
+    </row>
+    <row r="131" spans="1:19" ht="18" x14ac:dyDescent="0.2">
       <c r="A131" s="6"/>
       <c r="B131" s="7"/>
       <c r="C131" s="28"/>
-      <c r="D131" s="29"/>
-      <c r="E131" s="28"/>
-      <c r="F131" s="28"/>
-      <c r="G131" s="28"/>
+      <c r="D131" s="19"/>
+      <c r="E131" s="19"/>
+      <c r="F131" s="19"/>
+      <c r="G131" s="19"/>
       <c r="H131" s="10"/>
       <c r="I131" s="21"/>
       <c r="J131" s="35"/>
       <c r="K131" s="23"/>
-      <c r="L131" s="30"/>
-      <c r="M131" s="31"/>
-    </row>
-    <row r="132" spans="1:17" ht="17.5">
+      <c r="L131" s="20"/>
+      <c r="M131" s="23"/>
+      <c r="N131" s="23"/>
+    </row>
+    <row r="132" spans="1:19" ht="18" x14ac:dyDescent="0.2">
       <c r="A132" s="6"/>
       <c r="B132" s="7"/>
       <c r="C132" s="28"/>
-      <c r="D132" s="29"/>
-      <c r="E132" s="28"/>
-      <c r="F132" s="28"/>
-      <c r="G132" s="28"/>
+      <c r="D132" s="37"/>
+      <c r="E132" s="37"/>
+      <c r="F132" s="37"/>
+      <c r="G132" s="37"/>
       <c r="H132" s="10"/>
       <c r="I132" s="21"/>
       <c r="J132" s="35"/>
       <c r="K132" s="23"/>
-      <c r="L132" s="30"/>
-      <c r="M132" s="31"/>
-    </row>
-    <row r="133" spans="1:17" ht="17.5">
+      <c r="L132" s="20"/>
+      <c r="M132" s="23"/>
+      <c r="N132" s="23"/>
+    </row>
+    <row r="133" spans="1:19" ht="18" x14ac:dyDescent="0.2">
       <c r="A133" s="6"/>
       <c r="B133" s="7"/>
       <c r="C133" s="28"/>
-      <c r="D133" s="29"/>
-      <c r="E133" s="28"/>
-      <c r="F133" s="28"/>
-      <c r="G133" s="28"/>
+      <c r="D133" s="37"/>
+      <c r="E133" s="37"/>
+      <c r="F133" s="37"/>
+      <c r="G133" s="37"/>
       <c r="H133" s="10"/>
       <c r="I133" s="21"/>
       <c r="J133" s="35"/>
       <c r="K133" s="23"/>
-      <c r="L133" s="30"/>
-      <c r="M133" s="31"/>
-    </row>
-    <row r="134" spans="1:17" ht="17.5">
+      <c r="L133" s="20"/>
+      <c r="M133" s="23"/>
+      <c r="N133" s="23"/>
+    </row>
+    <row r="134" spans="1:19" ht="18" x14ac:dyDescent="0.2">
       <c r="A134" s="6"/>
       <c r="B134" s="7"/>
       <c r="C134" s="28"/>
-      <c r="D134" s="29"/>
-      <c r="E134" s="28"/>
-      <c r="F134" s="28"/>
-      <c r="G134" s="28"/>
+      <c r="D134" s="37"/>
+      <c r="E134" s="37"/>
+      <c r="F134" s="37"/>
+      <c r="G134" s="37"/>
       <c r="H134" s="10"/>
       <c r="I134" s="21"/>
       <c r="J134" s="35"/>
       <c r="K134" s="23"/>
-      <c r="L134" s="30"/>
-      <c r="M134" s="31"/>
-    </row>
-    <row r="135" spans="1:17" ht="88" customHeight="1">
+      <c r="L134" s="20"/>
+      <c r="M134" s="23"/>
+      <c r="N134" s="23"/>
+    </row>
+    <row r="135" spans="1:19" ht="18" x14ac:dyDescent="0.2">
       <c r="A135" s="6"/>
       <c r="B135" s="7"/>
       <c r="C135" s="28"/>
-      <c r="D135" s="29"/>
-      <c r="E135" s="28"/>
-      <c r="F135" s="28"/>
-      <c r="G135" s="28"/>
+      <c r="D135" s="37"/>
+      <c r="E135" s="37"/>
+      <c r="F135" s="37"/>
+      <c r="G135" s="37"/>
       <c r="H135" s="10"/>
       <c r="I135" s="21"/>
       <c r="J135" s="35"/>
-      <c r="K135" s="23"/>
-      <c r="L135" s="30"/>
-      <c r="M135" s="31"/>
-    </row>
-    <row r="136" spans="1:17" s="12" customFormat="1" ht="17.5">
+      <c r="K135" s="27"/>
+      <c r="L135" s="20"/>
+      <c r="M135" s="23"/>
+      <c r="N135" s="23"/>
+    </row>
+    <row r="136" spans="1:19" ht="18" x14ac:dyDescent="0.2">
       <c r="A136" s="6"/>
       <c r="B136" s="7"/>
       <c r="C136" s="28"/>
-      <c r="D136" s="29"/>
-      <c r="E136" s="28"/>
-      <c r="F136" s="28"/>
-      <c r="G136" s="28"/>
+      <c r="D136" s="19"/>
+      <c r="E136" s="19"/>
+      <c r="F136" s="19"/>
+      <c r="G136" s="19"/>
       <c r="H136" s="10"/>
       <c r="I136" s="21"/>
       <c r="J136" s="35"/>
       <c r="K136" s="23"/>
-      <c r="L136" s="30"/>
-      <c r="M136" s="31"/>
-      <c r="N136" s="11"/>
-      <c r="O136" s="13"/>
-      <c r="P136" s="13"/>
-      <c r="Q136" s="13"/>
-    </row>
-    <row r="137" spans="1:17" s="12" customFormat="1" ht="17.5">
+      <c r="L136" s="20"/>
+      <c r="M136" s="23"/>
+      <c r="N136" s="23"/>
+    </row>
+    <row r="137" spans="1:19" ht="18" x14ac:dyDescent="0.2">
       <c r="A137" s="6"/>
       <c r="B137" s="7"/>
-      <c r="C137" s="28"/>
-      <c r="D137" s="29"/>
-      <c r="E137" s="28"/>
-      <c r="F137" s="28"/>
-      <c r="G137" s="28"/>
+      <c r="C137" s="24"/>
+      <c r="D137" s="19"/>
+      <c r="E137" s="19"/>
+      <c r="F137" s="19"/>
+      <c r="G137" s="19"/>
       <c r="H137" s="10"/>
       <c r="I137" s="21"/>
       <c r="J137" s="35"/>
       <c r="K137" s="23"/>
-      <c r="L137" s="30"/>
+      <c r="L137" s="20"/>
       <c r="M137" s="31"/>
-      <c r="N137" s="11"/>
-      <c r="O137" s="13"/>
-      <c r="P137" s="13"/>
-      <c r="Q137" s="13"/>
-    </row>
-    <row r="138" spans="1:17" s="12" customFormat="1" ht="17.5">
+      <c r="N137" s="31"/>
+    </row>
+    <row r="138" spans="1:19" ht="18" x14ac:dyDescent="0.2">
       <c r="A138" s="6"/>
       <c r="B138" s="7"/>
       <c r="C138" s="28"/>
@@ -3782,88 +4167,73 @@
       <c r="K138" s="23"/>
       <c r="L138" s="30"/>
       <c r="M138" s="31"/>
-      <c r="N138" s="11"/>
-      <c r="O138" s="13"/>
-      <c r="P138" s="13"/>
-      <c r="Q138" s="13"/>
-    </row>
-    <row r="139" spans="1:17" s="12" customFormat="1" ht="17.5">
+      <c r="N138" s="31"/>
+    </row>
+    <row r="139" spans="1:19" ht="18" x14ac:dyDescent="0.2">
       <c r="A139" s="6"/>
       <c r="B139" s="7"/>
-      <c r="C139" s="24"/>
-      <c r="D139" s="19"/>
-      <c r="E139" s="19"/>
-      <c r="F139" s="19"/>
-      <c r="G139" s="19"/>
+      <c r="C139" s="28"/>
+      <c r="D139" s="29"/>
+      <c r="E139" s="28"/>
+      <c r="F139" s="28"/>
+      <c r="G139" s="28"/>
       <c r="H139" s="10"/>
       <c r="I139" s="21"/>
       <c r="J139" s="35"/>
       <c r="K139" s="23"/>
-      <c r="L139" s="20"/>
-      <c r="M139" s="23"/>
-      <c r="N139" s="11"/>
-      <c r="O139" s="13"/>
-      <c r="P139" s="13"/>
-      <c r="Q139" s="13"/>
-    </row>
-    <row r="140" spans="1:17" s="12" customFormat="1" ht="17.5">
+      <c r="L139" s="30"/>
+      <c r="M139" s="31"/>
+      <c r="N139" s="31"/>
+    </row>
+    <row r="140" spans="1:19" ht="18" x14ac:dyDescent="0.2">
       <c r="A140" s="6"/>
       <c r="B140" s="7"/>
-      <c r="C140" s="24"/>
-      <c r="D140" s="19"/>
-      <c r="E140" s="19"/>
-      <c r="F140" s="19"/>
-      <c r="G140" s="19"/>
+      <c r="C140" s="28"/>
+      <c r="D140" s="29"/>
+      <c r="E140" s="28"/>
+      <c r="F140" s="28"/>
+      <c r="G140" s="28"/>
       <c r="H140" s="10"/>
       <c r="I140" s="21"/>
       <c r="J140" s="35"/>
       <c r="K140" s="23"/>
-      <c r="L140" s="20"/>
-      <c r="M140" s="23"/>
-      <c r="N140" s="11"/>
-      <c r="O140" s="13"/>
-      <c r="P140" s="13"/>
-      <c r="Q140" s="13"/>
-    </row>
-    <row r="141" spans="1:17" s="12" customFormat="1" ht="17.5">
+      <c r="L140" s="30"/>
+      <c r="M140" s="31"/>
+      <c r="N140" s="31"/>
+    </row>
+    <row r="141" spans="1:19" ht="18" x14ac:dyDescent="0.2">
       <c r="A141" s="6"/>
       <c r="B141" s="7"/>
-      <c r="C141" s="24"/>
-      <c r="D141" s="19"/>
-      <c r="E141" s="19"/>
-      <c r="F141" s="19"/>
-      <c r="G141" s="19"/>
+      <c r="C141" s="28"/>
+      <c r="D141" s="29"/>
+      <c r="E141" s="28"/>
+      <c r="F141" s="28"/>
+      <c r="G141" s="28"/>
       <c r="H141" s="10"/>
       <c r="I141" s="21"/>
       <c r="J141" s="35"/>
       <c r="K141" s="23"/>
-      <c r="L141" s="20"/>
+      <c r="L141" s="30"/>
       <c r="M141" s="31"/>
-      <c r="N141" s="11"/>
-      <c r="O141" s="13"/>
-      <c r="P141" s="13"/>
-      <c r="Q141" s="13"/>
-    </row>
-    <row r="142" spans="1:17" s="12" customFormat="1" ht="17.5">
+      <c r="N141" s="31"/>
+    </row>
+    <row r="142" spans="1:19" ht="18" x14ac:dyDescent="0.2">
       <c r="A142" s="6"/>
       <c r="B142" s="7"/>
-      <c r="C142" s="24"/>
-      <c r="D142" s="19"/>
-      <c r="E142" s="19"/>
-      <c r="F142" s="19"/>
-      <c r="G142" s="19"/>
+      <c r="C142" s="28"/>
+      <c r="D142" s="29"/>
+      <c r="E142" s="28"/>
+      <c r="F142" s="28"/>
+      <c r="G142" s="28"/>
       <c r="H142" s="10"/>
       <c r="I142" s="21"/>
       <c r="J142" s="35"/>
       <c r="K142" s="23"/>
-      <c r="L142" s="20"/>
+      <c r="L142" s="30"/>
       <c r="M142" s="31"/>
-      <c r="N142" s="11"/>
-      <c r="O142" s="13"/>
-      <c r="P142" s="13"/>
-      <c r="Q142" s="13"/>
-    </row>
-    <row r="143" spans="1:17" s="12" customFormat="1" ht="17.5">
+      <c r="N142" s="31"/>
+    </row>
+    <row r="143" spans="1:19" ht="88" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="6"/>
       <c r="B143" s="7"/>
       <c r="C143" s="28"/>
@@ -3877,164 +4247,177 @@
       <c r="K143" s="23"/>
       <c r="L143" s="30"/>
       <c r="M143" s="31"/>
-      <c r="N143" s="11"/>
-      <c r="O143" s="13"/>
-      <c r="P143" s="13"/>
-      <c r="Q143" s="13"/>
-    </row>
-    <row r="144" spans="1:17" s="12" customFormat="1" ht="17.5">
+      <c r="N143" s="31"/>
+    </row>
+    <row r="144" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A144" s="6"/>
       <c r="B144" s="7"/>
-      <c r="C144" s="24"/>
-      <c r="D144" s="17"/>
-      <c r="E144" s="17"/>
-      <c r="F144" s="17"/>
-      <c r="G144" s="17"/>
+      <c r="C144" s="28"/>
+      <c r="D144" s="29"/>
+      <c r="E144" s="28"/>
+      <c r="F144" s="28"/>
+      <c r="G144" s="28"/>
       <c r="H144" s="10"/>
       <c r="I144" s="21"/>
       <c r="J144" s="35"/>
       <c r="K144" s="23"/>
-      <c r="L144" s="25"/>
-      <c r="M144" s="27"/>
-      <c r="N144" s="11"/>
-      <c r="O144" s="13"/>
+      <c r="L144" s="30"/>
+      <c r="M144" s="31"/>
+      <c r="N144" s="31"/>
+      <c r="O144" s="11"/>
       <c r="P144" s="13"/>
       <c r="Q144" s="13"/>
-    </row>
-    <row r="145" spans="1:17" s="12" customFormat="1" ht="17.5">
+      <c r="R144" s="13"/>
+      <c r="S144" s="13"/>
+    </row>
+    <row r="145" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A145" s="6"/>
       <c r="B145" s="7"/>
-      <c r="C145" s="36"/>
-      <c r="D145" s="17"/>
-      <c r="E145" s="17"/>
-      <c r="F145" s="17"/>
-      <c r="G145" s="17"/>
+      <c r="C145" s="28"/>
+      <c r="D145" s="29"/>
+      <c r="E145" s="28"/>
+      <c r="F145" s="28"/>
+      <c r="G145" s="28"/>
       <c r="H145" s="10"/>
-      <c r="I145" s="19"/>
+      <c r="I145" s="21"/>
       <c r="J145" s="35"/>
       <c r="K145" s="23"/>
-      <c r="L145" s="20"/>
-      <c r="M145" s="23"/>
-      <c r="N145" s="11"/>
-      <c r="O145" s="13"/>
+      <c r="L145" s="30"/>
+      <c r="M145" s="31"/>
+      <c r="N145" s="31"/>
+      <c r="O145" s="11"/>
       <c r="P145" s="13"/>
       <c r="Q145" s="13"/>
-    </row>
-    <row r="146" spans="1:17" s="12" customFormat="1" ht="17.5">
+      <c r="R145" s="13"/>
+      <c r="S145" s="13"/>
+    </row>
+    <row r="146" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A146" s="6"/>
       <c r="B146" s="7"/>
-      <c r="C146" s="24"/>
-      <c r="D146" s="17"/>
-      <c r="E146" s="17"/>
-      <c r="F146" s="17"/>
-      <c r="G146" s="17"/>
+      <c r="C146" s="28"/>
+      <c r="D146" s="29"/>
+      <c r="E146" s="28"/>
+      <c r="F146" s="28"/>
+      <c r="G146" s="28"/>
       <c r="H146" s="10"/>
-      <c r="I146" s="19"/>
+      <c r="I146" s="21"/>
       <c r="J146" s="35"/>
       <c r="K146" s="23"/>
-      <c r="L146" s="20"/>
-      <c r="M146" s="23"/>
-      <c r="N146" s="11"/>
-      <c r="O146" s="13"/>
+      <c r="L146" s="30"/>
+      <c r="M146" s="31"/>
+      <c r="N146" s="31"/>
+      <c r="O146" s="11"/>
       <c r="P146" s="13"/>
       <c r="Q146" s="13"/>
-    </row>
-    <row r="147" spans="1:17" s="12" customFormat="1" ht="17.5">
+      <c r="R146" s="13"/>
+      <c r="S146" s="13"/>
+    </row>
+    <row r="147" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A147" s="6"/>
       <c r="B147" s="7"/>
       <c r="C147" s="24"/>
-      <c r="D147" s="17"/>
-      <c r="E147" s="17"/>
-      <c r="F147" s="17"/>
-      <c r="G147" s="17"/>
+      <c r="D147" s="19"/>
+      <c r="E147" s="19"/>
+      <c r="F147" s="19"/>
+      <c r="G147" s="19"/>
       <c r="H147" s="10"/>
-      <c r="I147" s="19"/>
+      <c r="I147" s="21"/>
       <c r="J147" s="35"/>
       <c r="K147" s="23"/>
       <c r="L147" s="20"/>
       <c r="M147" s="23"/>
-      <c r="N147" s="11"/>
-      <c r="O147" s="13"/>
+      <c r="N147" s="23"/>
+      <c r="O147" s="11"/>
       <c r="P147" s="13"/>
       <c r="Q147" s="13"/>
-    </row>
-    <row r="148" spans="1:17" s="12" customFormat="1" ht="17.5">
+      <c r="R147" s="13"/>
+      <c r="S147" s="13"/>
+    </row>
+    <row r="148" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A148" s="6"/>
       <c r="B148" s="7"/>
       <c r="C148" s="24"/>
-      <c r="D148" s="17"/>
-      <c r="E148" s="17"/>
-      <c r="F148" s="17"/>
-      <c r="G148" s="17"/>
+      <c r="D148" s="19"/>
+      <c r="E148" s="19"/>
+      <c r="F148" s="19"/>
+      <c r="G148" s="19"/>
       <c r="H148" s="10"/>
-      <c r="I148" s="19"/>
+      <c r="I148" s="21"/>
       <c r="J148" s="35"/>
       <c r="K148" s="23"/>
       <c r="L148" s="20"/>
       <c r="M148" s="23"/>
-      <c r="N148" s="11"/>
-      <c r="O148" s="13"/>
+      <c r="N148" s="23"/>
+      <c r="O148" s="11"/>
       <c r="P148" s="13"/>
       <c r="Q148" s="13"/>
-    </row>
-    <row r="149" spans="1:17" s="12" customFormat="1" ht="17.5">
+      <c r="R148" s="13"/>
+      <c r="S148" s="13"/>
+    </row>
+    <row r="149" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A149" s="6"/>
       <c r="B149" s="7"/>
       <c r="C149" s="24"/>
-      <c r="D149" s="17"/>
-      <c r="E149" s="17"/>
-      <c r="F149" s="17"/>
-      <c r="G149" s="17"/>
+      <c r="D149" s="19"/>
+      <c r="E149" s="19"/>
+      <c r="F149" s="19"/>
+      <c r="G149" s="19"/>
       <c r="H149" s="10"/>
-      <c r="I149" s="19"/>
+      <c r="I149" s="21"/>
       <c r="J149" s="35"/>
       <c r="K149" s="23"/>
       <c r="L149" s="20"/>
-      <c r="M149" s="23"/>
-      <c r="N149" s="11"/>
-      <c r="O149" s="13"/>
+      <c r="M149" s="31"/>
+      <c r="N149" s="31"/>
+      <c r="O149" s="11"/>
       <c r="P149" s="13"/>
       <c r="Q149" s="13"/>
-    </row>
-    <row r="150" spans="1:17" s="12" customFormat="1" ht="17.5">
+      <c r="R149" s="13"/>
+      <c r="S149" s="13"/>
+    </row>
+    <row r="150" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A150" s="6"/>
       <c r="B150" s="7"/>
       <c r="C150" s="24"/>
-      <c r="D150" s="17"/>
-      <c r="E150" s="17"/>
-      <c r="F150" s="17"/>
-      <c r="G150" s="17"/>
+      <c r="D150" s="19"/>
+      <c r="E150" s="19"/>
+      <c r="F150" s="19"/>
+      <c r="G150" s="19"/>
       <c r="H150" s="10"/>
-      <c r="I150" s="19"/>
+      <c r="I150" s="21"/>
       <c r="J150" s="35"/>
       <c r="K150" s="23"/>
       <c r="L150" s="20"/>
-      <c r="M150" s="23"/>
-      <c r="N150" s="11"/>
-      <c r="O150" s="13"/>
+      <c r="M150" s="31"/>
+      <c r="N150" s="31"/>
+      <c r="O150" s="11"/>
       <c r="P150" s="13"/>
       <c r="Q150" s="13"/>
-    </row>
-    <row r="151" spans="1:17" s="12" customFormat="1" ht="17.5">
+      <c r="R150" s="13"/>
+      <c r="S150" s="13"/>
+    </row>
+    <row r="151" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A151" s="6"/>
       <c r="B151" s="7"/>
-      <c r="C151" s="24"/>
-      <c r="D151" s="17"/>
-      <c r="E151" s="17"/>
-      <c r="F151" s="17"/>
-      <c r="G151" s="17"/>
+      <c r="C151" s="28"/>
+      <c r="D151" s="29"/>
+      <c r="E151" s="28"/>
+      <c r="F151" s="28"/>
+      <c r="G151" s="28"/>
       <c r="H151" s="10"/>
-      <c r="I151" s="19"/>
+      <c r="I151" s="21"/>
       <c r="J151" s="35"/>
       <c r="K151" s="23"/>
-      <c r="L151" s="20"/>
-      <c r="M151" s="23"/>
-      <c r="N151" s="11"/>
-      <c r="O151" s="13"/>
+      <c r="L151" s="30"/>
+      <c r="M151" s="31"/>
+      <c r="N151" s="31"/>
+      <c r="O151" s="11"/>
       <c r="P151" s="13"/>
       <c r="Q151" s="13"/>
-    </row>
-    <row r="152" spans="1:17" s="12" customFormat="1" ht="145.25" customHeight="1">
+      <c r="R151" s="13"/>
+      <c r="S151" s="13"/>
+    </row>
+    <row r="152" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A152" s="6"/>
       <c r="B152" s="7"/>
       <c r="C152" s="24"/>
@@ -4043,20 +4426,22 @@
       <c r="F152" s="17"/>
       <c r="G152" s="17"/>
       <c r="H152" s="10"/>
-      <c r="I152" s="19"/>
+      <c r="I152" s="21"/>
       <c r="J152" s="35"/>
       <c r="K152" s="23"/>
-      <c r="L152" s="20"/>
-      <c r="M152" s="23"/>
-      <c r="N152" s="11"/>
-      <c r="O152" s="13"/>
+      <c r="L152" s="25"/>
+      <c r="M152" s="27"/>
+      <c r="N152" s="27"/>
+      <c r="O152" s="11"/>
       <c r="P152" s="13"/>
       <c r="Q152" s="13"/>
-    </row>
-    <row r="153" spans="1:17" s="12" customFormat="1" ht="17.5">
+      <c r="R152" s="13"/>
+      <c r="S152" s="13"/>
+    </row>
+    <row r="153" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A153" s="6"/>
       <c r="B153" s="7"/>
-      <c r="C153" s="24"/>
+      <c r="C153" s="36"/>
       <c r="D153" s="17"/>
       <c r="E153" s="17"/>
       <c r="F153" s="17"/>
@@ -4067,12 +4452,14 @@
       <c r="K153" s="23"/>
       <c r="L153" s="20"/>
       <c r="M153" s="23"/>
-      <c r="N153" s="11"/>
-      <c r="O153" s="13"/>
+      <c r="N153" s="23"/>
+      <c r="O153" s="11"/>
       <c r="P153" s="13"/>
       <c r="Q153" s="13"/>
-    </row>
-    <row r="154" spans="1:17" s="12" customFormat="1" ht="112.25" customHeight="1">
+      <c r="R153" s="13"/>
+      <c r="S153" s="13"/>
+    </row>
+    <row r="154" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A154" s="6"/>
       <c r="B154" s="7"/>
       <c r="C154" s="24"/>
@@ -4086,12 +4473,14 @@
       <c r="K154" s="23"/>
       <c r="L154" s="20"/>
       <c r="M154" s="23"/>
-      <c r="N154" s="11"/>
-      <c r="O154" s="13"/>
+      <c r="N154" s="23"/>
+      <c r="O154" s="11"/>
       <c r="P154" s="13"/>
       <c r="Q154" s="13"/>
-    </row>
-    <row r="155" spans="1:17" s="12" customFormat="1" ht="17.5">
+      <c r="R154" s="13"/>
+      <c r="S154" s="13"/>
+    </row>
+    <row r="155" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A155" s="6"/>
       <c r="B155" s="7"/>
       <c r="C155" s="24"/>
@@ -4105,12 +4494,14 @@
       <c r="K155" s="23"/>
       <c r="L155" s="20"/>
       <c r="M155" s="23"/>
-      <c r="N155" s="11"/>
-      <c r="O155" s="13"/>
+      <c r="N155" s="23"/>
+      <c r="O155" s="11"/>
       <c r="P155" s="13"/>
       <c r="Q155" s="13"/>
-    </row>
-    <row r="156" spans="1:17" s="12" customFormat="1" ht="17.5">
+      <c r="R155" s="13"/>
+      <c r="S155" s="13"/>
+    </row>
+    <row r="156" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A156" s="6"/>
       <c r="B156" s="7"/>
       <c r="C156" s="24"/>
@@ -4124,12 +4515,14 @@
       <c r="K156" s="23"/>
       <c r="L156" s="20"/>
       <c r="M156" s="23"/>
-      <c r="N156" s="11"/>
-      <c r="O156" s="13"/>
+      <c r="N156" s="23"/>
+      <c r="O156" s="11"/>
       <c r="P156" s="13"/>
       <c r="Q156" s="13"/>
-    </row>
-    <row r="157" spans="1:17" s="12" customFormat="1" ht="132.65" customHeight="1">
+      <c r="R156" s="13"/>
+      <c r="S156" s="13"/>
+    </row>
+    <row r="157" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A157" s="6"/>
       <c r="B157" s="7"/>
       <c r="C157" s="24"/>
@@ -4140,15 +4533,17 @@
       <c r="H157" s="10"/>
       <c r="I157" s="19"/>
       <c r="J157" s="35"/>
-      <c r="K157" s="27"/>
-      <c r="L157" s="25"/>
-      <c r="M157" s="27"/>
-      <c r="N157" s="11"/>
-      <c r="O157" s="13"/>
+      <c r="K157" s="23"/>
+      <c r="L157" s="20"/>
+      <c r="M157" s="23"/>
+      <c r="N157" s="23"/>
+      <c r="O157" s="11"/>
       <c r="P157" s="13"/>
       <c r="Q157" s="13"/>
-    </row>
-    <row r="158" spans="1:17" s="12" customFormat="1" ht="120.65" customHeight="1">
+      <c r="R157" s="13"/>
+      <c r="S157" s="13"/>
+    </row>
+    <row r="158" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A158" s="6"/>
       <c r="B158" s="7"/>
       <c r="C158" s="24"/>
@@ -4162,12 +4557,14 @@
       <c r="K158" s="23"/>
       <c r="L158" s="20"/>
       <c r="M158" s="23"/>
-      <c r="N158" s="11"/>
-      <c r="O158" s="13"/>
+      <c r="N158" s="23"/>
+      <c r="O158" s="11"/>
       <c r="P158" s="13"/>
       <c r="Q158" s="13"/>
-    </row>
-    <row r="159" spans="1:17" s="12" customFormat="1" ht="17.5">
+      <c r="R158" s="13"/>
+      <c r="S158" s="13"/>
+    </row>
+    <row r="159" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A159" s="6"/>
       <c r="B159" s="7"/>
       <c r="C159" s="24"/>
@@ -4178,15 +4575,17 @@
       <c r="H159" s="10"/>
       <c r="I159" s="19"/>
       <c r="J159" s="35"/>
-      <c r="K159" s="27"/>
-      <c r="L159" s="25"/>
-      <c r="M159" s="27"/>
-      <c r="N159" s="11"/>
-      <c r="O159" s="13"/>
+      <c r="K159" s="23"/>
+      <c r="L159" s="20"/>
+      <c r="M159" s="23"/>
+      <c r="N159" s="23"/>
+      <c r="O159" s="11"/>
       <c r="P159" s="13"/>
       <c r="Q159" s="13"/>
-    </row>
-    <row r="160" spans="1:17" s="12" customFormat="1" ht="121.25" customHeight="1">
+      <c r="R159" s="13"/>
+      <c r="S159" s="13"/>
+    </row>
+    <row r="160" spans="1:19" s="12" customFormat="1" ht="145.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="6"/>
       <c r="B160" s="7"/>
       <c r="C160" s="24"/>
@@ -4197,15 +4596,17 @@
       <c r="H160" s="10"/>
       <c r="I160" s="19"/>
       <c r="J160" s="35"/>
-      <c r="K160" s="27"/>
+      <c r="K160" s="23"/>
       <c r="L160" s="20"/>
-      <c r="M160" s="31"/>
-      <c r="N160" s="11"/>
-      <c r="O160" s="13"/>
+      <c r="M160" s="23"/>
+      <c r="N160" s="23"/>
+      <c r="O160" s="11"/>
       <c r="P160" s="13"/>
       <c r="Q160" s="13"/>
-    </row>
-    <row r="161" spans="1:17" s="12" customFormat="1" ht="82.75" customHeight="1">
+      <c r="R160" s="13"/>
+      <c r="S160" s="13"/>
+    </row>
+    <row r="161" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A161" s="6"/>
       <c r="B161" s="7"/>
       <c r="C161" s="24"/>
@@ -4218,16 +4619,18 @@
       <c r="J161" s="35"/>
       <c r="K161" s="23"/>
       <c r="L161" s="20"/>
-      <c r="M161" s="31"/>
-      <c r="N161" s="11"/>
-      <c r="O161" s="13"/>
+      <c r="M161" s="23"/>
+      <c r="N161" s="23"/>
+      <c r="O161" s="11"/>
       <c r="P161" s="13"/>
       <c r="Q161" s="13"/>
-    </row>
-    <row r="162" spans="1:17" s="12" customFormat="1" ht="111" customHeight="1">
+      <c r="R161" s="13"/>
+      <c r="S161" s="13"/>
+    </row>
+    <row r="162" spans="1:19" s="12" customFormat="1" ht="112.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="6"/>
       <c r="B162" s="7"/>
-      <c r="C162" s="28"/>
+      <c r="C162" s="24"/>
       <c r="D162" s="17"/>
       <c r="E162" s="17"/>
       <c r="F162" s="17"/>
@@ -4236,17 +4639,19 @@
       <c r="I162" s="19"/>
       <c r="J162" s="35"/>
       <c r="K162" s="23"/>
-      <c r="L162" s="30"/>
-      <c r="M162" s="31"/>
-      <c r="N162" s="11"/>
-      <c r="O162" s="13"/>
+      <c r="L162" s="20"/>
+      <c r="M162" s="23"/>
+      <c r="N162" s="23"/>
+      <c r="O162" s="11"/>
       <c r="P162" s="13"/>
       <c r="Q162" s="13"/>
-    </row>
-    <row r="163" spans="1:17" s="12" customFormat="1" ht="91.25" customHeight="1">
+      <c r="R162" s="13"/>
+      <c r="S162" s="13"/>
+    </row>
+    <row r="163" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A163" s="6"/>
       <c r="B163" s="7"/>
-      <c r="C163" s="28"/>
+      <c r="C163" s="24"/>
       <c r="D163" s="17"/>
       <c r="E163" s="17"/>
       <c r="F163" s="17"/>
@@ -4255,17 +4660,19 @@
       <c r="I163" s="19"/>
       <c r="J163" s="35"/>
       <c r="K163" s="23"/>
-      <c r="L163" s="30"/>
-      <c r="M163" s="31"/>
-      <c r="N163" s="11"/>
-      <c r="O163" s="13"/>
+      <c r="L163" s="20"/>
+      <c r="M163" s="23"/>
+      <c r="N163" s="23"/>
+      <c r="O163" s="11"/>
       <c r="P163" s="13"/>
       <c r="Q163" s="13"/>
-    </row>
-    <row r="164" spans="1:17" s="12" customFormat="1" ht="63.65" customHeight="1">
+      <c r="R163" s="13"/>
+      <c r="S163" s="13"/>
+    </row>
+    <row r="164" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A164" s="6"/>
       <c r="B164" s="7"/>
-      <c r="C164" s="28"/>
+      <c r="C164" s="24"/>
       <c r="D164" s="17"/>
       <c r="E164" s="17"/>
       <c r="F164" s="17"/>
@@ -4276,15 +4683,17 @@
       <c r="K164" s="23"/>
       <c r="L164" s="20"/>
       <c r="M164" s="23"/>
-      <c r="N164" s="11"/>
-      <c r="O164" s="13"/>
+      <c r="N164" s="23"/>
+      <c r="O164" s="11"/>
       <c r="P164" s="13"/>
       <c r="Q164" s="13"/>
-    </row>
-    <row r="165" spans="1:17" s="12" customFormat="1" ht="79.75" customHeight="1">
+      <c r="R164" s="13"/>
+      <c r="S164" s="13"/>
+    </row>
+    <row r="165" spans="1:19" s="12" customFormat="1" ht="132.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="6"/>
       <c r="B165" s="7"/>
-      <c r="C165" s="28"/>
+      <c r="C165" s="24"/>
       <c r="D165" s="17"/>
       <c r="E165" s="17"/>
       <c r="F165" s="17"/>
@@ -4295,15 +4704,17 @@
       <c r="K165" s="27"/>
       <c r="L165" s="25"/>
       <c r="M165" s="27"/>
-      <c r="N165" s="11"/>
-      <c r="O165" s="13"/>
+      <c r="N165" s="27"/>
+      <c r="O165" s="11"/>
       <c r="P165" s="13"/>
       <c r="Q165" s="13"/>
-    </row>
-    <row r="166" spans="1:17" ht="45.65" customHeight="1">
+      <c r="R165" s="13"/>
+      <c r="S165" s="13"/>
+    </row>
+    <row r="166" spans="1:19" s="12" customFormat="1" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="6"/>
       <c r="B166" s="7"/>
-      <c r="C166" s="28"/>
+      <c r="C166" s="24"/>
       <c r="D166" s="17"/>
       <c r="E166" s="17"/>
       <c r="F166" s="17"/>
@@ -4311,14 +4722,20 @@
       <c r="H166" s="10"/>
       <c r="I166" s="19"/>
       <c r="J166" s="35"/>
-      <c r="K166" s="27"/>
-      <c r="L166" s="25"/>
-      <c r="M166" s="27"/>
-    </row>
-    <row r="167" spans="1:17" ht="82.75" customHeight="1">
+      <c r="K166" s="23"/>
+      <c r="L166" s="20"/>
+      <c r="M166" s="23"/>
+      <c r="N166" s="23"/>
+      <c r="O166" s="11"/>
+      <c r="P166" s="13"/>
+      <c r="Q166" s="13"/>
+      <c r="R166" s="13"/>
+      <c r="S166" s="13"/>
+    </row>
+    <row r="167" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A167" s="6"/>
       <c r="B167" s="7"/>
-      <c r="C167" s="28"/>
+      <c r="C167" s="24"/>
       <c r="D167" s="17"/>
       <c r="E167" s="17"/>
       <c r="F167" s="17"/>
@@ -4329,8 +4746,14 @@
       <c r="K167" s="27"/>
       <c r="L167" s="25"/>
       <c r="M167" s="27"/>
-    </row>
-    <row r="168" spans="1:17" ht="17.5">
+      <c r="N167" s="27"/>
+      <c r="O167" s="11"/>
+      <c r="P167" s="13"/>
+      <c r="Q167" s="13"/>
+      <c r="R167" s="13"/>
+      <c r="S167" s="13"/>
+    </row>
+    <row r="168" spans="1:19" s="12" customFormat="1" ht="121.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="6"/>
       <c r="B168" s="7"/>
       <c r="C168" s="24"/>
@@ -4342,10 +4765,16 @@
       <c r="I168" s="19"/>
       <c r="J168" s="35"/>
       <c r="K168" s="27"/>
-      <c r="L168" s="25"/>
-      <c r="M168" s="27"/>
-    </row>
-    <row r="169" spans="1:17" ht="100.25" customHeight="1">
+      <c r="L168" s="20"/>
+      <c r="M168" s="31"/>
+      <c r="N168" s="31"/>
+      <c r="O168" s="11"/>
+      <c r="P168" s="13"/>
+      <c r="Q168" s="13"/>
+      <c r="R168" s="13"/>
+      <c r="S168" s="13"/>
+    </row>
+    <row r="169" spans="1:19" s="12" customFormat="1" ht="82.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="6"/>
       <c r="B169" s="7"/>
       <c r="C169" s="24"/>
@@ -4356,14 +4785,20 @@
       <c r="H169" s="10"/>
       <c r="I169" s="19"/>
       <c r="J169" s="35"/>
-      <c r="K169" s="27"/>
-      <c r="L169" s="25"/>
-      <c r="M169" s="27"/>
-    </row>
-    <row r="170" spans="1:17" ht="103.25" customHeight="1">
+      <c r="K169" s="23"/>
+      <c r="L169" s="20"/>
+      <c r="M169" s="31"/>
+      <c r="N169" s="31"/>
+      <c r="O169" s="11"/>
+      <c r="P169" s="13"/>
+      <c r="Q169" s="13"/>
+      <c r="R169" s="13"/>
+      <c r="S169" s="13"/>
+    </row>
+    <row r="170" spans="1:19" s="12" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="6"/>
       <c r="B170" s="7"/>
-      <c r="C170" s="24"/>
+      <c r="C170" s="28"/>
       <c r="D170" s="17"/>
       <c r="E170" s="17"/>
       <c r="F170" s="17"/>
@@ -4371,144 +4806,163 @@
       <c r="H170" s="10"/>
       <c r="I170" s="19"/>
       <c r="J170" s="35"/>
-      <c r="K170" s="27"/>
-      <c r="L170" s="25"/>
-      <c r="M170" s="27"/>
-    </row>
-    <row r="171" spans="1:17" ht="89.4" customHeight="1">
+      <c r="K170" s="23"/>
+      <c r="L170" s="30"/>
+      <c r="M170" s="31"/>
+      <c r="N170" s="31"/>
+      <c r="O170" s="11"/>
+      <c r="P170" s="13"/>
+      <c r="Q170" s="13"/>
+      <c r="R170" s="13"/>
+      <c r="S170" s="13"/>
+    </row>
+    <row r="171" spans="1:19" s="12" customFormat="1" ht="91.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="6"/>
       <c r="B171" s="7"/>
       <c r="C171" s="28"/>
-      <c r="D171" s="19"/>
-      <c r="E171" s="19"/>
-      <c r="F171" s="19"/>
-      <c r="G171" s="19"/>
+      <c r="D171" s="17"/>
+      <c r="E171" s="17"/>
+      <c r="F171" s="17"/>
+      <c r="G171" s="17"/>
       <c r="H171" s="10"/>
       <c r="I171" s="19"/>
       <c r="J171" s="35"/>
       <c r="K171" s="23"/>
-      <c r="L171" s="20"/>
-      <c r="M171" s="23"/>
-    </row>
-    <row r="172" spans="1:17" ht="77.400000000000006" customHeight="1">
+      <c r="L171" s="30"/>
+      <c r="M171" s="31"/>
+      <c r="N171" s="31"/>
+      <c r="O171" s="11"/>
+      <c r="P171" s="13"/>
+      <c r="Q171" s="13"/>
+      <c r="R171" s="13"/>
+      <c r="S171" s="13"/>
+    </row>
+    <row r="172" spans="1:19" s="12" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="6"/>
       <c r="B172" s="7"/>
       <c r="C172" s="28"/>
-      <c r="D172" s="19"/>
-      <c r="E172" s="19"/>
-      <c r="F172" s="19"/>
-      <c r="G172" s="19"/>
+      <c r="D172" s="17"/>
+      <c r="E172" s="17"/>
+      <c r="F172" s="17"/>
+      <c r="G172" s="17"/>
       <c r="H172" s="10"/>
       <c r="I172" s="19"/>
       <c r="J172" s="35"/>
       <c r="K172" s="23"/>
       <c r="L172" s="20"/>
       <c r="M172" s="23"/>
-    </row>
-    <row r="173" spans="1:17" ht="73.25" customHeight="1">
+      <c r="N172" s="23"/>
+      <c r="O172" s="11"/>
+      <c r="P172" s="13"/>
+      <c r="Q172" s="13"/>
+      <c r="R172" s="13"/>
+      <c r="S172" s="13"/>
+    </row>
+    <row r="173" spans="1:19" s="12" customFormat="1" ht="79.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="6"/>
       <c r="B173" s="7"/>
-      <c r="C173" s="17"/>
-      <c r="D173" s="19"/>
-      <c r="E173" s="19"/>
-      <c r="F173" s="19"/>
-      <c r="G173" s="19"/>
+      <c r="C173" s="28"/>
+      <c r="D173" s="17"/>
+      <c r="E173" s="17"/>
+      <c r="F173" s="17"/>
+      <c r="G173" s="17"/>
       <c r="H173" s="10"/>
       <c r="I173" s="19"/>
       <c r="J173" s="35"/>
-      <c r="K173" s="23"/>
-      <c r="L173" s="20"/>
-      <c r="M173" s="23"/>
-      <c r="N173" s="42"/>
-      <c r="O173" s="41"/>
-    </row>
-    <row r="174" spans="1:17" ht="102.5" customHeight="1">
+      <c r="K173" s="27"/>
+      <c r="L173" s="25"/>
+      <c r="M173" s="27"/>
+      <c r="N173" s="27"/>
+      <c r="O173" s="11"/>
+      <c r="P173" s="13"/>
+      <c r="Q173" s="13"/>
+      <c r="R173" s="13"/>
+      <c r="S173" s="13"/>
+    </row>
+    <row r="174" spans="1:19" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="6"/>
       <c r="B174" s="7"/>
-      <c r="C174" s="17"/>
-      <c r="D174" s="19"/>
-      <c r="E174" s="19"/>
-      <c r="F174" s="19"/>
-      <c r="G174" s="19"/>
+      <c r="C174" s="28"/>
+      <c r="D174" s="17"/>
+      <c r="E174" s="17"/>
+      <c r="F174" s="17"/>
+      <c r="G174" s="17"/>
       <c r="H174" s="10"/>
       <c r="I174" s="19"/>
       <c r="J174" s="35"/>
-      <c r="K174" s="23"/>
-      <c r="L174" s="20"/>
-      <c r="M174" s="23"/>
-      <c r="N174" s="42"/>
-      <c r="O174" s="41"/>
-    </row>
-    <row r="175" spans="1:17" ht="73.25" customHeight="1">
+      <c r="K174" s="27"/>
+      <c r="L174" s="25"/>
+      <c r="M174" s="27"/>
+      <c r="N174" s="27"/>
+    </row>
+    <row r="175" spans="1:19" ht="82.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="6"/>
       <c r="B175" s="7"/>
-      <c r="C175" s="17"/>
-      <c r="D175" s="19"/>
-      <c r="E175" s="19"/>
-      <c r="F175" s="19"/>
-      <c r="G175" s="19"/>
+      <c r="C175" s="28"/>
+      <c r="D175" s="17"/>
+      <c r="E175" s="17"/>
+      <c r="F175" s="17"/>
+      <c r="G175" s="17"/>
       <c r="H175" s="10"/>
       <c r="I175" s="19"/>
       <c r="J175" s="35"/>
-      <c r="K175" s="23"/>
-      <c r="L175" s="20"/>
-      <c r="M175" s="23"/>
-    </row>
-    <row r="176" spans="1:17" ht="67.75" customHeight="1">
+      <c r="K175" s="27"/>
+      <c r="L175" s="25"/>
+      <c r="M175" s="27"/>
+      <c r="N175" s="27"/>
+    </row>
+    <row r="176" spans="1:19" ht="18" x14ac:dyDescent="0.2">
       <c r="A176" s="6"/>
       <c r="B176" s="7"/>
       <c r="C176" s="24"/>
-      <c r="D176" s="19"/>
-      <c r="E176" s="19"/>
-      <c r="F176" s="19"/>
-      <c r="G176" s="19"/>
+      <c r="D176" s="17"/>
+      <c r="E176" s="17"/>
+      <c r="F176" s="17"/>
+      <c r="G176" s="17"/>
       <c r="H176" s="10"/>
       <c r="I176" s="19"/>
       <c r="J176" s="35"/>
-      <c r="K176" s="23"/>
-      <c r="L176" s="20"/>
-      <c r="M176" s="23"/>
-      <c r="N176" s="42"/>
-      <c r="O176" s="41"/>
-    </row>
-    <row r="177" spans="1:15" ht="71.400000000000006" customHeight="1">
+      <c r="K176" s="27"/>
+      <c r="L176" s="25"/>
+      <c r="M176" s="27"/>
+      <c r="N176" s="27"/>
+    </row>
+    <row r="177" spans="1:17" ht="100.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="6"/>
       <c r="B177" s="7"/>
       <c r="C177" s="24"/>
-      <c r="D177" s="19"/>
-      <c r="E177" s="19"/>
-      <c r="F177" s="19"/>
-      <c r="G177" s="19"/>
+      <c r="D177" s="17"/>
+      <c r="E177" s="17"/>
+      <c r="F177" s="17"/>
+      <c r="G177" s="17"/>
       <c r="H177" s="10"/>
       <c r="I177" s="19"/>
       <c r="J177" s="35"/>
       <c r="K177" s="27"/>
-      <c r="L177" s="20"/>
-      <c r="M177" s="39"/>
-      <c r="N177" s="42"/>
-      <c r="O177" s="41"/>
-    </row>
-    <row r="178" spans="1:15" ht="69.650000000000006" customHeight="1">
+      <c r="L177" s="25"/>
+      <c r="M177" s="27"/>
+      <c r="N177" s="27"/>
+    </row>
+    <row r="178" spans="1:17" ht="103.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="6"/>
       <c r="B178" s="7"/>
       <c r="C178" s="24"/>
-      <c r="D178" s="19"/>
-      <c r="E178" s="19"/>
-      <c r="F178" s="19"/>
-      <c r="G178" s="19"/>
+      <c r="D178" s="17"/>
+      <c r="E178" s="17"/>
+      <c r="F178" s="17"/>
+      <c r="G178" s="17"/>
       <c r="H178" s="10"/>
       <c r="I178" s="19"/>
       <c r="J178" s="35"/>
-      <c r="K178" s="23"/>
-      <c r="L178" s="20"/>
-      <c r="M178" s="23"/>
-      <c r="N178" s="42"/>
-      <c r="O178" s="41"/>
-    </row>
-    <row r="179" spans="1:15" ht="43.25" customHeight="1">
+      <c r="K178" s="27"/>
+      <c r="L178" s="25"/>
+      <c r="M178" s="27"/>
+      <c r="N178" s="27"/>
+    </row>
+    <row r="179" spans="1:17" ht="89.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="6"/>
       <c r="B179" s="7"/>
-      <c r="C179" s="24"/>
+      <c r="C179" s="28"/>
       <c r="D179" s="19"/>
       <c r="E179" s="19"/>
       <c r="F179" s="19"/>
@@ -4516,16 +4970,15 @@
       <c r="H179" s="10"/>
       <c r="I179" s="19"/>
       <c r="J179" s="35"/>
-      <c r="K179" s="40"/>
+      <c r="K179" s="23"/>
       <c r="L179" s="20"/>
       <c r="M179" s="23"/>
-      <c r="N179" s="42"/>
-      <c r="O179" s="41"/>
-    </row>
-    <row r="180" spans="1:15" ht="53.4" customHeight="1">
+      <c r="N179" s="23"/>
+    </row>
+    <row r="180" spans="1:17" ht="77.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="6"/>
       <c r="B180" s="7"/>
-      <c r="C180" s="24"/>
+      <c r="C180" s="28"/>
       <c r="D180" s="19"/>
       <c r="E180" s="19"/>
       <c r="F180" s="19"/>
@@ -4535,14 +4988,13 @@
       <c r="J180" s="35"/>
       <c r="K180" s="23"/>
       <c r="L180" s="20"/>
-      <c r="M180" s="27"/>
-      <c r="N180" s="33"/>
-      <c r="O180" s="41"/>
-    </row>
-    <row r="181" spans="1:15" ht="79.25" customHeight="1">
+      <c r="M180" s="23"/>
+      <c r="N180" s="23"/>
+    </row>
+    <row r="181" spans="1:17" ht="73.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="6"/>
       <c r="B181" s="7"/>
-      <c r="C181" s="24"/>
+      <c r="C181" s="17"/>
       <c r="D181" s="19"/>
       <c r="E181" s="19"/>
       <c r="F181" s="19"/>
@@ -4552,14 +5004,16 @@
       <c r="J181" s="35"/>
       <c r="K181" s="23"/>
       <c r="L181" s="20"/>
-      <c r="M181" s="27"/>
-      <c r="N181" s="33"/>
-      <c r="O181" s="41"/>
-    </row>
-    <row r="182" spans="1:15" ht="120.65" customHeight="1">
+      <c r="M181" s="23"/>
+      <c r="N181" s="23"/>
+      <c r="O181" s="42"/>
+      <c r="P181" s="41"/>
+      <c r="Q181" s="41"/>
+    </row>
+    <row r="182" spans="1:17" ht="102.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="6"/>
       <c r="B182" s="7"/>
-      <c r="C182" s="24"/>
+      <c r="C182" s="17"/>
       <c r="D182" s="19"/>
       <c r="E182" s="19"/>
       <c r="F182" s="19"/>
@@ -4567,16 +5021,18 @@
       <c r="H182" s="10"/>
       <c r="I182" s="19"/>
       <c r="J182" s="35"/>
-      <c r="K182" s="27"/>
+      <c r="K182" s="23"/>
       <c r="L182" s="20"/>
       <c r="M182" s="23"/>
-      <c r="N182" s="33"/>
-      <c r="O182" s="41"/>
-    </row>
-    <row r="183" spans="1:15" ht="94.75" customHeight="1">
+      <c r="N182" s="23"/>
+      <c r="O182" s="42"/>
+      <c r="P182" s="41"/>
+      <c r="Q182" s="41"/>
+    </row>
+    <row r="183" spans="1:17" ht="73.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="6"/>
       <c r="B183" s="7"/>
-      <c r="C183" s="28"/>
+      <c r="C183" s="17"/>
       <c r="D183" s="19"/>
       <c r="E183" s="19"/>
       <c r="F183" s="19"/>
@@ -4587,11 +5043,12 @@
       <c r="K183" s="23"/>
       <c r="L183" s="20"/>
       <c r="M183" s="23"/>
-    </row>
-    <row r="184" spans="1:15" ht="67.75" customHeight="1">
+      <c r="N183" s="23"/>
+    </row>
+    <row r="184" spans="1:17" ht="67.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="6"/>
       <c r="B184" s="7"/>
-      <c r="C184" s="28"/>
+      <c r="C184" s="24"/>
       <c r="D184" s="19"/>
       <c r="E184" s="19"/>
       <c r="F184" s="19"/>
@@ -4602,11 +5059,15 @@
       <c r="K184" s="23"/>
       <c r="L184" s="20"/>
       <c r="M184" s="23"/>
-    </row>
-    <row r="185" spans="1:15" ht="17.5">
+      <c r="N184" s="23"/>
+      <c r="O184" s="42"/>
+      <c r="P184" s="41"/>
+      <c r="Q184" s="41"/>
+    </row>
+    <row r="185" spans="1:17" ht="71.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="6"/>
       <c r="B185" s="7"/>
-      <c r="C185" s="28"/>
+      <c r="C185" s="24"/>
       <c r="D185" s="19"/>
       <c r="E185" s="19"/>
       <c r="F185" s="19"/>
@@ -4614,14 +5075,18 @@
       <c r="H185" s="10"/>
       <c r="I185" s="19"/>
       <c r="J185" s="35"/>
-      <c r="K185" s="23"/>
+      <c r="K185" s="27"/>
       <c r="L185" s="20"/>
-      <c r="M185" s="23"/>
-    </row>
-    <row r="186" spans="1:15" ht="17.5">
+      <c r="M185" s="39"/>
+      <c r="N185" s="39"/>
+      <c r="O185" s="42"/>
+      <c r="P185" s="41"/>
+      <c r="Q185" s="41"/>
+    </row>
+    <row r="186" spans="1:17" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="6"/>
       <c r="B186" s="7"/>
-      <c r="C186" s="28"/>
+      <c r="C186" s="24"/>
       <c r="D186" s="19"/>
       <c r="E186" s="19"/>
       <c r="F186" s="19"/>
@@ -4632,11 +5097,15 @@
       <c r="K186" s="23"/>
       <c r="L186" s="20"/>
       <c r="M186" s="23"/>
-    </row>
-    <row r="187" spans="1:15" ht="17.5">
+      <c r="N186" s="23"/>
+      <c r="O186" s="42"/>
+      <c r="P186" s="41"/>
+      <c r="Q186" s="41"/>
+    </row>
+    <row r="187" spans="1:17" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="6"/>
       <c r="B187" s="7"/>
-      <c r="C187" s="28"/>
+      <c r="C187" s="24"/>
       <c r="D187" s="19"/>
       <c r="E187" s="19"/>
       <c r="F187" s="19"/>
@@ -4644,14 +5113,18 @@
       <c r="H187" s="10"/>
       <c r="I187" s="19"/>
       <c r="J187" s="35"/>
-      <c r="K187" s="23"/>
+      <c r="K187" s="40"/>
       <c r="L187" s="20"/>
       <c r="M187" s="23"/>
-    </row>
-    <row r="188" spans="1:15" ht="17.5">
+      <c r="N187" s="23"/>
+      <c r="O187" s="42"/>
+      <c r="P187" s="41"/>
+      <c r="Q187" s="41"/>
+    </row>
+    <row r="188" spans="1:17" ht="53.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="6"/>
       <c r="B188" s="7"/>
-      <c r="C188" s="28"/>
+      <c r="C188" s="24"/>
       <c r="D188" s="19"/>
       <c r="E188" s="19"/>
       <c r="F188" s="19"/>
@@ -4661,12 +5134,16 @@
       <c r="J188" s="35"/>
       <c r="K188" s="23"/>
       <c r="L188" s="20"/>
-      <c r="M188" s="23"/>
-    </row>
-    <row r="189" spans="1:15" ht="17.5">
+      <c r="M188" s="27"/>
+      <c r="N188" s="27"/>
+      <c r="O188" s="33"/>
+      <c r="P188" s="41"/>
+      <c r="Q188" s="41"/>
+    </row>
+    <row r="189" spans="1:17" ht="79.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="6"/>
       <c r="B189" s="7"/>
-      <c r="C189" s="28"/>
+      <c r="C189" s="24"/>
       <c r="D189" s="19"/>
       <c r="E189" s="19"/>
       <c r="F189" s="19"/>
@@ -4676,16 +5153,150 @@
       <c r="J189" s="35"/>
       <c r="K189" s="23"/>
       <c r="L189" s="20"/>
-      <c r="M189" s="23"/>
+      <c r="M189" s="27"/>
+      <c r="N189" s="27"/>
+      <c r="O189" s="33"/>
+      <c r="P189" s="41"/>
+      <c r="Q189" s="41"/>
+    </row>
+    <row r="190" spans="1:17" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A190" s="6"/>
+      <c r="B190" s="7"/>
+      <c r="C190" s="24"/>
+      <c r="D190" s="19"/>
+      <c r="E190" s="19"/>
+      <c r="F190" s="19"/>
+      <c r="G190" s="19"/>
+      <c r="H190" s="10"/>
+      <c r="I190" s="19"/>
+      <c r="J190" s="35"/>
+      <c r="K190" s="27"/>
+      <c r="L190" s="20"/>
+      <c r="M190" s="23"/>
+      <c r="N190" s="23"/>
+      <c r="O190" s="33"/>
+      <c r="P190" s="41"/>
+      <c r="Q190" s="41"/>
+    </row>
+    <row r="191" spans="1:17" ht="94.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A191" s="6"/>
+      <c r="B191" s="7"/>
+      <c r="C191" s="28"/>
+      <c r="D191" s="19"/>
+      <c r="E191" s="19"/>
+      <c r="F191" s="19"/>
+      <c r="G191" s="19"/>
+      <c r="H191" s="10"/>
+      <c r="I191" s="19"/>
+      <c r="J191" s="35"/>
+      <c r="K191" s="23"/>
+      <c r="L191" s="20"/>
+      <c r="M191" s="23"/>
+      <c r="N191" s="23"/>
+    </row>
+    <row r="192" spans="1:17" ht="67.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A192" s="6"/>
+      <c r="B192" s="7"/>
+      <c r="C192" s="28"/>
+      <c r="D192" s="19"/>
+      <c r="E192" s="19"/>
+      <c r="F192" s="19"/>
+      <c r="G192" s="19"/>
+      <c r="H192" s="10"/>
+      <c r="I192" s="19"/>
+      <c r="J192" s="35"/>
+      <c r="K192" s="23"/>
+      <c r="L192" s="20"/>
+      <c r="M192" s="23"/>
+      <c r="N192" s="23"/>
+    </row>
+    <row r="193" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="A193" s="6"/>
+      <c r="B193" s="7"/>
+      <c r="C193" s="28"/>
+      <c r="D193" s="19"/>
+      <c r="E193" s="19"/>
+      <c r="F193" s="19"/>
+      <c r="G193" s="19"/>
+      <c r="H193" s="10"/>
+      <c r="I193" s="19"/>
+      <c r="J193" s="35"/>
+      <c r="K193" s="23"/>
+      <c r="L193" s="20"/>
+      <c r="M193" s="23"/>
+      <c r="N193" s="23"/>
+    </row>
+    <row r="194" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="A194" s="6"/>
+      <c r="B194" s="7"/>
+      <c r="C194" s="28"/>
+      <c r="D194" s="19"/>
+      <c r="E194" s="19"/>
+      <c r="F194" s="19"/>
+      <c r="G194" s="19"/>
+      <c r="H194" s="10"/>
+      <c r="I194" s="19"/>
+      <c r="J194" s="35"/>
+      <c r="K194" s="23"/>
+      <c r="L194" s="20"/>
+      <c r="M194" s="23"/>
+      <c r="N194" s="23"/>
+    </row>
+    <row r="195" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="A195" s="6"/>
+      <c r="B195" s="7"/>
+      <c r="C195" s="28"/>
+      <c r="D195" s="19"/>
+      <c r="E195" s="19"/>
+      <c r="F195" s="19"/>
+      <c r="G195" s="19"/>
+      <c r="H195" s="10"/>
+      <c r="I195" s="19"/>
+      <c r="J195" s="35"/>
+      <c r="K195" s="23"/>
+      <c r="L195" s="20"/>
+      <c r="M195" s="23"/>
+      <c r="N195" s="23"/>
+    </row>
+    <row r="196" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="A196" s="6"/>
+      <c r="B196" s="7"/>
+      <c r="C196" s="28"/>
+      <c r="D196" s="19"/>
+      <c r="E196" s="19"/>
+      <c r="F196" s="19"/>
+      <c r="G196" s="19"/>
+      <c r="H196" s="10"/>
+      <c r="I196" s="19"/>
+      <c r="J196" s="35"/>
+      <c r="K196" s="23"/>
+      <c r="L196" s="20"/>
+      <c r="M196" s="23"/>
+      <c r="N196" s="23"/>
+    </row>
+    <row r="197" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="A197" s="6"/>
+      <c r="B197" s="7"/>
+      <c r="C197" s="28"/>
+      <c r="D197" s="19"/>
+      <c r="E197" s="19"/>
+      <c r="F197" s="19"/>
+      <c r="G197" s="19"/>
+      <c r="H197" s="10"/>
+      <c r="I197" s="19"/>
+      <c r="J197" s="35"/>
+      <c r="K197" s="23"/>
+      <c r="L197" s="20"/>
+      <c r="M197" s="23"/>
+      <c r="N197" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H3:H15" r:id="rId1" display="https://user-center-thu.tunaikita.id/cashAccount"/>
-    <hyperlink ref="H2:H13" r:id="rId2" display="https://user-center-thu.tunaikita.id/cashAccount"/>
+    <hyperlink ref="H11:H23" r:id="rId1" display="https://user-center-thu.tunaikita.id/cashAccount"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-  <legacyDrawing r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/src/main/resources/caseconf/CashAccountModify/Case_CashAccountModify.xlsx
+++ b/src/main/resources/caseconf/CashAccountModify/Case_CashAccountModify.xlsx
@@ -145,66 +145,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="101">
   <si>
     <t>lable</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>用例编号</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Comment</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>author</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>flag</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>preDataSQL</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>clearDataSQL</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>serviceEnv</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>url</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>requestType</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>baseParamJson</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>expectParamJson</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>exectResult</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>1级</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>1级</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>必传参数-tenantUserId为空</t>
@@ -232,9 +232,6 @@
     <t>必传参数-tenantAccountId为空</t>
   </si>
   <si>
-    <t>必传参数-param为空</t>
-  </si>
-  <si>
     <t>必传参数-requestId缺失</t>
   </si>
   <si>
@@ -245,19 +242,19 @@
   </si>
   <si>
     <t>exceptSQL1</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>selSQL1</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>exceptSQL2</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>selSQL2</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>修改成功</t>
@@ -273,7 +270,7 @@
  "requestId": "204321200",
  "params": {"ICBC": "7222888899993322"}
 }</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -281,54 +278,6 @@
     "resMsg": "银行卡不存在",
     "successful": 0
 }</t>
-  </si>
-  <si>
-    <t>{
- "tenantId": "",
- "tenantUserId": "1114",
- "tenantAccountId": "2",
- "requestId": "2043202110",
- "params": {"ICBC": "6222888899991212"}
-}</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0001",
-    "resMsg": "系统错误",
-    "successful": 0,
-    "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.BankCardController.updateBank(***.web.request.CashAccountRequest): [Field error in object 'cashAccountRequest' on field 'tenantId': rejected value []; codes [NotBlank.cashAccountRequest.tenantId,NotBlank.tenantId,NotBlank.java.lang.String,NotBlank]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [cashAccountRequest.tenantId,tenantId]; arguments []; default message [tenantId]]; default message [渠道编号不能为空]] "
-}</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "tenantId": "li",
- "tenantUserId": "",
- "tenantAccountId": "2",
- "requestId": "204320209910",
- "params": {"ICBC": "6222888899991212"}
-}</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0001",
-    "resMsg": "系统错误",
-    "successful": 0,
-    "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.BankCardController.updateBank(***.web.request.CashAccountRequest): [Field error in object 'cashAccountRequest' on field 'tenantUserId': rejected value []; codes [NotBlank.cashAccountRequest.tenantUserId,NotBlank.tenantUserId,NotBlank.java.lang.String,NotBlank]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [cashAccountRequest.tenantUserId,tenantUserId]; arguments []; default message [tenantUserId]]; default message [渠道用户编号不能为空]] "
-}</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "tenantId": "li",
- "tenantUserId": "1114",
- "tenantAccountId": "",
- "requestId": "204320209810",
- "params": {"ICBC": "6222888899991212"}
-}</t>
-    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -340,40 +289,11 @@
   </si>
   <si>
     <t>{
- "tenantId": "li",
- "tenantUserId": "1114",
- "tenantAccountId": "2",
- "requestId": "",
- "param": {"ICBC": "6222888899991212"}
-}</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "tenantId": "1001",
- "tenantUserId": "000112",
- "tenantAccountId": "2",
- "requestId": "783273827",
- "params": {}
-}</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
     "resCode": "E0004",
     "resMsg": "参数异常",
     "successful": 0
 }</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "tenantUserId": "1114",
- "tenantAccountId": "2",
- "requestId": "20432000",
- "params": {"ICBC": "6222888899991212"}
-}</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -382,34 +302,7 @@
     "successful": 0,
     "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.BankCardController.updateBank(***.web.request.CashAccountRequest): [Field error in object 'cashAccountRequest' on field 'tenantId': rejected value [null]; codes [NotBlank.cashAccountRequest.tenantId,NotBlank.tenantId,NotBlank.java.lang.String,NotBlank]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [cashAccountRequest.tenantId,tenantId]; arguments []; default message [tenantId]]; default message [渠道编号不能为空]] "
 }</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "tenantId": "li",
- "tenantAccountId": "2",
- "requestId": "20211432000",
- "params": {"ICBC": "6222888899991212"}
-}</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0001",
-    "resMsg": "系统错误",
-    "successful": 0,
-    "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.BankCardController.updateBank(***.web.request.CashAccountRequest): [Field error in object 'cashAccountRequest' on field 'tenantUserId': rejected value [null]; codes [NotBlank.cashAccountRequest.tenantUserId,NotBlank.tenantUserId,NotBlank.java.lang.String,NotBlank]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [cashAccountRequest.tenantUserId,tenantUserId]; arguments []; default message [tenantUserId]]; default message [渠道用户编号不能为空]] "
-}</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "tenantId": "li",
- "tenantUserId": "1114",
- "requestId": "20439872000",
- "param": {"ICBC": "6222888899991212"}
-}</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -418,25 +311,7 @@
     "successful": 0,
     "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.BankCardController.updateBank(***.web.request.CashAccountRequest): [Field error in object 'cashAccountRequest' on field 'tenantAccountId': rejected value [null]; codes [NotBlank.cashAccountRequest.tenantAccountId,NotBlank.tenantAccountId,NotBlank.java.lang.String,NotBlank]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [cashAccountRequest.tenantAccountId,tenantAccountId]; arguments []; default message [tenantAccountId]]; default message [渠道收还款账户编号不能为空]] "
 }</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "tenantId": "li",
- "tenantUserId": "1114",
- "tenantAccountId": "2",
- "params": {"ICBC": "6222888899991212"}
-}</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "tenantId": "1001",
- "tenantUserId": "1",
- "tenantAccountId": "2",
- "requestId": "20436522000"
-}</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">
@@ -445,11 +320,11 @@
     "resMsg": "参数异常",
     "successful": 0
 }</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>CashAccountModify-001</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>CashAccountModify-002</t>
@@ -458,9 +333,6 @@
     <t>CashAccountModify-003</t>
   </si>
   <si>
-    <t>CashAccountModify-004</t>
-  </si>
-  <si>
     <t>CashAccountModify-005</t>
   </si>
   <si>
@@ -486,43 +358,35 @@
   </si>
   <si>
     <t>https://user-center-thu.tunaikita.id/cashAccount</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>https://user-center-thu.tunaikita.id/cashAccount</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>https://user-center-thu.tunaikita.id/cashAccount</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>/modify</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>/modify</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>/modify</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>/modify</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>/modify</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>/modify</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>/modify</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -530,38 +394,19 @@
     "resMsg": "成功",
     "successful": 1
 }</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>0123,success</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>select enant_account_id,account_status from cash_account where tenant_account_id =0123</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>params中value段值为空</t>
-    <rPh sb="6" eb="7">
-      <t>zhong</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>zhi</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>wei</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>kong</t>
-    </rPh>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>params为空</t>
-    <rPh sb="6" eb="7">
-      <t>wei'kong</t>
-    </rPh>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <t xml:space="preserve">
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897131,"699222007535509504","1001","000113","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897133,"699222007535509504","1001","000113","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897135,"699222007535509504","1001","000113","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897137,"699222007535509504","1001","000113","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699222007535509504","1001","000113",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699222007535509504","1001","000113","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59");
+insert into cash_account_item (id,account_id,tenant_id,tenant_account_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("48539","699998561629069312","1001","0123","ICBC","7222888899313","+ZkyOt8RzrQvZg==","8461eeb015cadb49aa1e92ea22c2a6ec","1","2020-04-15 15:04:22","2020-04-15 15:04:22");
+insert into cash_account (account_id,user_id,tenant_user_id,tenant_id,tenant_account_id,secret_key,account_status,create_time,update_time) values ("699998561629069312","699222007535509504","000113","1001","0123","ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTVicVBJWFVtZ2c1RVljMGF5WFBQOXUrUm9mMmgwczhjQ2JBQUFBQUFBQUFBQUQzNmF6NjMwQ0xwZWVrRmM5cGdKSXBEaEJmdWc1aXF1ZENhdDhTdnFwcXAzWko1MngxVGNjOFJoYkM3YkZnejJOV1h0UUhmemxmYnhDeUI5OTBXTWxMNHV4bDhjSC9zUjBGejlIaXdETjU3SGxzcmcxNEk0QkNBUDVXNmVkMkFteDMwZU1VV1o5RzluNEFmeUhkRlNPMkZwTVBrUjEzMmxTa1VzVHd6elAyZWVjY1E5VXNldjFQUGFFQld0aExtSVdnR2lNTmpSeitTaGVTS3hxOXJEc0dObFd3R3l4RlhiRUpjU09mYmZWaFRMZm12dy9iQkxjWUF3TUttL0hCYjh1bWNIUWo2Y2xZdi9SV3Z5QnJYOC9reEh2N1I1T05jZmgrTWdySEZFUEJQbUxLV3ZXMlowTzdBUUdEaWQxNisrdURQV29zb29uSHI2YTF1YmlGYkNGcWMyMjlGbEhCOTBsSlFxWVBzNjVXc1pTYlRjQ3dYVVJNb3dzbWZZbkhqVFREQUZxY1oxMUpLbTVoK0lrVDlVdEFnbTh1WFAvS0grTC83aFkxWE1OOWhIZVo0UmhnakJQcjdObVVSaE02QWwwdFdodDVLUHQ1S0pZU3Q0TEFRQlhibjY3NGxwYWxKZz0=","success","2020-04-15 15:04:22","2020-04-15 15:04:22")</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>修改为相同的字段</t>
@@ -580,7 +425,7 @@
     <rPh sb="6" eb="7">
       <t>zi'duan</t>
     </rPh>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>增加字段，原来保持不变</t>
@@ -599,7 +444,7 @@
     <rPh sb="10" eb="11">
       <t>bian</t>
     </rPh>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -609,7 +454,7 @@
  "requestId": "204320001",
  "params": {"ICBC": "6222888899993322"}
 }</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>修改成功</t>
@@ -619,19 +464,19 @@
     <rPh sb="2" eb="3">
       <t>cheng'g</t>
     </rPh>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>select count(*) from cash_account_item where tenant_account_id = 0123 and tenant_id = 1001 and key_name = "ICBC"</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>exceptSQL3</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>selSQL3</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>被修改原来的值不在了</t>
@@ -659,27 +504,11 @@
     <rPh sb="9" eb="10">
       <t>le</t>
     </rPh>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>select key_name,key_value,version from cash_account_item where tenant_account_id = 0123 and tenant_id = 1001 and key_name = "ICBC"</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>ICBC,6***************,2</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897131,"699222007535509504","1001","000113","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897133,"699222007535509504","1001","000113","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897135,"699222007535509504","1001","000113","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897137,"699222007535509504","1001","000113","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699222007535509504","1001","000113",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699222007535509504","1001","000113","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59");
-insert into cash_account_item (id,account_id,tenant_id,tenant_account_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("48539","699998561629069312","1001","0123","ICBC","7222888899313","+ZkyOt8RzrQvZg==","8461eeb015cadb49aa1e92ea22c2a6ec","1","2020-04-15 15:04:22","2020-04-15 15:04:22");
-insert into cash_account (account_id,user_id,tenant_user_id,tenant_id,tenant_account_id,secret_key,account_status,create_time,update_time) values ("699998561629069312","699222007535509504","000113","1001","0123","ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTVicVBJWFVtZ2c1RVljMGF5WFBQOXUrUm9mMmgwczhjQ2JBQUFBQUFBQUFBQUQzNmF6NjMwQ0xwZWVrRmM5cGdKSXBEaEJmdWc1aXF1ZENhdDhTdnFwcXAzWko1MngxVGNjOFJoYkM3YkZnejJOV1h0UUhmemxmYnhDeUI5OTBXTWxMNHV4bDhjSC9zUjBGejlIaXdETjU3SGxzcmcxNEk0QkNBUDVXNmVkMkFteDMwZU1VV1o5RzluNEFmeUhkRlNPMkZwTVBrUjEzMmxTa1VzVHd6elAyZWVjY1E5VXNldjFQUGFFQld0aExtSVdnR2lNTmpSeitTaGVTS3hxOXJEc0dObFd3R3l4RlhiRUpjU09mYmZWaFRMZm12dy9iQkxjWUF3TUttL0hCYjh1bWNIUWo2Y2xZdi9SV3Z5QnJYOC9reEh2N1I1T05jZmgrTWdySEZFUEJQbUxLV3ZXMlowTzdBUUdEaWQxNisrdURQV29zb29uSHI2YTF1YmlGYkNGcWMyMjlGbEhCOTBsSlFxWVBzNjVXc1pTYlRjQ3dYVVJNb3dzbWZZbkhqVFREQUZxY1oxMUpLbTVoK0lrVDlVdEFnbTh1WFAvS0grTC83aFkxWE1OOWhIZVo0UmhnakJQcjdObVVSaE02QWwwdFdodDVLUHQ1S0pZU3Q0TEFRQlhibjY3NGxwYWxKZz0=","success","2020-04-15 15:04:22","2020-04-15 15:04:22")</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>delete from user_request_serial where request_id = "199991";
@@ -689,27 +518,247 @@
 delete from user_basic_info where tenant_user_id = "000113" and tenant_id = "1001";
 delete from user_info_item where tenant_user_id = "000113" and tenant_id = "1001";
 delete from user_index where tenant_user_id = "000113" and tenant_id = "1001";</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>params中value段值为空，结果不变</t>
+    <rPh sb="6" eb="7">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>zhi</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>kong</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>jie'guo</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>bu'vian</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "tenantId": "1001",
+ "tenantUserId": "000113",
+ "tenantAccountId": "0123",
+ "requestId": "204320001",
+ "params": {"ICBC": "7222888899313"}
+}</t>
     <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>select count(*) from cash_account_item where tenant_account_id = 0123 and tenant_id = 1001 and key_name = "ICBC"</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "tenantId": "1001",
+ "tenantUserId": "000113",
+ "tenantAccountId": "0123",
+ "requestId": "204320001",
+ "params": {"ICBC": ""}
+}</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "tenantId": "1001",
+ "tenantUserId": "000113",
+ "tenantAccountId": "0123",
+ "requestId": "204320001",
+ "params": {"招商": "00010101"}
+}</t>
+    <rPh sb="118" eb="119">
+      <t>zhao'shang</t>
+    </rPh>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>select key_value,version from cash_account_item where tenant_account_id = 0123 and tenant_id = 1001 and key_name = "ICBC"</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>CashAccountModify-013</t>
+  </si>
+  <si>
+    <t>CashAccountModify-014</t>
+  </si>
+  <si>
+    <t>CashAccountModify-015</t>
+  </si>
+  <si>
+    <t>CashAccountModify-016</t>
+  </si>
+  <si>
+    <t>1级</t>
+  </si>
+  <si>
+    <t>ICBC,7222888899313,2</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICBC,7************,2</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>7222888899313,1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "tenantId": "1001",
+ "tenantUserId": "",
+ "tenantAccountId": "0123",
+ "requestId": "204320001",
+ "params": {"招商": "00010101"}
+}</t>
+    <rPh sb="112" eb="113">
+      <t>zhao'shang</t>
+    </rPh>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "tenantId": "1001",
+ "tenantUserId": "000113",
+ "tenantAccountId": "",
+ "requestId": "204320001",
+ "params": {"招商": "00010101"}
+}</t>
+    <rPh sb="114" eb="115">
+      <t>zhao'shang</t>
+    </rPh>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>必传参数-param为空</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "tenantId": "1001",
+ "tenantUserId": "000113",
+ "tenantAccountId": "0123",
+ "requestId": "204320001",
+ "params": {}
+}</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "tenantId": "1001",
+ "tenantAccountId": "0123",
+ "requestId": "204320001",
+ "params": {"招商": "00010101"}
+}</t>
+    <rPh sb="91" eb="92">
+      <t>zhao'shang</t>
+    </rPh>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "tenantId": "1001",
+ "tenantUserId": "000113",
+ "tenantAccountId": "0123",
+ "requestId": "204320001"
+}</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "tenantId": "1001",
+ "tenantUserId": "000113",
+ "requestId": "204320001",
+ "params": {"ICBC": "7222888899313"}
+}</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>select key_name,key_value,version from cash_account_item where tenant_account_id = "0123" and tenant_id = "1001" and key_name = "ICBC"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select tenant_account_id,account_status from cash_account where tenant_account_id ="0123" and tenant_id = "1001" </t>
+  </si>
+  <si>
+    <t>select key_value,version from cash_account_item where tenant_account_id = "0123" and tenant_id = "1001" and key_name = "招商"</t>
+  </si>
+  <si>
+    <t>{
+ "tenantId": "",
+ "tenantUserId": "000113",
+ "tenantAccountId": "0123",
+ "requestId": "204320001",
+ "params": {"ICBC": "7222888899313"}
+}</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"resCode":"USR3004","resMsg":"用户不匹配","successful":0}</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "tenantUserId": "000113",
+ "tenantAccountId": "0123",
+ "requestId": "204320001",
+ "params": {"ICBC": "7222888899313"}
+}</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "tenantId": "1001",
+ "tenantUserId": "000113",
+ "tenantAccountId": "0123",
+ "params": {"ICBC": "6222888899993322"}
+}</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>0123,success</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0001",
+    "resMsg": "系统错误",
+    "successful": 0,
+    "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.BankCardController.updateBank(***.web.request.CashAccountRequest): [Field error in object 'cashAccountRequest' on field 'tenantId': rejected value []; codes [NotBlank.cashAccountRequest.tenantId,NotBlank.tenantId,NotBlank.java.lang.String,NotBlank]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [cashAccountRequest.tenantId,tenantId]; arguments []; default message [tenantId]]; default message [渠道编号不能为空]] "
+}</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "tenantId": "1001",
+ "tenantUserId": "000113",
+ "tenantAccountId": "0123",
+ "requestId": "",
+ "params": {"ICBC": "6222888899993322"}
+}</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>0*******,1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -901,67 +950,67 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFill="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -970,10 +1019,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -985,7 +1034,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -994,7 +1043,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1003,88 +1052,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1098,6 +1144,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1381,11 +1430,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V197"/>
+  <dimension ref="A1:X192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="108" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="93" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane xSplit="3" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F6" sqref="F6"/>
+      <selection pane="topRight" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1405,15 +1454,18 @@
     <col min="13" max="13" width="42.6640625" style="5" customWidth="1"/>
     <col min="14" max="14" width="18.33203125" style="5" customWidth="1"/>
     <col min="15" max="15" width="25.33203125" style="8" customWidth="1"/>
-    <col min="16" max="17" width="65.83203125" style="9" customWidth="1"/>
+    <col min="16" max="16" width="65.83203125" style="9" customWidth="1"/>
+    <col min="17" max="17" width="17" style="9" customWidth="1"/>
     <col min="18" max="18" width="18.6640625" style="9" customWidth="1"/>
     <col min="19" max="19" width="22.6640625" style="9" customWidth="1"/>
     <col min="20" max="20" width="19" style="5" customWidth="1"/>
     <col min="21" max="21" width="37" style="5" customWidth="1"/>
-    <col min="22" max="16384" width="11" style="5"/>
+    <col min="22" max="23" width="11" style="5"/>
+    <col min="24" max="24" width="42.33203125" style="5" customWidth="1"/>
+    <col min="25" max="16384" width="11" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1455,655 +1507,775 @@
       </c>
       <c r="N1" s="3"/>
       <c r="O1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" s="51" t="s">
         <v>26</v>
-      </c>
-      <c r="P1" s="51" t="s">
-        <v>27</v>
       </c>
       <c r="Q1" s="51"/>
       <c r="R1" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="S1" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="S1" s="51" t="s">
-        <v>29</v>
-      </c>
       <c r="T1" s="51" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="U1" s="51" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
-      <c r="F2" s="60" t="s">
-        <v>89</v>
+      <c r="F2" s="59" t="s">
+        <v>58</v>
       </c>
       <c r="G2" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="60" t="s">
+        <v>61</v>
+      </c>
+      <c r="M2" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="N2" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="O2" s="5">
+        <v>1</v>
+      </c>
+      <c r="P2" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q2" s="60" t="s">
+        <v>62</v>
+      </c>
+      <c r="R2" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="S2" s="60" t="s">
         <v>90</v>
       </c>
-      <c r="H2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I2" s="56" t="s">
-        <v>67</v>
-      </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="61" t="s">
-        <v>81</v>
-      </c>
-      <c r="M2" s="57" t="s">
-        <v>74</v>
-      </c>
-      <c r="N2" s="63" t="s">
-        <v>86</v>
-      </c>
-      <c r="O2" s="5">
-        <v>2</v>
-      </c>
-      <c r="P2" s="61" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q2" s="61" t="s">
-        <v>82</v>
-      </c>
-      <c r="R2" s="62" t="s">
-        <v>88</v>
-      </c>
-      <c r="S2" s="61" t="s">
-        <v>87</v>
-      </c>
-      <c r="T2" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="U2" s="61" t="s">
-        <v>76</v>
-      </c>
-      <c r="V2" s="61"/>
-    </row>
-    <row r="3" spans="1:22" ht="409" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="61" t="s">
-        <v>79</v>
+      <c r="T2" s="60" t="s">
+        <v>97</v>
+      </c>
+      <c r="U2" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="V2" s="60"/>
+    </row>
+    <row r="3" spans="1:24" ht="409" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="60" t="s">
+        <v>59</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
-      <c r="F3" s="60" t="s">
-        <v>89</v>
+      <c r="F3" s="59" t="s">
+        <v>58</v>
       </c>
       <c r="G3" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="M3" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="N3" s="57"/>
+      <c r="O3" s="5">
+        <v>1</v>
+      </c>
+      <c r="P3" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="61" t="s">
+        <v>81</v>
+      </c>
+      <c r="S3" s="60" t="s">
         <v>90</v>
       </c>
-      <c r="H3" t="s">
-        <v>64</v>
-      </c>
-      <c r="I3" s="56" t="s">
-        <v>67</v>
-      </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="61" t="s">
-        <v>81</v>
-      </c>
-      <c r="M3" s="57"/>
-      <c r="N3" s="57"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="61"/>
-      <c r="S3" s="61"/>
-    </row>
-    <row r="4" spans="1:22" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="61" t="s">
-        <v>77</v>
+      <c r="T3" s="60" t="s">
+        <v>97</v>
+      </c>
+      <c r="U3" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="X3" s="60"/>
+    </row>
+    <row r="4" spans="1:24" ht="409" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="60" t="s">
+        <v>69</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="48"/>
-      <c r="H4"/>
-      <c r="I4" s="56"/>
+      <c r="F4" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="56" t="s">
+        <v>52</v>
+      </c>
       <c r="J4" s="5"/>
-      <c r="K4" s="61"/>
-      <c r="M4" s="57"/>
+      <c r="K4" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="M4" s="57" t="s">
+        <v>57</v>
+      </c>
       <c r="N4" s="57"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="47"/>
+      <c r="O4" s="5">
+        <v>1</v>
+      </c>
+      <c r="P4" s="60" t="s">
+        <v>63</v>
+      </c>
       <c r="Q4" s="47"/>
-      <c r="R4" s="61"/>
-      <c r="S4" s="61"/>
-    </row>
-    <row r="5" spans="1:22" ht="18" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="61" t="s">
-        <v>78</v>
+      <c r="R4" s="61" t="s">
+        <v>80</v>
+      </c>
+      <c r="S4" s="60" t="s">
+        <v>90</v>
+      </c>
+      <c r="T4" s="60" t="s">
+        <v>97</v>
+      </c>
+      <c r="U4" s="60" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="409" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="60" t="s">
+        <v>60</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="48"/>
-      <c r="H5"/>
-      <c r="I5" s="56"/>
+      <c r="F5" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" s="56" t="s">
+        <v>52</v>
+      </c>
       <c r="J5" s="5"/>
-      <c r="K5" s="61"/>
-      <c r="M5" s="57"/>
+      <c r="K5" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" s="57" t="s">
+        <v>57</v>
+      </c>
       <c r="N5" s="57"/>
-      <c r="O5" s="58"/>
-      <c r="P5" s="47"/>
+      <c r="O5" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="P5" s="60" t="s">
+        <v>74</v>
+      </c>
       <c r="Q5" s="47"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="61"/>
-    </row>
-    <row r="6" spans="1:22" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="61" t="s">
-        <v>80</v>
+      <c r="R5" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="S5" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="T5" s="60"/>
+      <c r="U5" s="62"/>
+    </row>
+    <row r="6" spans="1:24" ht="208.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>30</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="48"/>
-      <c r="H6"/>
-      <c r="I6" s="56"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" s="56" t="s">
+        <v>53</v>
+      </c>
       <c r="J6" s="5"/>
-      <c r="K6" s="61"/>
-      <c r="M6" s="57"/>
-      <c r="N6" s="57"/>
-      <c r="O6" s="58"/>
+      <c r="K6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="N6" s="9"/>
+      <c r="O6" s="49"/>
       <c r="P6" s="47"/>
       <c r="Q6" s="47"/>
-      <c r="R6" s="61"/>
-      <c r="S6" s="61"/>
-    </row>
-    <row r="7" spans="1:22" ht="18" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="61"/>
+      <c r="R6" s="47"/>
+      <c r="S6" s="47"/>
+    </row>
+    <row r="7" spans="1:24" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>20</v>
+      </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="48"/>
-      <c r="H7"/>
-      <c r="I7" s="56"/>
+      <c r="F7" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="56" t="s">
+        <v>53</v>
+      </c>
       <c r="J7" s="5"/>
-      <c r="K7" s="59"/>
-      <c r="M7" s="57"/>
-      <c r="N7" s="57"/>
-      <c r="O7" s="58"/>
-      <c r="P7" s="47"/>
-      <c r="Q7" s="47"/>
-      <c r="R7" s="61"/>
-      <c r="S7" s="61"/>
-    </row>
-    <row r="8" spans="1:22" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="61"/>
+      <c r="K7" s="60" t="s">
+        <v>93</v>
+      </c>
+      <c r="M7" s="60" t="s">
+        <v>98</v>
+      </c>
+      <c r="N7" s="9"/>
+      <c r="O7" s="45"/>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="52"/>
+    </row>
+    <row r="8" spans="1:24" ht="409" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="48"/>
-      <c r="H8"/>
-      <c r="I8" s="56"/>
+      <c r="F8" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" s="56" t="s">
+        <v>54</v>
+      </c>
       <c r="J8" s="5"/>
-      <c r="K8" s="59"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="58"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="61"/>
-      <c r="S8" s="61"/>
-    </row>
-    <row r="9" spans="1:22" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="61"/>
+      <c r="K8" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="M8" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="N8" s="9"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="53"/>
+    </row>
+    <row r="9" spans="1:24" ht="409" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="48"/>
-      <c r="H9"/>
-      <c r="I9" s="56"/>
+      <c r="F9" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" s="56" t="s">
+        <v>55</v>
+      </c>
       <c r="J9" s="5"/>
-      <c r="K9" s="59"/>
-      <c r="M9" s="57"/>
-      <c r="N9" s="57"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="47"/>
-      <c r="Q9" s="47"/>
-      <c r="R9" s="61"/>
-      <c r="S9" s="61"/>
-    </row>
-    <row r="10" spans="1:22" ht="18" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="9"/>
+      <c r="K9" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="N9" s="9"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="53"/>
+      <c r="Q9" s="53"/>
+    </row>
+    <row r="10" spans="1:24" ht="409" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="48"/>
-      <c r="H10"/>
-      <c r="I10" s="56"/>
+      <c r="F10" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" s="56" t="s">
+        <v>55</v>
+      </c>
       <c r="J10" s="5"/>
-      <c r="K10" s="59"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="57"/>
-      <c r="O10" s="58"/>
-      <c r="P10" s="47"/>
-      <c r="Q10" s="47"/>
-      <c r="R10" s="61"/>
-      <c r="S10" s="61"/>
-    </row>
-    <row r="11" spans="1:22" ht="208.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K10" s="60" t="s">
+        <v>99</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N10" s="9"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="53"/>
+    </row>
+    <row r="11" spans="1:24" ht="409" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>31</v>
+        <v>47</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>85</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
+      <c r="F11" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="48" t="s">
+        <v>68</v>
+      </c>
       <c r="H11" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="I11" s="56" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="J11" s="5"/>
-      <c r="K11" s="9" t="s">
-        <v>32</v>
+      <c r="K11" s="60" t="s">
+        <v>86</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N11" s="9"/>
-      <c r="O11" s="49"/>
-      <c r="P11" s="47"/>
-      <c r="Q11" s="47"/>
-      <c r="R11" s="47"/>
-      <c r="S11" s="47"/>
-    </row>
-    <row r="12" spans="1:22" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O11" s="16"/>
+      <c r="P11" s="53"/>
+      <c r="Q11" s="53"/>
+    </row>
+    <row r="12" spans="1:24" ht="409" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
+      <c r="F12" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="63" t="s">
+        <v>68</v>
+      </c>
       <c r="H12" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="I12" s="56" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="J12" s="5"/>
-      <c r="K12" s="9" t="s">
-        <v>34</v>
+      <c r="K12" s="60" t="s">
+        <v>95</v>
       </c>
       <c r="M12" s="9" t="s">
         <v>35</v>
       </c>
       <c r="N12" s="9"/>
-      <c r="O12" s="45"/>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="52"/>
-    </row>
-    <row r="13" spans="1:22" ht="285" x14ac:dyDescent="0.2">
+      <c r="O12" s="16"/>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="32"/>
+    </row>
+    <row r="13" spans="1:24" ht="409" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+      <c r="F13" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="48" t="s">
+        <v>68</v>
+      </c>
       <c r="H13" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="I13" s="56" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="J13" s="5"/>
-      <c r="K13" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="M13" s="9" t="s">
-        <v>37</v>
+      <c r="K13" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="M13" s="60" t="s">
+        <v>94</v>
       </c>
       <c r="N13" s="9"/>
-      <c r="O13" s="15"/>
+      <c r="O13" s="16"/>
       <c r="P13" s="53"/>
       <c r="Q13" s="53"/>
     </row>
-    <row r="14" spans="1:22" ht="300" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" ht="409" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
+      <c r="F14" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="48" t="s">
+        <v>68</v>
+      </c>
       <c r="H14" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="I14" s="56" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="J14" s="5"/>
-      <c r="K14" s="9" t="s">
-        <v>38</v>
+      <c r="K14" s="60" t="s">
+        <v>89</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N14" s="9"/>
       <c r="O14" s="16"/>
-      <c r="P14" s="53"/>
-      <c r="Q14" s="53"/>
-    </row>
-    <row r="15" spans="1:22" ht="105" x14ac:dyDescent="0.2">
+      <c r="P14" s="32"/>
+      <c r="Q14" s="32"/>
+    </row>
+    <row r="15" spans="1:24" ht="409" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
+      <c r="F15" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="48" t="s">
+        <v>68</v>
+      </c>
       <c r="H15" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="I15" s="56" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="J15" s="5"/>
-      <c r="K15" s="9" t="s">
-        <v>40</v>
+      <c r="K15" s="60" t="s">
+        <v>96</v>
       </c>
       <c r="M15" s="9" t="s">
         <v>19</v>
       </c>
       <c r="N15" s="9"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="53"/>
-      <c r="Q15" s="53"/>
-    </row>
-    <row r="16" spans="1:22" ht="105" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:24" ht="409" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
+      <c r="F16" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" s="48" t="s">
+        <v>68</v>
+      </c>
       <c r="H16" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="I16" s="56" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="J16" s="5"/>
-      <c r="K16" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="M16" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="N16" s="9"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="53"/>
-      <c r="Q16" s="53"/>
-    </row>
-    <row r="17" spans="1:19" ht="270" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>16</v>
-      </c>
+      <c r="K16" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="L16" s="44"/>
+      <c r="M16" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="N16" s="43"/>
+    </row>
+    <row r="17" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="9"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
-      <c r="H17" t="s">
-        <v>65</v>
-      </c>
-      <c r="I17" s="56" t="s">
-        <v>69</v>
-      </c>
-      <c r="J17" s="5"/>
-      <c r="K17" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="M17" s="9" t="s">
-        <v>44</v>
-      </c>
+      <c r="H17" s="33"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="9"/>
+      <c r="M17" s="9"/>
       <c r="N17" s="9"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="32"/>
-      <c r="Q17" s="32"/>
-    </row>
-    <row r="18" spans="1:19" ht="285" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>17</v>
-      </c>
+    </row>
+    <row r="18" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="A18" s="6"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="9"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
-      <c r="H18" t="s">
-        <v>64</v>
-      </c>
-      <c r="I18" s="56" t="s">
-        <v>67</v>
-      </c>
-      <c r="J18" s="5"/>
-      <c r="K18" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="M18" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="N18" s="9"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="53"/>
-      <c r="Q18" s="53"/>
-    </row>
-    <row r="19" spans="1:19" ht="300" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" t="s">
-        <v>66</v>
-      </c>
-      <c r="I19" s="56" t="s">
-        <v>72</v>
-      </c>
-      <c r="J19" s="5"/>
-      <c r="K19" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="M19" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="N19" s="9"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="32"/>
-    </row>
-    <row r="20" spans="1:19" ht="90" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" t="s">
-        <v>65</v>
-      </c>
-      <c r="I20" s="56" t="s">
-        <v>67</v>
-      </c>
-      <c r="J20" s="5"/>
-      <c r="K20" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="M20" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N20" s="9"/>
-    </row>
-    <row r="21" spans="1:19" ht="90" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" t="s">
-        <v>64</v>
-      </c>
-      <c r="I21" s="56" t="s">
-        <v>71</v>
-      </c>
-      <c r="J21" s="5"/>
-      <c r="K21" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="L21" s="44"/>
-      <c r="M21" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="N21" s="43"/>
-    </row>
-    <row r="22" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="H18" s="33"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="43"/>
+      <c r="N18" s="43"/>
+    </row>
+    <row r="19" spans="1:19" s="12" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="6"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
+    </row>
+    <row r="20" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A20" s="6"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="54"/>
+      <c r="Q20" s="54"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="13"/>
+    </row>
+    <row r="21" spans="1:19" s="12" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="6"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="34"/>
+      <c r="P21" s="32"/>
+      <c r="Q21" s="32"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="13"/>
+    </row>
+    <row r="22" spans="1:19" s="12" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-    </row>
-    <row r="23" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="C22" s="24"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="34"/>
+      <c r="P22" s="55"/>
+      <c r="Q22" s="55"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
+    </row>
+    <row r="23" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
       <c r="B23" s="7"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="43"/>
-      <c r="L23" s="44"/>
-      <c r="M23" s="43"/>
-      <c r="N23" s="43"/>
-    </row>
-    <row r="24" spans="1:19" s="12" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C23" s="17"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="13"/>
+      <c r="S23" s="13"/>
+    </row>
+    <row r="24" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
       <c r="B24" s="7"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
       <c r="H24" s="10"/>
       <c r="I24" s="21"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="27"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
       <c r="O24" s="11"/>
       <c r="P24" s="13"/>
       <c r="Q24" s="13"/>
@@ -2113,81 +2285,81 @@
     <row r="25" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
       <c r="B25" s="7"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
       <c r="H25" s="10"/>
       <c r="I25" s="21"/>
       <c r="J25" s="22"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="27"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
       <c r="O25" s="11"/>
-      <c r="P25" s="54"/>
-      <c r="Q25" s="54"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
       <c r="R25" s="13"/>
       <c r="S25" s="13"/>
     </row>
-    <row r="26" spans="1:19" s="12" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
       <c r="H26" s="10"/>
       <c r="I26" s="21"/>
       <c r="J26" s="22"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="27"/>
-      <c r="N26" s="27"/>
-      <c r="O26" s="34"/>
-      <c r="P26" s="32"/>
-      <c r="Q26" s="32"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
       <c r="R26" s="13"/>
       <c r="S26" s="13"/>
     </row>
-    <row r="27" spans="1:19" s="12" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
       <c r="B27" s="7"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
       <c r="H27" s="10"/>
       <c r="I27" s="21"/>
       <c r="J27" s="22"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="34"/>
-      <c r="P27" s="55"/>
-      <c r="Q27" s="55"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
       <c r="R27" s="13"/>
       <c r="S27" s="13"/>
     </row>
     <row r="28" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
       <c r="B28" s="7"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
       <c r="H28" s="10"/>
       <c r="I28" s="21"/>
       <c r="J28" s="22"/>
       <c r="K28" s="23"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="23"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="31"/>
       <c r="O28" s="11"/>
       <c r="P28" s="13"/>
       <c r="Q28" s="13"/>
@@ -2204,8 +2376,8 @@
       <c r="G29" s="28"/>
       <c r="H29" s="10"/>
       <c r="I29" s="21"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="31"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="23"/>
       <c r="L29" s="30"/>
       <c r="M29" s="31"/>
       <c r="N29" s="31"/>
@@ -2215,7 +2387,7 @@
       <c r="R29" s="13"/>
       <c r="S29" s="13"/>
     </row>
-    <row r="30" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" s="12" customFormat="1" ht="110" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
       <c r="C30" s="28"/>
@@ -2226,7 +2398,7 @@
       <c r="H30" s="10"/>
       <c r="I30" s="21"/>
       <c r="J30" s="22"/>
-      <c r="K30" s="31"/>
+      <c r="K30" s="23"/>
       <c r="L30" s="30"/>
       <c r="M30" s="31"/>
       <c r="N30" s="31"/>
@@ -2236,110 +2408,85 @@
       <c r="R30" s="13"/>
       <c r="S30" s="13"/>
     </row>
-    <row r="31" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" ht="18" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
       <c r="H31" s="10"/>
       <c r="I31" s="21"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="31"/>
-      <c r="L31" s="30"/>
-      <c r="M31" s="31"/>
-      <c r="N31" s="31"/>
-      <c r="O31" s="11"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="13"/>
-      <c r="R31" s="13"/>
-      <c r="S31" s="13"/>
-    </row>
-    <row r="32" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="J31" s="35"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="23"/>
+    </row>
+    <row r="32" spans="1:19" ht="18" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
       <c r="H32" s="10"/>
       <c r="I32" s="21"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="31"/>
-      <c r="L32" s="30"/>
-      <c r="M32" s="31"/>
-      <c r="N32" s="31"/>
-      <c r="O32" s="11"/>
-      <c r="P32" s="13"/>
-      <c r="Q32" s="13"/>
-      <c r="R32" s="13"/>
-      <c r="S32" s="13"/>
-    </row>
-    <row r="33" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="J32" s="35"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="23"/>
+      <c r="N32" s="23"/>
+    </row>
+    <row r="33" spans="1:19" ht="18" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
       <c r="H33" s="10"/>
       <c r="I33" s="21"/>
-      <c r="J33" s="22"/>
+      <c r="J33" s="35"/>
       <c r="K33" s="23"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="31"/>
-      <c r="N33" s="31"/>
-      <c r="O33" s="11"/>
-      <c r="P33" s="13"/>
-      <c r="Q33" s="13"/>
-      <c r="R33" s="13"/>
-      <c r="S33" s="13"/>
-    </row>
-    <row r="34" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="L33" s="20"/>
+      <c r="M33" s="23"/>
+      <c r="N33" s="23"/>
+    </row>
+    <row r="34" spans="1:19" ht="18" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
       <c r="H34" s="10"/>
       <c r="I34" s="21"/>
-      <c r="J34" s="22"/>
+      <c r="J34" s="35"/>
       <c r="K34" s="23"/>
-      <c r="L34" s="30"/>
-      <c r="M34" s="31"/>
-      <c r="N34" s="31"/>
-      <c r="O34" s="11"/>
-      <c r="P34" s="13"/>
-      <c r="Q34" s="13"/>
-      <c r="R34" s="13"/>
-      <c r="S34" s="13"/>
-    </row>
-    <row r="35" spans="1:19" s="12" customFormat="1" ht="110" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L34" s="20"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="23"/>
+    </row>
+    <row r="35" spans="1:19" ht="18" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
       <c r="B35" s="7"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
       <c r="H35" s="10"/>
       <c r="I35" s="21"/>
-      <c r="J35" s="22"/>
+      <c r="J35" s="35"/>
       <c r="K35" s="23"/>
-      <c r="L35" s="30"/>
-      <c r="M35" s="31"/>
-      <c r="N35" s="31"/>
-      <c r="O35" s="11"/>
-      <c r="P35" s="13"/>
-      <c r="Q35" s="13"/>
-      <c r="R35" s="13"/>
-      <c r="S35" s="13"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="23"/>
+      <c r="N35" s="23"/>
     </row>
     <row r="36" spans="1:19" ht="18" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
@@ -2357,7 +2504,7 @@
       <c r="M36" s="23"/>
       <c r="N36" s="23"/>
     </row>
-    <row r="37" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" ht="167" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
       <c r="B37" s="7"/>
       <c r="C37" s="24"/>
@@ -2370,10 +2517,10 @@
       <c r="J37" s="35"/>
       <c r="K37" s="23"/>
       <c r="L37" s="20"/>
-      <c r="M37" s="23"/>
-      <c r="N37" s="23"/>
-    </row>
-    <row r="38" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="M37" s="27"/>
+      <c r="N37" s="27"/>
+    </row>
+    <row r="38" spans="1:19" ht="207.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
       <c r="C38" s="24"/>
@@ -2405,7 +2552,7 @@
       <c r="M39" s="23"/>
       <c r="N39" s="23"/>
     </row>
-    <row r="40" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
       <c r="C40" s="24"/>
@@ -2420,8 +2567,13 @@
       <c r="L40" s="20"/>
       <c r="M40" s="23"/>
       <c r="N40" s="23"/>
-    </row>
-    <row r="41" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="O40" s="11"/>
+      <c r="P40" s="13"/>
+      <c r="Q40" s="13"/>
+      <c r="R40" s="13"/>
+      <c r="S40" s="13"/>
+    </row>
+    <row r="41" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
       <c r="C41" s="24"/>
@@ -2436,8 +2588,13 @@
       <c r="L41" s="20"/>
       <c r="M41" s="23"/>
       <c r="N41" s="23"/>
-    </row>
-    <row r="42" spans="1:19" ht="167" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O41" s="11"/>
+      <c r="P41" s="13"/>
+      <c r="Q41" s="13"/>
+      <c r="R41" s="13"/>
+      <c r="S41" s="13"/>
+    </row>
+    <row r="42" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
       <c r="C42" s="24"/>
@@ -2452,8 +2609,13 @@
       <c r="L42" s="20"/>
       <c r="M42" s="27"/>
       <c r="N42" s="27"/>
-    </row>
-    <row r="43" spans="1:19" ht="207.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O42" s="11"/>
+      <c r="P42" s="13"/>
+      <c r="Q42" s="13"/>
+      <c r="R42" s="13"/>
+      <c r="S42" s="13"/>
+    </row>
+    <row r="43" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
       <c r="C43" s="24"/>
@@ -2466,8 +2628,13 @@
       <c r="J43" s="35"/>
       <c r="K43" s="23"/>
       <c r="L43" s="20"/>
-      <c r="M43" s="23"/>
-      <c r="N43" s="23"/>
+      <c r="M43" s="27"/>
+      <c r="N43" s="27"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="13"/>
+      <c r="Q43" s="13"/>
+      <c r="R43" s="13"/>
+      <c r="S43" s="13"/>
     </row>
     <row r="44" spans="1:19" ht="18" x14ac:dyDescent="0.2">
       <c r="A44" s="6"/>
@@ -2482,10 +2649,10 @@
       <c r="J44" s="35"/>
       <c r="K44" s="23"/>
       <c r="L44" s="20"/>
-      <c r="M44" s="23"/>
-      <c r="N44" s="23"/>
-    </row>
-    <row r="45" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="M44" s="27"/>
+      <c r="N44" s="27"/>
+    </row>
+    <row r="45" spans="1:19" ht="18" x14ac:dyDescent="0.2">
       <c r="A45" s="6"/>
       <c r="B45" s="7"/>
       <c r="C45" s="24"/>
@@ -2498,15 +2665,10 @@
       <c r="J45" s="35"/>
       <c r="K45" s="23"/>
       <c r="L45" s="20"/>
-      <c r="M45" s="23"/>
-      <c r="N45" s="23"/>
-      <c r="O45" s="11"/>
-      <c r="P45" s="13"/>
-      <c r="Q45" s="13"/>
-      <c r="R45" s="13"/>
-      <c r="S45" s="13"/>
-    </row>
-    <row r="46" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="M45" s="31"/>
+      <c r="N45" s="31"/>
+    </row>
+    <row r="46" spans="1:19" ht="18" x14ac:dyDescent="0.2">
       <c r="A46" s="6"/>
       <c r="B46" s="7"/>
       <c r="C46" s="24"/>
@@ -2519,60 +2681,45 @@
       <c r="J46" s="35"/>
       <c r="K46" s="23"/>
       <c r="L46" s="20"/>
-      <c r="M46" s="23"/>
-      <c r="N46" s="23"/>
-      <c r="O46" s="11"/>
-      <c r="P46" s="13"/>
-      <c r="Q46" s="13"/>
-      <c r="R46" s="13"/>
-      <c r="S46" s="13"/>
-    </row>
-    <row r="47" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="M46" s="31"/>
+      <c r="N46" s="31"/>
+    </row>
+    <row r="47" spans="1:19" ht="114.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="6"/>
       <c r="B47" s="7"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="19"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="28"/>
       <c r="H47" s="10"/>
       <c r="I47" s="21"/>
       <c r="J47" s="35"/>
       <c r="K47" s="23"/>
-      <c r="L47" s="20"/>
-      <c r="M47" s="27"/>
-      <c r="N47" s="27"/>
-      <c r="O47" s="11"/>
-      <c r="P47" s="13"/>
-      <c r="Q47" s="13"/>
-      <c r="R47" s="13"/>
-      <c r="S47" s="13"/>
-    </row>
-    <row r="48" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="L47" s="30"/>
+      <c r="M47" s="31"/>
+      <c r="N47" s="31"/>
+    </row>
+    <row r="48" spans="1:19" ht="119" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6"/>
       <c r="B48" s="7"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="19"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="28"/>
       <c r="H48" s="10"/>
       <c r="I48" s="21"/>
       <c r="J48" s="35"/>
       <c r="K48" s="23"/>
-      <c r="L48" s="20"/>
-      <c r="M48" s="27"/>
-      <c r="N48" s="27"/>
-      <c r="O48" s="11"/>
-      <c r="P48" s="13"/>
-      <c r="Q48" s="13"/>
-      <c r="R48" s="13"/>
-      <c r="S48" s="13"/>
-    </row>
-    <row r="49" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="L48" s="30"/>
+      <c r="M48" s="31"/>
+      <c r="N48" s="31"/>
+    </row>
+    <row r="49" spans="1:19" ht="169.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="6"/>
       <c r="B49" s="7"/>
-      <c r="C49" s="24"/>
+      <c r="C49" s="36"/>
       <c r="D49" s="19"/>
       <c r="E49" s="19"/>
       <c r="F49" s="19"/>
@@ -2582,10 +2729,10 @@
       <c r="J49" s="35"/>
       <c r="K49" s="23"/>
       <c r="L49" s="20"/>
-      <c r="M49" s="27"/>
-      <c r="N49" s="27"/>
-    </row>
-    <row r="50" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="M49" s="23"/>
+      <c r="N49" s="23"/>
+    </row>
+    <row r="50" spans="1:19" ht="18" x14ac:dyDescent="0.2">
       <c r="A50" s="6"/>
       <c r="B50" s="7"/>
       <c r="C50" s="24"/>
@@ -2598,26 +2745,26 @@
       <c r="J50" s="35"/>
       <c r="K50" s="23"/>
       <c r="L50" s="20"/>
-      <c r="M50" s="31"/>
-      <c r="N50" s="31"/>
-    </row>
-    <row r="51" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="M50" s="23"/>
+      <c r="N50" s="23"/>
+    </row>
+    <row r="51" spans="1:19" ht="18" x14ac:dyDescent="0.2">
       <c r="A51" s="6"/>
       <c r="B51" s="7"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="19"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="28"/>
+      <c r="G51" s="28"/>
       <c r="H51" s="10"/>
       <c r="I51" s="21"/>
       <c r="J51" s="35"/>
       <c r="K51" s="23"/>
       <c r="L51" s="20"/>
-      <c r="M51" s="31"/>
-      <c r="N51" s="31"/>
-    </row>
-    <row r="52" spans="1:14" ht="114.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M51" s="23"/>
+      <c r="N51" s="23"/>
+    </row>
+    <row r="52" spans="1:19" ht="18" x14ac:dyDescent="0.2">
       <c r="A52" s="6"/>
       <c r="B52" s="7"/>
       <c r="C52" s="28"/>
@@ -2629,11 +2776,11 @@
       <c r="I52" s="21"/>
       <c r="J52" s="35"/>
       <c r="K52" s="23"/>
-      <c r="L52" s="30"/>
-      <c r="M52" s="31"/>
-      <c r="N52" s="31"/>
-    </row>
-    <row r="53" spans="1:14" ht="119" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L52" s="20"/>
+      <c r="M52" s="23"/>
+      <c r="N52" s="23"/>
+    </row>
+    <row r="53" spans="1:19" ht="18" x14ac:dyDescent="0.2">
       <c r="A53" s="6"/>
       <c r="B53" s="7"/>
       <c r="C53" s="28"/>
@@ -2645,18 +2792,18 @@
       <c r="I53" s="21"/>
       <c r="J53" s="35"/>
       <c r="K53" s="23"/>
-      <c r="L53" s="30"/>
-      <c r="M53" s="31"/>
-      <c r="N53" s="31"/>
-    </row>
-    <row r="54" spans="1:14" ht="169.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L53" s="20"/>
+      <c r="M53" s="23"/>
+      <c r="N53" s="23"/>
+    </row>
+    <row r="54" spans="1:19" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="6"/>
       <c r="B54" s="7"/>
-      <c r="C54" s="36"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="19"/>
+      <c r="C54" s="28"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="28"/>
       <c r="H54" s="10"/>
       <c r="I54" s="21"/>
       <c r="J54" s="35"/>
@@ -2665,7 +2812,7 @@
       <c r="M54" s="23"/>
       <c r="N54" s="23"/>
     </row>
-    <row r="55" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:19" ht="18" x14ac:dyDescent="0.2">
       <c r="A55" s="6"/>
       <c r="B55" s="7"/>
       <c r="C55" s="24"/>
@@ -2681,14 +2828,14 @@
       <c r="M55" s="23"/>
       <c r="N55" s="23"/>
     </row>
-    <row r="56" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:19" ht="116.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="6"/>
       <c r="B56" s="7"/>
-      <c r="C56" s="28"/>
-      <c r="D56" s="29"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="28"/>
-      <c r="G56" s="28"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="19"/>
       <c r="H56" s="10"/>
       <c r="I56" s="21"/>
       <c r="J56" s="35"/>
@@ -2697,14 +2844,14 @@
       <c r="M56" s="23"/>
       <c r="N56" s="23"/>
     </row>
-    <row r="57" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:19" ht="18" x14ac:dyDescent="0.2">
       <c r="A57" s="6"/>
       <c r="B57" s="7"/>
-      <c r="C57" s="28"/>
-      <c r="D57" s="29"/>
-      <c r="E57" s="28"/>
-      <c r="F57" s="28"/>
-      <c r="G57" s="28"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="19"/>
       <c r="H57" s="10"/>
       <c r="I57" s="21"/>
       <c r="J57" s="35"/>
@@ -2713,14 +2860,14 @@
       <c r="M57" s="23"/>
       <c r="N57" s="23"/>
     </row>
-    <row r="58" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:19" ht="18" x14ac:dyDescent="0.2">
       <c r="A58" s="6"/>
       <c r="B58" s="7"/>
-      <c r="C58" s="28"/>
-      <c r="D58" s="29"/>
-      <c r="E58" s="28"/>
-      <c r="F58" s="28"/>
-      <c r="G58" s="28"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="19"/>
       <c r="H58" s="10"/>
       <c r="I58" s="21"/>
       <c r="J58" s="35"/>
@@ -2729,14 +2876,14 @@
       <c r="M58" s="23"/>
       <c r="N58" s="23"/>
     </row>
-    <row r="59" spans="1:14" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:19" ht="18" x14ac:dyDescent="0.2">
       <c r="A59" s="6"/>
       <c r="B59" s="7"/>
-      <c r="C59" s="28"/>
-      <c r="D59" s="29"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="28"/>
-      <c r="G59" s="28"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="19"/>
       <c r="H59" s="10"/>
       <c r="I59" s="21"/>
       <c r="J59" s="35"/>
@@ -2745,7 +2892,7 @@
       <c r="M59" s="23"/>
       <c r="N59" s="23"/>
     </row>
-    <row r="60" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:19" ht="117.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="6"/>
       <c r="B60" s="7"/>
       <c r="C60" s="24"/>
@@ -2761,7 +2908,7 @@
       <c r="M60" s="23"/>
       <c r="N60" s="23"/>
     </row>
-    <row r="61" spans="1:14" ht="116.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:19" ht="18" x14ac:dyDescent="0.2">
       <c r="A61" s="6"/>
       <c r="B61" s="7"/>
       <c r="C61" s="24"/>
@@ -2777,7 +2924,7 @@
       <c r="M61" s="23"/>
       <c r="N61" s="23"/>
     </row>
-    <row r="62" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A62" s="6"/>
       <c r="B62" s="7"/>
       <c r="C62" s="24"/>
@@ -2792,8 +2939,13 @@
       <c r="L62" s="20"/>
       <c r="M62" s="23"/>
       <c r="N62" s="23"/>
-    </row>
-    <row r="63" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="O62" s="11"/>
+      <c r="P62" s="13"/>
+      <c r="Q62" s="13"/>
+      <c r="R62" s="13"/>
+      <c r="S62" s="13"/>
+    </row>
+    <row r="63" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A63" s="6"/>
       <c r="B63" s="7"/>
       <c r="C63" s="24"/>
@@ -2808,8 +2960,13 @@
       <c r="L63" s="20"/>
       <c r="M63" s="23"/>
       <c r="N63" s="23"/>
-    </row>
-    <row r="64" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="O63" s="11"/>
+      <c r="P63" s="13"/>
+      <c r="Q63" s="13"/>
+      <c r="R63" s="13"/>
+      <c r="S63" s="13"/>
+    </row>
+    <row r="64" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A64" s="6"/>
       <c r="B64" s="7"/>
       <c r="C64" s="24"/>
@@ -2824,8 +2981,13 @@
       <c r="L64" s="20"/>
       <c r="M64" s="23"/>
       <c r="N64" s="23"/>
-    </row>
-    <row r="65" spans="1:19" ht="117.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O64" s="11"/>
+      <c r="P64" s="13"/>
+      <c r="Q64" s="13"/>
+      <c r="R64" s="13"/>
+      <c r="S64" s="13"/>
+    </row>
+    <row r="65" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A65" s="6"/>
       <c r="B65" s="7"/>
       <c r="C65" s="24"/>
@@ -2836,12 +2998,17 @@
       <c r="H65" s="10"/>
       <c r="I65" s="21"/>
       <c r="J65" s="35"/>
-      <c r="K65" s="23"/>
+      <c r="K65" s="27"/>
       <c r="L65" s="20"/>
       <c r="M65" s="23"/>
       <c r="N65" s="23"/>
-    </row>
-    <row r="66" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="O65" s="11"/>
+      <c r="P65" s="13"/>
+      <c r="Q65" s="13"/>
+      <c r="R65" s="13"/>
+      <c r="S65" s="13"/>
+    </row>
+    <row r="66" spans="1:19" s="12" customFormat="1" ht="125" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="6"/>
       <c r="B66" s="7"/>
       <c r="C66" s="24"/>
@@ -2856,8 +3023,13 @@
       <c r="L66" s="20"/>
       <c r="M66" s="23"/>
       <c r="N66" s="23"/>
-    </row>
-    <row r="67" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="O66" s="11"/>
+      <c r="P66" s="13"/>
+      <c r="Q66" s="13"/>
+      <c r="R66" s="13"/>
+      <c r="S66" s="13"/>
+    </row>
+    <row r="67" spans="1:19" s="12" customFormat="1" ht="166.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="6"/>
       <c r="B67" s="7"/>
       <c r="C67" s="24"/>
@@ -2870,15 +3042,15 @@
       <c r="J67" s="35"/>
       <c r="K67" s="23"/>
       <c r="L67" s="20"/>
-      <c r="M67" s="23"/>
-      <c r="N67" s="23"/>
+      <c r="M67" s="31"/>
+      <c r="N67" s="31"/>
       <c r="O67" s="11"/>
       <c r="P67" s="13"/>
       <c r="Q67" s="13"/>
       <c r="R67" s="13"/>
       <c r="S67" s="13"/>
     </row>
-    <row r="68" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:19" s="12" customFormat="1" ht="110.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="6"/>
       <c r="B68" s="7"/>
       <c r="C68" s="24"/>
@@ -2891,60 +3063,60 @@
       <c r="J68" s="35"/>
       <c r="K68" s="23"/>
       <c r="L68" s="20"/>
-      <c r="M68" s="23"/>
-      <c r="N68" s="23"/>
+      <c r="M68" s="31"/>
+      <c r="N68" s="31"/>
       <c r="O68" s="11"/>
       <c r="P68" s="13"/>
       <c r="Q68" s="13"/>
       <c r="R68" s="13"/>
       <c r="S68" s="13"/>
     </row>
-    <row r="69" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:19" s="12" customFormat="1" ht="131" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="6"/>
       <c r="B69" s="7"/>
-      <c r="C69" s="24"/>
-      <c r="D69" s="19"/>
-      <c r="E69" s="19"/>
-      <c r="F69" s="19"/>
-      <c r="G69" s="19"/>
+      <c r="C69" s="28"/>
+      <c r="D69" s="29"/>
+      <c r="E69" s="28"/>
+      <c r="F69" s="28"/>
+      <c r="G69" s="28"/>
       <c r="H69" s="10"/>
       <c r="I69" s="21"/>
       <c r="J69" s="35"/>
       <c r="K69" s="23"/>
-      <c r="L69" s="20"/>
-      <c r="M69" s="23"/>
-      <c r="N69" s="23"/>
+      <c r="L69" s="30"/>
+      <c r="M69" s="31"/>
+      <c r="N69" s="31"/>
       <c r="O69" s="11"/>
       <c r="P69" s="13"/>
       <c r="Q69" s="13"/>
       <c r="R69" s="13"/>
       <c r="S69" s="13"/>
     </row>
-    <row r="70" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:19" s="12" customFormat="1" ht="141" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="6"/>
       <c r="B70" s="7"/>
-      <c r="C70" s="24"/>
-      <c r="D70" s="19"/>
-      <c r="E70" s="19"/>
-      <c r="F70" s="19"/>
-      <c r="G70" s="19"/>
+      <c r="C70" s="28"/>
+      <c r="D70" s="29"/>
+      <c r="E70" s="28"/>
+      <c r="F70" s="28"/>
+      <c r="G70" s="28"/>
       <c r="H70" s="10"/>
       <c r="I70" s="21"/>
       <c r="J70" s="35"/>
-      <c r="K70" s="27"/>
-      <c r="L70" s="20"/>
-      <c r="M70" s="23"/>
-      <c r="N70" s="23"/>
+      <c r="K70" s="23"/>
+      <c r="L70" s="30"/>
+      <c r="M70" s="31"/>
+      <c r="N70" s="31"/>
       <c r="O70" s="11"/>
       <c r="P70" s="13"/>
       <c r="Q70" s="13"/>
       <c r="R70" s="13"/>
       <c r="S70" s="13"/>
     </row>
-    <row r="71" spans="1:19" s="12" customFormat="1" ht="125" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:19" s="12" customFormat="1" ht="118.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="6"/>
       <c r="B71" s="7"/>
-      <c r="C71" s="24"/>
+      <c r="C71" s="28"/>
       <c r="D71" s="19"/>
       <c r="E71" s="19"/>
       <c r="F71" s="19"/>
@@ -2962,10 +3134,10 @@
       <c r="R71" s="13"/>
       <c r="S71" s="13"/>
     </row>
-    <row r="72" spans="1:19" s="12" customFormat="1" ht="166.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:19" s="12" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="6"/>
       <c r="B72" s="7"/>
-      <c r="C72" s="24"/>
+      <c r="C72" s="28"/>
       <c r="D72" s="19"/>
       <c r="E72" s="19"/>
       <c r="F72" s="19"/>
@@ -2975,18 +3147,18 @@
       <c r="J72" s="35"/>
       <c r="K72" s="23"/>
       <c r="L72" s="20"/>
-      <c r="M72" s="31"/>
-      <c r="N72" s="31"/>
+      <c r="M72" s="23"/>
+      <c r="N72" s="23"/>
       <c r="O72" s="11"/>
       <c r="P72" s="13"/>
       <c r="Q72" s="13"/>
       <c r="R72" s="13"/>
       <c r="S72" s="13"/>
     </row>
-    <row r="73" spans="1:19" s="12" customFormat="1" ht="110.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:19" s="12" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="6"/>
       <c r="B73" s="7"/>
-      <c r="C73" s="24"/>
+      <c r="C73" s="28"/>
       <c r="D73" s="19"/>
       <c r="E73" s="19"/>
       <c r="F73" s="19"/>
@@ -2996,141 +3168,141 @@
       <c r="J73" s="35"/>
       <c r="K73" s="23"/>
       <c r="L73" s="20"/>
-      <c r="M73" s="31"/>
-      <c r="N73" s="31"/>
+      <c r="M73" s="23"/>
+      <c r="N73" s="23"/>
       <c r="O73" s="11"/>
       <c r="P73" s="13"/>
       <c r="Q73" s="13"/>
       <c r="R73" s="13"/>
       <c r="S73" s="13"/>
     </row>
-    <row r="74" spans="1:19" s="12" customFormat="1" ht="131" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:19" s="12" customFormat="1" ht="191.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="6"/>
       <c r="B74" s="7"/>
       <c r="C74" s="28"/>
-      <c r="D74" s="29"/>
-      <c r="E74" s="28"/>
-      <c r="F74" s="28"/>
-      <c r="G74" s="28"/>
+      <c r="D74" s="19"/>
+      <c r="E74" s="19"/>
+      <c r="F74" s="19"/>
+      <c r="G74" s="19"/>
       <c r="H74" s="10"/>
       <c r="I74" s="21"/>
       <c r="J74" s="35"/>
       <c r="K74" s="23"/>
-      <c r="L74" s="30"/>
-      <c r="M74" s="31"/>
-      <c r="N74" s="31"/>
+      <c r="L74" s="20"/>
+      <c r="M74" s="23"/>
+      <c r="N74" s="23"/>
       <c r="O74" s="11"/>
       <c r="P74" s="13"/>
       <c r="Q74" s="13"/>
       <c r="R74" s="13"/>
       <c r="S74" s="13"/>
     </row>
-    <row r="75" spans="1:19" s="12" customFormat="1" ht="141" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:19" s="12" customFormat="1" ht="128" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="6"/>
       <c r="B75" s="7"/>
       <c r="C75" s="28"/>
-      <c r="D75" s="29"/>
-      <c r="E75" s="28"/>
-      <c r="F75" s="28"/>
-      <c r="G75" s="28"/>
+      <c r="D75" s="37"/>
+      <c r="E75" s="37"/>
+      <c r="F75" s="37"/>
+      <c r="G75" s="37"/>
       <c r="H75" s="10"/>
       <c r="I75" s="21"/>
       <c r="J75" s="35"/>
-      <c r="K75" s="23"/>
-      <c r="L75" s="30"/>
-      <c r="M75" s="31"/>
-      <c r="N75" s="31"/>
+      <c r="K75" s="38"/>
+      <c r="L75" s="37"/>
+      <c r="M75" s="38"/>
+      <c r="N75" s="38"/>
       <c r="O75" s="11"/>
       <c r="P75" s="13"/>
       <c r="Q75" s="13"/>
       <c r="R75" s="13"/>
       <c r="S75" s="13"/>
     </row>
-    <row r="76" spans="1:19" s="12" customFormat="1" ht="118.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:19" s="12" customFormat="1" ht="96.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="6"/>
       <c r="B76" s="7"/>
       <c r="C76" s="28"/>
-      <c r="D76" s="19"/>
-      <c r="E76" s="19"/>
-      <c r="F76" s="19"/>
-      <c r="G76" s="19"/>
+      <c r="D76" s="37"/>
+      <c r="E76" s="37"/>
+      <c r="F76" s="37"/>
+      <c r="G76" s="37"/>
       <c r="H76" s="10"/>
       <c r="I76" s="21"/>
       <c r="J76" s="35"/>
-      <c r="K76" s="23"/>
-      <c r="L76" s="20"/>
-      <c r="M76" s="23"/>
-      <c r="N76" s="23"/>
+      <c r="K76" s="38"/>
+      <c r="L76" s="37"/>
+      <c r="M76" s="38"/>
+      <c r="N76" s="38"/>
       <c r="O76" s="11"/>
       <c r="P76" s="13"/>
       <c r="Q76" s="13"/>
       <c r="R76" s="13"/>
       <c r="S76" s="13"/>
     </row>
-    <row r="77" spans="1:19" s="12" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:19" s="12" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="6"/>
       <c r="B77" s="7"/>
       <c r="C77" s="28"/>
-      <c r="D77" s="19"/>
-      <c r="E77" s="19"/>
-      <c r="F77" s="19"/>
-      <c r="G77" s="19"/>
+      <c r="D77" s="37"/>
+      <c r="E77" s="37"/>
+      <c r="F77" s="37"/>
+      <c r="G77" s="37"/>
       <c r="H77" s="10"/>
       <c r="I77" s="21"/>
       <c r="J77" s="35"/>
-      <c r="K77" s="23"/>
-      <c r="L77" s="20"/>
-      <c r="M77" s="23"/>
-      <c r="N77" s="23"/>
+      <c r="K77" s="38"/>
+      <c r="L77" s="37"/>
+      <c r="M77" s="38"/>
+      <c r="N77" s="38"/>
       <c r="O77" s="11"/>
       <c r="P77" s="13"/>
       <c r="Q77" s="13"/>
       <c r="R77" s="13"/>
       <c r="S77" s="13"/>
     </row>
-    <row r="78" spans="1:19" s="12" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:19" s="12" customFormat="1" ht="156.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="6"/>
       <c r="B78" s="7"/>
       <c r="C78" s="28"/>
-      <c r="D78" s="19"/>
-      <c r="E78" s="19"/>
-      <c r="F78" s="19"/>
-      <c r="G78" s="19"/>
+      <c r="D78" s="37"/>
+      <c r="E78" s="37"/>
+      <c r="F78" s="37"/>
+      <c r="G78" s="37"/>
       <c r="H78" s="10"/>
       <c r="I78" s="21"/>
       <c r="J78" s="35"/>
-      <c r="K78" s="23"/>
-      <c r="L78" s="20"/>
-      <c r="M78" s="23"/>
-      <c r="N78" s="23"/>
+      <c r="K78" s="38"/>
+      <c r="L78" s="37"/>
+      <c r="M78" s="38"/>
+      <c r="N78" s="38"/>
       <c r="O78" s="11"/>
       <c r="P78" s="13"/>
       <c r="Q78" s="13"/>
       <c r="R78" s="13"/>
       <c r="S78" s="13"/>
     </row>
-    <row r="79" spans="1:19" s="12" customFormat="1" ht="191.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:19" s="12" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="6"/>
       <c r="B79" s="7"/>
       <c r="C79" s="28"/>
-      <c r="D79" s="19"/>
-      <c r="E79" s="19"/>
-      <c r="F79" s="19"/>
-      <c r="G79" s="19"/>
+      <c r="D79" s="37"/>
+      <c r="E79" s="37"/>
+      <c r="F79" s="37"/>
+      <c r="G79" s="37"/>
       <c r="H79" s="10"/>
       <c r="I79" s="21"/>
       <c r="J79" s="35"/>
-      <c r="K79" s="23"/>
-      <c r="L79" s="20"/>
-      <c r="M79" s="23"/>
-      <c r="N79" s="23"/>
+      <c r="K79" s="38"/>
+      <c r="L79" s="37"/>
+      <c r="M79" s="38"/>
+      <c r="N79" s="38"/>
       <c r="O79" s="11"/>
       <c r="P79" s="13"/>
       <c r="Q79" s="13"/>
       <c r="R79" s="13"/>
       <c r="S79" s="13"/>
     </row>
-    <row r="80" spans="1:19" s="12" customFormat="1" ht="128" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A80" s="6"/>
       <c r="B80" s="7"/>
       <c r="C80" s="28"/>
@@ -3151,7 +3323,7 @@
       <c r="R80" s="13"/>
       <c r="S80" s="13"/>
     </row>
-    <row r="81" spans="1:19" s="12" customFormat="1" ht="96.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:19" s="12" customFormat="1" ht="161.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="6"/>
       <c r="B81" s="7"/>
       <c r="C81" s="28"/>
@@ -3172,7 +3344,7 @@
       <c r="R81" s="13"/>
       <c r="S81" s="13"/>
     </row>
-    <row r="82" spans="1:19" s="12" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:19" s="12" customFormat="1" ht="154.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="6"/>
       <c r="B82" s="7"/>
       <c r="C82" s="28"/>
@@ -3193,7 +3365,7 @@
       <c r="R82" s="13"/>
       <c r="S82" s="13"/>
     </row>
-    <row r="83" spans="1:19" s="12" customFormat="1" ht="156.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A83" s="6"/>
       <c r="B83" s="7"/>
       <c r="C83" s="28"/>
@@ -3214,7 +3386,7 @@
       <c r="R83" s="13"/>
       <c r="S83" s="13"/>
     </row>
-    <row r="84" spans="1:19" s="12" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A84" s="6"/>
       <c r="B84" s="7"/>
       <c r="C84" s="28"/>
@@ -3256,7 +3428,7 @@
       <c r="R85" s="13"/>
       <c r="S85" s="13"/>
     </row>
-    <row r="86" spans="1:19" s="12" customFormat="1" ht="161.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A86" s="6"/>
       <c r="B86" s="7"/>
       <c r="C86" s="28"/>
@@ -3277,21 +3449,21 @@
       <c r="R86" s="13"/>
       <c r="S86" s="13"/>
     </row>
-    <row r="87" spans="1:19" s="12" customFormat="1" ht="154.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A87" s="6"/>
       <c r="B87" s="7"/>
       <c r="C87" s="28"/>
-      <c r="D87" s="37"/>
-      <c r="E87" s="37"/>
-      <c r="F87" s="37"/>
-      <c r="G87" s="37"/>
+      <c r="D87" s="19"/>
+      <c r="E87" s="19"/>
+      <c r="F87" s="19"/>
+      <c r="G87" s="19"/>
       <c r="H87" s="10"/>
       <c r="I87" s="21"/>
       <c r="J87" s="35"/>
-      <c r="K87" s="38"/>
-      <c r="L87" s="37"/>
-      <c r="M87" s="38"/>
-      <c r="N87" s="38"/>
+      <c r="K87" s="23"/>
+      <c r="L87" s="20"/>
+      <c r="M87" s="23"/>
+      <c r="N87" s="23"/>
       <c r="O87" s="11"/>
       <c r="P87" s="13"/>
       <c r="Q87" s="13"/>
@@ -3301,18 +3473,18 @@
     <row r="88" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A88" s="6"/>
       <c r="B88" s="7"/>
-      <c r="C88" s="28"/>
-      <c r="D88" s="37"/>
-      <c r="E88" s="37"/>
-      <c r="F88" s="37"/>
-      <c r="G88" s="37"/>
+      <c r="C88" s="24"/>
+      <c r="D88" s="19"/>
+      <c r="E88" s="19"/>
+      <c r="F88" s="19"/>
+      <c r="G88" s="19"/>
       <c r="H88" s="10"/>
       <c r="I88" s="21"/>
       <c r="J88" s="35"/>
-      <c r="K88" s="38"/>
-      <c r="L88" s="37"/>
-      <c r="M88" s="38"/>
-      <c r="N88" s="38"/>
+      <c r="K88" s="23"/>
+      <c r="L88" s="20"/>
+      <c r="M88" s="23"/>
+      <c r="N88" s="23"/>
       <c r="O88" s="11"/>
       <c r="P88" s="13"/>
       <c r="Q88" s="13"/>
@@ -3322,18 +3494,18 @@
     <row r="89" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A89" s="6"/>
       <c r="B89" s="7"/>
-      <c r="C89" s="28"/>
-      <c r="D89" s="37"/>
-      <c r="E89" s="37"/>
-      <c r="F89" s="37"/>
-      <c r="G89" s="37"/>
+      <c r="C89" s="24"/>
+      <c r="D89" s="19"/>
+      <c r="E89" s="19"/>
+      <c r="F89" s="19"/>
+      <c r="G89" s="19"/>
       <c r="H89" s="10"/>
       <c r="I89" s="21"/>
       <c r="J89" s="35"/>
-      <c r="K89" s="38"/>
-      <c r="L89" s="37"/>
-      <c r="M89" s="38"/>
-      <c r="N89" s="38"/>
+      <c r="K89" s="23"/>
+      <c r="L89" s="20"/>
+      <c r="M89" s="27"/>
+      <c r="N89" s="27"/>
       <c r="O89" s="11"/>
       <c r="P89" s="13"/>
       <c r="Q89" s="13"/>
@@ -3343,39 +3515,39 @@
     <row r="90" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A90" s="6"/>
       <c r="B90" s="7"/>
-      <c r="C90" s="28"/>
-      <c r="D90" s="37"/>
-      <c r="E90" s="37"/>
-      <c r="F90" s="37"/>
-      <c r="G90" s="37"/>
+      <c r="C90" s="24"/>
+      <c r="D90" s="19"/>
+      <c r="E90" s="19"/>
+      <c r="F90" s="19"/>
+      <c r="G90" s="19"/>
       <c r="H90" s="10"/>
       <c r="I90" s="21"/>
       <c r="J90" s="35"/>
-      <c r="K90" s="38"/>
-      <c r="L90" s="37"/>
-      <c r="M90" s="38"/>
-      <c r="N90" s="38"/>
+      <c r="K90" s="23"/>
+      <c r="L90" s="20"/>
+      <c r="M90" s="27"/>
+      <c r="N90" s="27"/>
       <c r="O90" s="11"/>
       <c r="P90" s="13"/>
       <c r="Q90" s="13"/>
       <c r="R90" s="13"/>
       <c r="S90" s="13"/>
     </row>
-    <row r="91" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:19" s="12" customFormat="1" ht="204" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="6"/>
       <c r="B91" s="7"/>
-      <c r="C91" s="28"/>
-      <c r="D91" s="37"/>
-      <c r="E91" s="37"/>
-      <c r="F91" s="37"/>
-      <c r="G91" s="37"/>
+      <c r="C91" s="24"/>
+      <c r="D91" s="19"/>
+      <c r="E91" s="19"/>
+      <c r="F91" s="19"/>
+      <c r="G91" s="19"/>
       <c r="H91" s="10"/>
       <c r="I91" s="21"/>
       <c r="J91" s="35"/>
-      <c r="K91" s="38"/>
-      <c r="L91" s="37"/>
-      <c r="M91" s="38"/>
-      <c r="N91" s="38"/>
+      <c r="K91" s="23"/>
+      <c r="L91" s="20"/>
+      <c r="M91" s="27"/>
+      <c r="N91" s="27"/>
       <c r="O91" s="11"/>
       <c r="P91" s="13"/>
       <c r="Q91" s="13"/>
@@ -3385,7 +3557,7 @@
     <row r="92" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A92" s="6"/>
       <c r="B92" s="7"/>
-      <c r="C92" s="28"/>
+      <c r="C92" s="24"/>
       <c r="D92" s="19"/>
       <c r="E92" s="19"/>
       <c r="F92" s="19"/>
@@ -3395,8 +3567,8 @@
       <c r="J92" s="35"/>
       <c r="K92" s="23"/>
       <c r="L92" s="20"/>
-      <c r="M92" s="23"/>
-      <c r="N92" s="23"/>
+      <c r="M92" s="27"/>
+      <c r="N92" s="27"/>
       <c r="O92" s="11"/>
       <c r="P92" s="13"/>
       <c r="Q92" s="13"/>
@@ -3424,7 +3596,7 @@
       <c r="R93" s="13"/>
       <c r="S93" s="13"/>
     </row>
-    <row r="94" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:19" ht="18" x14ac:dyDescent="0.2">
       <c r="A94" s="6"/>
       <c r="B94" s="7"/>
       <c r="C94" s="24"/>
@@ -3437,15 +3609,10 @@
       <c r="J94" s="35"/>
       <c r="K94" s="23"/>
       <c r="L94" s="20"/>
-      <c r="M94" s="27"/>
-      <c r="N94" s="27"/>
-      <c r="O94" s="11"/>
-      <c r="P94" s="13"/>
-      <c r="Q94" s="13"/>
-      <c r="R94" s="13"/>
-      <c r="S94" s="13"/>
-    </row>
-    <row r="95" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="M94" s="23"/>
+      <c r="N94" s="23"/>
+    </row>
+    <row r="95" spans="1:19" ht="158.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="6"/>
       <c r="B95" s="7"/>
       <c r="C95" s="24"/>
@@ -3458,15 +3625,10 @@
       <c r="J95" s="35"/>
       <c r="K95" s="23"/>
       <c r="L95" s="20"/>
-      <c r="M95" s="27"/>
-      <c r="N95" s="27"/>
-      <c r="O95" s="11"/>
-      <c r="P95" s="13"/>
-      <c r="Q95" s="13"/>
-      <c r="R95" s="13"/>
-      <c r="S95" s="13"/>
-    </row>
-    <row r="96" spans="1:19" s="12" customFormat="1" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M95" s="23"/>
+      <c r="N95" s="23"/>
+    </row>
+    <row r="96" spans="1:19" ht="18" x14ac:dyDescent="0.2">
       <c r="A96" s="6"/>
       <c r="B96" s="7"/>
       <c r="C96" s="24"/>
@@ -3481,13 +3643,8 @@
       <c r="L96" s="20"/>
       <c r="M96" s="27"/>
       <c r="N96" s="27"/>
-      <c r="O96" s="11"/>
-      <c r="P96" s="13"/>
-      <c r="Q96" s="13"/>
-      <c r="R96" s="13"/>
-      <c r="S96" s="13"/>
-    </row>
-    <row r="97" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="1:14" ht="91.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="6"/>
       <c r="B97" s="7"/>
       <c r="C97" s="24"/>
@@ -3502,13 +3659,8 @@
       <c r="L97" s="20"/>
       <c r="M97" s="27"/>
       <c r="N97" s="27"/>
-      <c r="O97" s="11"/>
-      <c r="P97" s="13"/>
-      <c r="Q97" s="13"/>
-      <c r="R97" s="13"/>
-      <c r="S97" s="13"/>
-    </row>
-    <row r="98" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="1:14" ht="165" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="6"/>
       <c r="B98" s="7"/>
       <c r="C98" s="24"/>
@@ -3520,16 +3672,11 @@
       <c r="I98" s="21"/>
       <c r="J98" s="35"/>
       <c r="K98" s="23"/>
-      <c r="L98" s="20"/>
-      <c r="M98" s="23"/>
-      <c r="N98" s="23"/>
-      <c r="O98" s="11"/>
-      <c r="P98" s="13"/>
-      <c r="Q98" s="13"/>
-      <c r="R98" s="13"/>
-      <c r="S98" s="13"/>
-    </row>
-    <row r="99" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="L98" s="37"/>
+      <c r="M98" s="38"/>
+      <c r="N98" s="38"/>
+    </row>
+    <row r="99" spans="1:14" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="6"/>
       <c r="B99" s="7"/>
       <c r="C99" s="24"/>
@@ -3542,10 +3689,10 @@
       <c r="J99" s="35"/>
       <c r="K99" s="23"/>
       <c r="L99" s="20"/>
-      <c r="M99" s="23"/>
-      <c r="N99" s="23"/>
-    </row>
-    <row r="100" spans="1:19" ht="158.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M99" s="31"/>
+      <c r="N99" s="31"/>
+    </row>
+    <row r="100" spans="1:14" ht="101" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="6"/>
       <c r="B100" s="7"/>
       <c r="C100" s="24"/>
@@ -3558,45 +3705,45 @@
       <c r="J100" s="35"/>
       <c r="K100" s="23"/>
       <c r="L100" s="20"/>
-      <c r="M100" s="23"/>
-      <c r="N100" s="23"/>
-    </row>
-    <row r="101" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="M100" s="31"/>
+      <c r="N100" s="31"/>
+    </row>
+    <row r="101" spans="1:14" ht="88" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="6"/>
       <c r="B101" s="7"/>
-      <c r="C101" s="24"/>
-      <c r="D101" s="19"/>
-      <c r="E101" s="19"/>
-      <c r="F101" s="19"/>
-      <c r="G101" s="19"/>
+      <c r="C101" s="28"/>
+      <c r="D101" s="29"/>
+      <c r="E101" s="28"/>
+      <c r="F101" s="28"/>
+      <c r="G101" s="28"/>
       <c r="H101" s="10"/>
       <c r="I101" s="21"/>
       <c r="J101" s="35"/>
       <c r="K101" s="23"/>
-      <c r="L101" s="20"/>
-      <c r="M101" s="27"/>
-      <c r="N101" s="27"/>
-    </row>
-    <row r="102" spans="1:19" ht="91.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L101" s="30"/>
+      <c r="M101" s="31"/>
+      <c r="N101" s="31"/>
+    </row>
+    <row r="102" spans="1:14" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="6"/>
       <c r="B102" s="7"/>
-      <c r="C102" s="24"/>
-      <c r="D102" s="19"/>
-      <c r="E102" s="19"/>
-      <c r="F102" s="19"/>
-      <c r="G102" s="19"/>
+      <c r="C102" s="28"/>
+      <c r="D102" s="29"/>
+      <c r="E102" s="28"/>
+      <c r="F102" s="28"/>
+      <c r="G102" s="28"/>
       <c r="H102" s="10"/>
       <c r="I102" s="21"/>
       <c r="J102" s="35"/>
       <c r="K102" s="23"/>
-      <c r="L102" s="20"/>
-      <c r="M102" s="27"/>
-      <c r="N102" s="27"/>
-    </row>
-    <row r="103" spans="1:19" ht="165" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L102" s="30"/>
+      <c r="M102" s="31"/>
+      <c r="N102" s="31"/>
+    </row>
+    <row r="103" spans="1:14" ht="156" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="6"/>
       <c r="B103" s="7"/>
-      <c r="C103" s="24"/>
+      <c r="C103" s="28"/>
       <c r="D103" s="19"/>
       <c r="E103" s="19"/>
       <c r="F103" s="19"/>
@@ -3605,14 +3752,14 @@
       <c r="I103" s="21"/>
       <c r="J103" s="35"/>
       <c r="K103" s="23"/>
-      <c r="L103" s="37"/>
-      <c r="M103" s="38"/>
-      <c r="N103" s="38"/>
-    </row>
-    <row r="104" spans="1:19" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L103" s="20"/>
+      <c r="M103" s="23"/>
+      <c r="N103" s="23"/>
+    </row>
+    <row r="104" spans="1:14" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="6"/>
       <c r="B104" s="7"/>
-      <c r="C104" s="24"/>
+      <c r="C104" s="28"/>
       <c r="D104" s="19"/>
       <c r="E104" s="19"/>
       <c r="F104" s="19"/>
@@ -3622,13 +3769,13 @@
       <c r="J104" s="35"/>
       <c r="K104" s="23"/>
       <c r="L104" s="20"/>
-      <c r="M104" s="31"/>
-      <c r="N104" s="31"/>
-    </row>
-    <row r="105" spans="1:19" ht="101" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M104" s="23"/>
+      <c r="N104" s="23"/>
+    </row>
+    <row r="105" spans="1:14" ht="79" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="6"/>
       <c r="B105" s="7"/>
-      <c r="C105" s="24"/>
+      <c r="C105" s="28"/>
       <c r="D105" s="19"/>
       <c r="E105" s="19"/>
       <c r="F105" s="19"/>
@@ -3638,42 +3785,42 @@
       <c r="J105" s="35"/>
       <c r="K105" s="23"/>
       <c r="L105" s="20"/>
-      <c r="M105" s="31"/>
-      <c r="N105" s="31"/>
-    </row>
-    <row r="106" spans="1:19" ht="88" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M105" s="23"/>
+      <c r="N105" s="23"/>
+    </row>
+    <row r="106" spans="1:14" ht="102.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="6"/>
       <c r="B106" s="7"/>
       <c r="C106" s="28"/>
-      <c r="D106" s="29"/>
-      <c r="E106" s="28"/>
-      <c r="F106" s="28"/>
-      <c r="G106" s="28"/>
+      <c r="D106" s="19"/>
+      <c r="E106" s="19"/>
+      <c r="F106" s="19"/>
+      <c r="G106" s="19"/>
       <c r="H106" s="10"/>
       <c r="I106" s="21"/>
       <c r="J106" s="35"/>
       <c r="K106" s="23"/>
-      <c r="L106" s="30"/>
-      <c r="M106" s="31"/>
-      <c r="N106" s="31"/>
-    </row>
-    <row r="107" spans="1:19" ht="98" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L106" s="20"/>
+      <c r="M106" s="23"/>
+      <c r="N106" s="23"/>
+    </row>
+    <row r="107" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="6"/>
       <c r="B107" s="7"/>
       <c r="C107" s="28"/>
-      <c r="D107" s="29"/>
-      <c r="E107" s="28"/>
-      <c r="F107" s="28"/>
-      <c r="G107" s="28"/>
+      <c r="D107" s="19"/>
+      <c r="E107" s="19"/>
+      <c r="F107" s="19"/>
+      <c r="G107" s="19"/>
       <c r="H107" s="10"/>
       <c r="I107" s="21"/>
       <c r="J107" s="35"/>
       <c r="K107" s="23"/>
-      <c r="L107" s="30"/>
-      <c r="M107" s="31"/>
-      <c r="N107" s="31"/>
-    </row>
-    <row r="108" spans="1:19" ht="156" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L107" s="20"/>
+      <c r="M107" s="23"/>
+      <c r="N107" s="23"/>
+    </row>
+    <row r="108" spans="1:14" ht="121.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="6"/>
       <c r="B108" s="7"/>
       <c r="C108" s="28"/>
@@ -3689,7 +3836,7 @@
       <c r="M108" s="23"/>
       <c r="N108" s="23"/>
     </row>
-    <row r="109" spans="1:19" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="6"/>
       <c r="B109" s="7"/>
       <c r="C109" s="28"/>
@@ -3705,7 +3852,7 @@
       <c r="M109" s="23"/>
       <c r="N109" s="23"/>
     </row>
-    <row r="110" spans="1:19" ht="79" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:14" ht="56.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="6"/>
       <c r="B110" s="7"/>
       <c r="C110" s="28"/>
@@ -3721,7 +3868,7 @@
       <c r="M110" s="23"/>
       <c r="N110" s="23"/>
     </row>
-    <row r="111" spans="1:19" ht="102.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:14" ht="104" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="6"/>
       <c r="B111" s="7"/>
       <c r="C111" s="28"/>
@@ -3737,7 +3884,7 @@
       <c r="M111" s="23"/>
       <c r="N111" s="23"/>
     </row>
-    <row r="112" spans="1:19" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:14" ht="95.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="6"/>
       <c r="B112" s="7"/>
       <c r="C112" s="28"/>
@@ -3753,7 +3900,7 @@
       <c r="M112" s="23"/>
       <c r="N112" s="23"/>
     </row>
-    <row r="113" spans="1:14" ht="121.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:14" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="6"/>
       <c r="B113" s="7"/>
       <c r="C113" s="28"/>
@@ -3769,7 +3916,7 @@
       <c r="M113" s="23"/>
       <c r="N113" s="23"/>
     </row>
-    <row r="114" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A114" s="6"/>
       <c r="B114" s="7"/>
       <c r="C114" s="28"/>
@@ -3785,7 +3932,7 @@
       <c r="M114" s="23"/>
       <c r="N114" s="23"/>
     </row>
-    <row r="115" spans="1:14" ht="56.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A115" s="6"/>
       <c r="B115" s="7"/>
       <c r="C115" s="28"/>
@@ -3801,7 +3948,7 @@
       <c r="M115" s="23"/>
       <c r="N115" s="23"/>
     </row>
-    <row r="116" spans="1:14" ht="104" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A116" s="6"/>
       <c r="B116" s="7"/>
       <c r="C116" s="28"/>
@@ -3817,7 +3964,7 @@
       <c r="M116" s="23"/>
       <c r="N116" s="23"/>
     </row>
-    <row r="117" spans="1:14" ht="95.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A117" s="6"/>
       <c r="B117" s="7"/>
       <c r="C117" s="28"/>
@@ -3833,7 +3980,7 @@
       <c r="M117" s="23"/>
       <c r="N117" s="23"/>
     </row>
-    <row r="118" spans="1:14" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A118" s="6"/>
       <c r="B118" s="7"/>
       <c r="C118" s="28"/>
@@ -3897,7 +4044,7 @@
       <c r="M121" s="23"/>
       <c r="N121" s="23"/>
     </row>
-    <row r="122" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:14" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="6"/>
       <c r="B122" s="7"/>
       <c r="C122" s="28"/>
@@ -3945,7 +4092,7 @@
       <c r="M124" s="23"/>
       <c r="N124" s="23"/>
     </row>
-    <row r="125" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:14" ht="70.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="6"/>
       <c r="B125" s="7"/>
       <c r="C125" s="28"/>
@@ -3977,14 +4124,14 @@
       <c r="M126" s="23"/>
       <c r="N126" s="23"/>
     </row>
-    <row r="127" spans="1:14" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A127" s="6"/>
       <c r="B127" s="7"/>
       <c r="C127" s="28"/>
-      <c r="D127" s="19"/>
-      <c r="E127" s="19"/>
-      <c r="F127" s="19"/>
-      <c r="G127" s="19"/>
+      <c r="D127" s="37"/>
+      <c r="E127" s="37"/>
+      <c r="F127" s="37"/>
+      <c r="G127" s="37"/>
       <c r="H127" s="10"/>
       <c r="I127" s="21"/>
       <c r="J127" s="35"/>
@@ -3997,10 +4144,10 @@
       <c r="A128" s="6"/>
       <c r="B128" s="7"/>
       <c r="C128" s="28"/>
-      <c r="D128" s="19"/>
-      <c r="E128" s="19"/>
-      <c r="F128" s="19"/>
-      <c r="G128" s="19"/>
+      <c r="D128" s="37"/>
+      <c r="E128" s="37"/>
+      <c r="F128" s="37"/>
+      <c r="G128" s="37"/>
       <c r="H128" s="10"/>
       <c r="I128" s="21"/>
       <c r="J128" s="35"/>
@@ -4013,10 +4160,10 @@
       <c r="A129" s="6"/>
       <c r="B129" s="7"/>
       <c r="C129" s="28"/>
-      <c r="D129" s="19"/>
-      <c r="E129" s="19"/>
-      <c r="F129" s="19"/>
-      <c r="G129" s="19"/>
+      <c r="D129" s="37"/>
+      <c r="E129" s="37"/>
+      <c r="F129" s="37"/>
+      <c r="G129" s="37"/>
       <c r="H129" s="10"/>
       <c r="I129" s="21"/>
       <c r="J129" s="35"/>
@@ -4025,18 +4172,18 @@
       <c r="M129" s="23"/>
       <c r="N129" s="23"/>
     </row>
-    <row r="130" spans="1:19" ht="70.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:19" ht="18" x14ac:dyDescent="0.2">
       <c r="A130" s="6"/>
       <c r="B130" s="7"/>
       <c r="C130" s="28"/>
-      <c r="D130" s="19"/>
-      <c r="E130" s="19"/>
-      <c r="F130" s="19"/>
-      <c r="G130" s="19"/>
+      <c r="D130" s="37"/>
+      <c r="E130" s="37"/>
+      <c r="F130" s="37"/>
+      <c r="G130" s="37"/>
       <c r="H130" s="10"/>
       <c r="I130" s="21"/>
       <c r="J130" s="35"/>
-      <c r="K130" s="23"/>
+      <c r="K130" s="27"/>
       <c r="L130" s="20"/>
       <c r="M130" s="23"/>
       <c r="N130" s="23"/>
@@ -4060,100 +4207,100 @@
     <row r="132" spans="1:19" ht="18" x14ac:dyDescent="0.2">
       <c r="A132" s="6"/>
       <c r="B132" s="7"/>
-      <c r="C132" s="28"/>
-      <c r="D132" s="37"/>
-      <c r="E132" s="37"/>
-      <c r="F132" s="37"/>
-      <c r="G132" s="37"/>
+      <c r="C132" s="24"/>
+      <c r="D132" s="19"/>
+      <c r="E132" s="19"/>
+      <c r="F132" s="19"/>
+      <c r="G132" s="19"/>
       <c r="H132" s="10"/>
       <c r="I132" s="21"/>
       <c r="J132" s="35"/>
       <c r="K132" s="23"/>
       <c r="L132" s="20"/>
-      <c r="M132" s="23"/>
-      <c r="N132" s="23"/>
+      <c r="M132" s="31"/>
+      <c r="N132" s="31"/>
     </row>
     <row r="133" spans="1:19" ht="18" x14ac:dyDescent="0.2">
       <c r="A133" s="6"/>
       <c r="B133" s="7"/>
       <c r="C133" s="28"/>
-      <c r="D133" s="37"/>
-      <c r="E133" s="37"/>
-      <c r="F133" s="37"/>
-      <c r="G133" s="37"/>
+      <c r="D133" s="29"/>
+      <c r="E133" s="28"/>
+      <c r="F133" s="28"/>
+      <c r="G133" s="28"/>
       <c r="H133" s="10"/>
       <c r="I133" s="21"/>
       <c r="J133" s="35"/>
       <c r="K133" s="23"/>
-      <c r="L133" s="20"/>
-      <c r="M133" s="23"/>
-      <c r="N133" s="23"/>
+      <c r="L133" s="30"/>
+      <c r="M133" s="31"/>
+      <c r="N133" s="31"/>
     </row>
     <row r="134" spans="1:19" ht="18" x14ac:dyDescent="0.2">
       <c r="A134" s="6"/>
       <c r="B134" s="7"/>
       <c r="C134" s="28"/>
-      <c r="D134" s="37"/>
-      <c r="E134" s="37"/>
-      <c r="F134" s="37"/>
-      <c r="G134" s="37"/>
+      <c r="D134" s="29"/>
+      <c r="E134" s="28"/>
+      <c r="F134" s="28"/>
+      <c r="G134" s="28"/>
       <c r="H134" s="10"/>
       <c r="I134" s="21"/>
       <c r="J134" s="35"/>
       <c r="K134" s="23"/>
-      <c r="L134" s="20"/>
-      <c r="M134" s="23"/>
-      <c r="N134" s="23"/>
+      <c r="L134" s="30"/>
+      <c r="M134" s="31"/>
+      <c r="N134" s="31"/>
     </row>
     <row r="135" spans="1:19" ht="18" x14ac:dyDescent="0.2">
       <c r="A135" s="6"/>
       <c r="B135" s="7"/>
       <c r="C135" s="28"/>
-      <c r="D135" s="37"/>
-      <c r="E135" s="37"/>
-      <c r="F135" s="37"/>
-      <c r="G135" s="37"/>
+      <c r="D135" s="29"/>
+      <c r="E135" s="28"/>
+      <c r="F135" s="28"/>
+      <c r="G135" s="28"/>
       <c r="H135" s="10"/>
       <c r="I135" s="21"/>
       <c r="J135" s="35"/>
-      <c r="K135" s="27"/>
-      <c r="L135" s="20"/>
-      <c r="M135" s="23"/>
-      <c r="N135" s="23"/>
+      <c r="K135" s="23"/>
+      <c r="L135" s="30"/>
+      <c r="M135" s="31"/>
+      <c r="N135" s="31"/>
     </row>
     <row r="136" spans="1:19" ht="18" x14ac:dyDescent="0.2">
       <c r="A136" s="6"/>
       <c r="B136" s="7"/>
       <c r="C136" s="28"/>
-      <c r="D136" s="19"/>
-      <c r="E136" s="19"/>
-      <c r="F136" s="19"/>
-      <c r="G136" s="19"/>
+      <c r="D136" s="29"/>
+      <c r="E136" s="28"/>
+      <c r="F136" s="28"/>
+      <c r="G136" s="28"/>
       <c r="H136" s="10"/>
       <c r="I136" s="21"/>
       <c r="J136" s="35"/>
       <c r="K136" s="23"/>
-      <c r="L136" s="20"/>
-      <c r="M136" s="23"/>
-      <c r="N136" s="23"/>
+      <c r="L136" s="30"/>
+      <c r="M136" s="31"/>
+      <c r="N136" s="31"/>
     </row>
     <row r="137" spans="1:19" ht="18" x14ac:dyDescent="0.2">
       <c r="A137" s="6"/>
       <c r="B137" s="7"/>
-      <c r="C137" s="24"/>
-      <c r="D137" s="19"/>
-      <c r="E137" s="19"/>
-      <c r="F137" s="19"/>
-      <c r="G137" s="19"/>
+      <c r="C137" s="28"/>
+      <c r="D137" s="29"/>
+      <c r="E137" s="28"/>
+      <c r="F137" s="28"/>
+      <c r="G137" s="28"/>
       <c r="H137" s="10"/>
       <c r="I137" s="21"/>
       <c r="J137" s="35"/>
       <c r="K137" s="23"/>
-      <c r="L137" s="20"/>
+      <c r="L137" s="30"/>
       <c r="M137" s="31"/>
       <c r="N137" s="31"/>
     </row>
-    <row r="138" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:19" ht="88" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="6"/>
       <c r="B138" s="7"/>
       <c r="C138" s="28"/>
@@ -4169,7 +4316,7 @@
       <c r="M138" s="31"/>
       <c r="N138" s="31"/>
     </row>
-    <row r="139" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A139" s="6"/>
       <c r="B139" s="7"/>
       <c r="C139" s="28"/>
@@ -4184,8 +4331,13 @@
       <c r="L139" s="30"/>
       <c r="M139" s="31"/>
       <c r="N139" s="31"/>
-    </row>
-    <row r="140" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="O139" s="11"/>
+      <c r="P139" s="13"/>
+      <c r="Q139" s="13"/>
+      <c r="R139" s="13"/>
+      <c r="S139" s="13"/>
+    </row>
+    <row r="140" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A140" s="6"/>
       <c r="B140" s="7"/>
       <c r="C140" s="28"/>
@@ -4200,8 +4352,13 @@
       <c r="L140" s="30"/>
       <c r="M140" s="31"/>
       <c r="N140" s="31"/>
-    </row>
-    <row r="141" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="O140" s="11"/>
+      <c r="P140" s="13"/>
+      <c r="Q140" s="13"/>
+      <c r="R140" s="13"/>
+      <c r="S140" s="13"/>
+    </row>
+    <row r="141" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A141" s="6"/>
       <c r="B141" s="7"/>
       <c r="C141" s="28"/>
@@ -4216,52 +4373,67 @@
       <c r="L141" s="30"/>
       <c r="M141" s="31"/>
       <c r="N141" s="31"/>
-    </row>
-    <row r="142" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="O141" s="11"/>
+      <c r="P141" s="13"/>
+      <c r="Q141" s="13"/>
+      <c r="R141" s="13"/>
+      <c r="S141" s="13"/>
+    </row>
+    <row r="142" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A142" s="6"/>
       <c r="B142" s="7"/>
-      <c r="C142" s="28"/>
-      <c r="D142" s="29"/>
-      <c r="E142" s="28"/>
-      <c r="F142" s="28"/>
-      <c r="G142" s="28"/>
+      <c r="C142" s="24"/>
+      <c r="D142" s="19"/>
+      <c r="E142" s="19"/>
+      <c r="F142" s="19"/>
+      <c r="G142" s="19"/>
       <c r="H142" s="10"/>
       <c r="I142" s="21"/>
       <c r="J142" s="35"/>
       <c r="K142" s="23"/>
-      <c r="L142" s="30"/>
-      <c r="M142" s="31"/>
-      <c r="N142" s="31"/>
-    </row>
-    <row r="143" spans="1:19" ht="88" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L142" s="20"/>
+      <c r="M142" s="23"/>
+      <c r="N142" s="23"/>
+      <c r="O142" s="11"/>
+      <c r="P142" s="13"/>
+      <c r="Q142" s="13"/>
+      <c r="R142" s="13"/>
+      <c r="S142" s="13"/>
+    </row>
+    <row r="143" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A143" s="6"/>
       <c r="B143" s="7"/>
-      <c r="C143" s="28"/>
-      <c r="D143" s="29"/>
-      <c r="E143" s="28"/>
-      <c r="F143" s="28"/>
-      <c r="G143" s="28"/>
+      <c r="C143" s="24"/>
+      <c r="D143" s="19"/>
+      <c r="E143" s="19"/>
+      <c r="F143" s="19"/>
+      <c r="G143" s="19"/>
       <c r="H143" s="10"/>
       <c r="I143" s="21"/>
       <c r="J143" s="35"/>
       <c r="K143" s="23"/>
-      <c r="L143" s="30"/>
-      <c r="M143" s="31"/>
-      <c r="N143" s="31"/>
+      <c r="L143" s="20"/>
+      <c r="M143" s="23"/>
+      <c r="N143" s="23"/>
+      <c r="O143" s="11"/>
+      <c r="P143" s="13"/>
+      <c r="Q143" s="13"/>
+      <c r="R143" s="13"/>
+      <c r="S143" s="13"/>
     </row>
     <row r="144" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A144" s="6"/>
       <c r="B144" s="7"/>
-      <c r="C144" s="28"/>
-      <c r="D144" s="29"/>
-      <c r="E144" s="28"/>
-      <c r="F144" s="28"/>
-      <c r="G144" s="28"/>
+      <c r="C144" s="24"/>
+      <c r="D144" s="19"/>
+      <c r="E144" s="19"/>
+      <c r="F144" s="19"/>
+      <c r="G144" s="19"/>
       <c r="H144" s="10"/>
       <c r="I144" s="21"/>
       <c r="J144" s="35"/>
       <c r="K144" s="23"/>
-      <c r="L144" s="30"/>
+      <c r="L144" s="20"/>
       <c r="M144" s="31"/>
       <c r="N144" s="31"/>
       <c r="O144" s="11"/>
@@ -4273,16 +4445,16 @@
     <row r="145" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A145" s="6"/>
       <c r="B145" s="7"/>
-      <c r="C145" s="28"/>
-      <c r="D145" s="29"/>
-      <c r="E145" s="28"/>
-      <c r="F145" s="28"/>
-      <c r="G145" s="28"/>
+      <c r="C145" s="24"/>
+      <c r="D145" s="19"/>
+      <c r="E145" s="19"/>
+      <c r="F145" s="19"/>
+      <c r="G145" s="19"/>
       <c r="H145" s="10"/>
       <c r="I145" s="21"/>
       <c r="J145" s="35"/>
       <c r="K145" s="23"/>
-      <c r="L145" s="30"/>
+      <c r="L145" s="20"/>
       <c r="M145" s="31"/>
       <c r="N145" s="31"/>
       <c r="O145" s="11"/>
@@ -4316,17 +4488,17 @@
       <c r="A147" s="6"/>
       <c r="B147" s="7"/>
       <c r="C147" s="24"/>
-      <c r="D147" s="19"/>
-      <c r="E147" s="19"/>
-      <c r="F147" s="19"/>
-      <c r="G147" s="19"/>
+      <c r="D147" s="17"/>
+      <c r="E147" s="17"/>
+      <c r="F147" s="17"/>
+      <c r="G147" s="17"/>
       <c r="H147" s="10"/>
       <c r="I147" s="21"/>
       <c r="J147" s="35"/>
       <c r="K147" s="23"/>
-      <c r="L147" s="20"/>
-      <c r="M147" s="23"/>
-      <c r="N147" s="23"/>
+      <c r="L147" s="25"/>
+      <c r="M147" s="27"/>
+      <c r="N147" s="27"/>
       <c r="O147" s="11"/>
       <c r="P147" s="13"/>
       <c r="Q147" s="13"/>
@@ -4336,13 +4508,13 @@
     <row r="148" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A148" s="6"/>
       <c r="B148" s="7"/>
-      <c r="C148" s="24"/>
-      <c r="D148" s="19"/>
-      <c r="E148" s="19"/>
-      <c r="F148" s="19"/>
-      <c r="G148" s="19"/>
+      <c r="C148" s="36"/>
+      <c r="D148" s="17"/>
+      <c r="E148" s="17"/>
+      <c r="F148" s="17"/>
+      <c r="G148" s="17"/>
       <c r="H148" s="10"/>
-      <c r="I148" s="21"/>
+      <c r="I148" s="19"/>
       <c r="J148" s="35"/>
       <c r="K148" s="23"/>
       <c r="L148" s="20"/>
@@ -4358,17 +4530,17 @@
       <c r="A149" s="6"/>
       <c r="B149" s="7"/>
       <c r="C149" s="24"/>
-      <c r="D149" s="19"/>
-      <c r="E149" s="19"/>
-      <c r="F149" s="19"/>
-      <c r="G149" s="19"/>
+      <c r="D149" s="17"/>
+      <c r="E149" s="17"/>
+      <c r="F149" s="17"/>
+      <c r="G149" s="17"/>
       <c r="H149" s="10"/>
-      <c r="I149" s="21"/>
+      <c r="I149" s="19"/>
       <c r="J149" s="35"/>
       <c r="K149" s="23"/>
       <c r="L149" s="20"/>
-      <c r="M149" s="31"/>
-      <c r="N149" s="31"/>
+      <c r="M149" s="23"/>
+      <c r="N149" s="23"/>
       <c r="O149" s="11"/>
       <c r="P149" s="13"/>
       <c r="Q149" s="13"/>
@@ -4379,17 +4551,17 @@
       <c r="A150" s="6"/>
       <c r="B150" s="7"/>
       <c r="C150" s="24"/>
-      <c r="D150" s="19"/>
-      <c r="E150" s="19"/>
-      <c r="F150" s="19"/>
-      <c r="G150" s="19"/>
+      <c r="D150" s="17"/>
+      <c r="E150" s="17"/>
+      <c r="F150" s="17"/>
+      <c r="G150" s="17"/>
       <c r="H150" s="10"/>
-      <c r="I150" s="21"/>
+      <c r="I150" s="19"/>
       <c r="J150" s="35"/>
       <c r="K150" s="23"/>
       <c r="L150" s="20"/>
-      <c r="M150" s="31"/>
-      <c r="N150" s="31"/>
+      <c r="M150" s="23"/>
+      <c r="N150" s="23"/>
       <c r="O150" s="11"/>
       <c r="P150" s="13"/>
       <c r="Q150" s="13"/>
@@ -4399,18 +4571,18 @@
     <row r="151" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A151" s="6"/>
       <c r="B151" s="7"/>
-      <c r="C151" s="28"/>
-      <c r="D151" s="29"/>
-      <c r="E151" s="28"/>
-      <c r="F151" s="28"/>
-      <c r="G151" s="28"/>
+      <c r="C151" s="24"/>
+      <c r="D151" s="17"/>
+      <c r="E151" s="17"/>
+      <c r="F151" s="17"/>
+      <c r="G151" s="17"/>
       <c r="H151" s="10"/>
-      <c r="I151" s="21"/>
+      <c r="I151" s="19"/>
       <c r="J151" s="35"/>
       <c r="K151" s="23"/>
-      <c r="L151" s="30"/>
-      <c r="M151" s="31"/>
-      <c r="N151" s="31"/>
+      <c r="L151" s="20"/>
+      <c r="M151" s="23"/>
+      <c r="N151" s="23"/>
       <c r="O151" s="11"/>
       <c r="P151" s="13"/>
       <c r="Q151" s="13"/>
@@ -4426,12 +4598,12 @@
       <c r="F152" s="17"/>
       <c r="G152" s="17"/>
       <c r="H152" s="10"/>
-      <c r="I152" s="21"/>
+      <c r="I152" s="19"/>
       <c r="J152" s="35"/>
       <c r="K152" s="23"/>
-      <c r="L152" s="25"/>
-      <c r="M152" s="27"/>
-      <c r="N152" s="27"/>
+      <c r="L152" s="20"/>
+      <c r="M152" s="23"/>
+      <c r="N152" s="23"/>
       <c r="O152" s="11"/>
       <c r="P152" s="13"/>
       <c r="Q152" s="13"/>
@@ -4441,7 +4613,7 @@
     <row r="153" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A153" s="6"/>
       <c r="B153" s="7"/>
-      <c r="C153" s="36"/>
+      <c r="C153" s="24"/>
       <c r="D153" s="17"/>
       <c r="E153" s="17"/>
       <c r="F153" s="17"/>
@@ -4480,7 +4652,7 @@
       <c r="R154" s="13"/>
       <c r="S154" s="13"/>
     </row>
-    <row r="155" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:19" s="12" customFormat="1" ht="145.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="6"/>
       <c r="B155" s="7"/>
       <c r="C155" s="24"/>
@@ -4522,7 +4694,7 @@
       <c r="R156" s="13"/>
       <c r="S156" s="13"/>
     </row>
-    <row r="157" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:19" s="12" customFormat="1" ht="112.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="6"/>
       <c r="B157" s="7"/>
       <c r="C157" s="24"/>
@@ -4585,7 +4757,7 @@
       <c r="R159" s="13"/>
       <c r="S159" s="13"/>
     </row>
-    <row r="160" spans="1:19" s="12" customFormat="1" ht="145.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:19" s="12" customFormat="1" ht="132.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="6"/>
       <c r="B160" s="7"/>
       <c r="C160" s="24"/>
@@ -4596,17 +4768,17 @@
       <c r="H160" s="10"/>
       <c r="I160" s="19"/>
       <c r="J160" s="35"/>
-      <c r="K160" s="23"/>
-      <c r="L160" s="20"/>
-      <c r="M160" s="23"/>
-      <c r="N160" s="23"/>
+      <c r="K160" s="27"/>
+      <c r="L160" s="25"/>
+      <c r="M160" s="27"/>
+      <c r="N160" s="27"/>
       <c r="O160" s="11"/>
       <c r="P160" s="13"/>
       <c r="Q160" s="13"/>
       <c r="R160" s="13"/>
       <c r="S160" s="13"/>
     </row>
-    <row r="161" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:19" s="12" customFormat="1" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="6"/>
       <c r="B161" s="7"/>
       <c r="C161" s="24"/>
@@ -4627,7 +4799,7 @@
       <c r="R161" s="13"/>
       <c r="S161" s="13"/>
     </row>
-    <row r="162" spans="1:19" s="12" customFormat="1" ht="112.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A162" s="6"/>
       <c r="B162" s="7"/>
       <c r="C162" s="24"/>
@@ -4638,17 +4810,17 @@
       <c r="H162" s="10"/>
       <c r="I162" s="19"/>
       <c r="J162" s="35"/>
-      <c r="K162" s="23"/>
-      <c r="L162" s="20"/>
-      <c r="M162" s="23"/>
-      <c r="N162" s="23"/>
+      <c r="K162" s="27"/>
+      <c r="L162" s="25"/>
+      <c r="M162" s="27"/>
+      <c r="N162" s="27"/>
       <c r="O162" s="11"/>
       <c r="P162" s="13"/>
       <c r="Q162" s="13"/>
       <c r="R162" s="13"/>
       <c r="S162" s="13"/>
     </row>
-    <row r="163" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:19" s="12" customFormat="1" ht="121.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="6"/>
       <c r="B163" s="7"/>
       <c r="C163" s="24"/>
@@ -4659,17 +4831,17 @@
       <c r="H163" s="10"/>
       <c r="I163" s="19"/>
       <c r="J163" s="35"/>
-      <c r="K163" s="23"/>
+      <c r="K163" s="27"/>
       <c r="L163" s="20"/>
-      <c r="M163" s="23"/>
-      <c r="N163" s="23"/>
+      <c r="M163" s="31"/>
+      <c r="N163" s="31"/>
       <c r="O163" s="11"/>
       <c r="P163" s="13"/>
       <c r="Q163" s="13"/>
       <c r="R163" s="13"/>
       <c r="S163" s="13"/>
     </row>
-    <row r="164" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:19" s="12" customFormat="1" ht="82.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="6"/>
       <c r="B164" s="7"/>
       <c r="C164" s="24"/>
@@ -4682,18 +4854,18 @@
       <c r="J164" s="35"/>
       <c r="K164" s="23"/>
       <c r="L164" s="20"/>
-      <c r="M164" s="23"/>
-      <c r="N164" s="23"/>
+      <c r="M164" s="31"/>
+      <c r="N164" s="31"/>
       <c r="O164" s="11"/>
       <c r="P164" s="13"/>
       <c r="Q164" s="13"/>
       <c r="R164" s="13"/>
       <c r="S164" s="13"/>
     </row>
-    <row r="165" spans="1:19" s="12" customFormat="1" ht="132.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:19" s="12" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="6"/>
       <c r="B165" s="7"/>
-      <c r="C165" s="24"/>
+      <c r="C165" s="28"/>
       <c r="D165" s="17"/>
       <c r="E165" s="17"/>
       <c r="F165" s="17"/>
@@ -4701,20 +4873,20 @@
       <c r="H165" s="10"/>
       <c r="I165" s="19"/>
       <c r="J165" s="35"/>
-      <c r="K165" s="27"/>
-      <c r="L165" s="25"/>
-      <c r="M165" s="27"/>
-      <c r="N165" s="27"/>
+      <c r="K165" s="23"/>
+      <c r="L165" s="30"/>
+      <c r="M165" s="31"/>
+      <c r="N165" s="31"/>
       <c r="O165" s="11"/>
       <c r="P165" s="13"/>
       <c r="Q165" s="13"/>
       <c r="R165" s="13"/>
       <c r="S165" s="13"/>
     </row>
-    <row r="166" spans="1:19" s="12" customFormat="1" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:19" s="12" customFormat="1" ht="91.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="6"/>
       <c r="B166" s="7"/>
-      <c r="C166" s="24"/>
+      <c r="C166" s="28"/>
       <c r="D166" s="17"/>
       <c r="E166" s="17"/>
       <c r="F166" s="17"/>
@@ -4723,19 +4895,19 @@
       <c r="I166" s="19"/>
       <c r="J166" s="35"/>
       <c r="K166" s="23"/>
-      <c r="L166" s="20"/>
-      <c r="M166" s="23"/>
-      <c r="N166" s="23"/>
+      <c r="L166" s="30"/>
+      <c r="M166" s="31"/>
+      <c r="N166" s="31"/>
       <c r="O166" s="11"/>
       <c r="P166" s="13"/>
       <c r="Q166" s="13"/>
       <c r="R166" s="13"/>
       <c r="S166" s="13"/>
     </row>
-    <row r="167" spans="1:19" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:19" s="12" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="6"/>
       <c r="B167" s="7"/>
-      <c r="C167" s="24"/>
+      <c r="C167" s="28"/>
       <c r="D167" s="17"/>
       <c r="E167" s="17"/>
       <c r="F167" s="17"/>
@@ -4743,20 +4915,20 @@
       <c r="H167" s="10"/>
       <c r="I167" s="19"/>
       <c r="J167" s="35"/>
-      <c r="K167" s="27"/>
-      <c r="L167" s="25"/>
-      <c r="M167" s="27"/>
-      <c r="N167" s="27"/>
+      <c r="K167" s="23"/>
+      <c r="L167" s="20"/>
+      <c r="M167" s="23"/>
+      <c r="N167" s="23"/>
       <c r="O167" s="11"/>
       <c r="P167" s="13"/>
       <c r="Q167" s="13"/>
       <c r="R167" s="13"/>
       <c r="S167" s="13"/>
     </row>
-    <row r="168" spans="1:19" s="12" customFormat="1" ht="121.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:19" s="12" customFormat="1" ht="79.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="6"/>
       <c r="B168" s="7"/>
-      <c r="C168" s="24"/>
+      <c r="C168" s="28"/>
       <c r="D168" s="17"/>
       <c r="E168" s="17"/>
       <c r="F168" s="17"/>
@@ -4765,19 +4937,19 @@
       <c r="I168" s="19"/>
       <c r="J168" s="35"/>
       <c r="K168" s="27"/>
-      <c r="L168" s="20"/>
-      <c r="M168" s="31"/>
-      <c r="N168" s="31"/>
+      <c r="L168" s="25"/>
+      <c r="M168" s="27"/>
+      <c r="N168" s="27"/>
       <c r="O168" s="11"/>
       <c r="P168" s="13"/>
       <c r="Q168" s="13"/>
       <c r="R168" s="13"/>
       <c r="S168" s="13"/>
     </row>
-    <row r="169" spans="1:19" s="12" customFormat="1" ht="82.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:19" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="6"/>
       <c r="B169" s="7"/>
-      <c r="C169" s="24"/>
+      <c r="C169" s="28"/>
       <c r="D169" s="17"/>
       <c r="E169" s="17"/>
       <c r="F169" s="17"/>
@@ -4785,17 +4957,12 @@
       <c r="H169" s="10"/>
       <c r="I169" s="19"/>
       <c r="J169" s="35"/>
-      <c r="K169" s="23"/>
-      <c r="L169" s="20"/>
-      <c r="M169" s="31"/>
-      <c r="N169" s="31"/>
-      <c r="O169" s="11"/>
-      <c r="P169" s="13"/>
-      <c r="Q169" s="13"/>
-      <c r="R169" s="13"/>
-      <c r="S169" s="13"/>
-    </row>
-    <row r="170" spans="1:19" s="12" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K169" s="27"/>
+      <c r="L169" s="25"/>
+      <c r="M169" s="27"/>
+      <c r="N169" s="27"/>
+    </row>
+    <row r="170" spans="1:19" ht="82.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="6"/>
       <c r="B170" s="7"/>
       <c r="C170" s="28"/>
@@ -4806,20 +4973,15 @@
       <c r="H170" s="10"/>
       <c r="I170" s="19"/>
       <c r="J170" s="35"/>
-      <c r="K170" s="23"/>
-      <c r="L170" s="30"/>
-      <c r="M170" s="31"/>
-      <c r="N170" s="31"/>
-      <c r="O170" s="11"/>
-      <c r="P170" s="13"/>
-      <c r="Q170" s="13"/>
-      <c r="R170" s="13"/>
-      <c r="S170" s="13"/>
-    </row>
-    <row r="171" spans="1:19" s="12" customFormat="1" ht="91.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K170" s="27"/>
+      <c r="L170" s="25"/>
+      <c r="M170" s="27"/>
+      <c r="N170" s="27"/>
+    </row>
+    <row r="171" spans="1:19" ht="18" x14ac:dyDescent="0.2">
       <c r="A171" s="6"/>
       <c r="B171" s="7"/>
-      <c r="C171" s="28"/>
+      <c r="C171" s="24"/>
       <c r="D171" s="17"/>
       <c r="E171" s="17"/>
       <c r="F171" s="17"/>
@@ -4827,20 +4989,15 @@
       <c r="H171" s="10"/>
       <c r="I171" s="19"/>
       <c r="J171" s="35"/>
-      <c r="K171" s="23"/>
-      <c r="L171" s="30"/>
-      <c r="M171" s="31"/>
-      <c r="N171" s="31"/>
-      <c r="O171" s="11"/>
-      <c r="P171" s="13"/>
-      <c r="Q171" s="13"/>
-      <c r="R171" s="13"/>
-      <c r="S171" s="13"/>
-    </row>
-    <row r="172" spans="1:19" s="12" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K171" s="27"/>
+      <c r="L171" s="25"/>
+      <c r="M171" s="27"/>
+      <c r="N171" s="27"/>
+    </row>
+    <row r="172" spans="1:19" ht="100.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="6"/>
       <c r="B172" s="7"/>
-      <c r="C172" s="28"/>
+      <c r="C172" s="24"/>
       <c r="D172" s="17"/>
       <c r="E172" s="17"/>
       <c r="F172" s="17"/>
@@ -4848,20 +5005,15 @@
       <c r="H172" s="10"/>
       <c r="I172" s="19"/>
       <c r="J172" s="35"/>
-      <c r="K172" s="23"/>
-      <c r="L172" s="20"/>
-      <c r="M172" s="23"/>
-      <c r="N172" s="23"/>
-      <c r="O172" s="11"/>
-      <c r="P172" s="13"/>
-      <c r="Q172" s="13"/>
-      <c r="R172" s="13"/>
-      <c r="S172" s="13"/>
-    </row>
-    <row r="173" spans="1:19" s="12" customFormat="1" ht="79.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K172" s="27"/>
+      <c r="L172" s="25"/>
+      <c r="M172" s="27"/>
+      <c r="N172" s="27"/>
+    </row>
+    <row r="173" spans="1:19" ht="103.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="6"/>
       <c r="B173" s="7"/>
-      <c r="C173" s="28"/>
+      <c r="C173" s="24"/>
       <c r="D173" s="17"/>
       <c r="E173" s="17"/>
       <c r="F173" s="17"/>
@@ -4873,96 +5025,97 @@
       <c r="L173" s="25"/>
       <c r="M173" s="27"/>
       <c r="N173" s="27"/>
-      <c r="O173" s="11"/>
-      <c r="P173" s="13"/>
-      <c r="Q173" s="13"/>
-      <c r="R173" s="13"/>
-      <c r="S173" s="13"/>
-    </row>
-    <row r="174" spans="1:19" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="174" spans="1:19" ht="89.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="6"/>
       <c r="B174" s="7"/>
       <c r="C174" s="28"/>
-      <c r="D174" s="17"/>
-      <c r="E174" s="17"/>
-      <c r="F174" s="17"/>
-      <c r="G174" s="17"/>
+      <c r="D174" s="19"/>
+      <c r="E174" s="19"/>
+      <c r="F174" s="19"/>
+      <c r="G174" s="19"/>
       <c r="H174" s="10"/>
       <c r="I174" s="19"/>
       <c r="J174" s="35"/>
-      <c r="K174" s="27"/>
-      <c r="L174" s="25"/>
-      <c r="M174" s="27"/>
-      <c r="N174" s="27"/>
-    </row>
-    <row r="175" spans="1:19" ht="82.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K174" s="23"/>
+      <c r="L174" s="20"/>
+      <c r="M174" s="23"/>
+      <c r="N174" s="23"/>
+    </row>
+    <row r="175" spans="1:19" ht="77.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="6"/>
       <c r="B175" s="7"/>
       <c r="C175" s="28"/>
-      <c r="D175" s="17"/>
-      <c r="E175" s="17"/>
-      <c r="F175" s="17"/>
-      <c r="G175" s="17"/>
+      <c r="D175" s="19"/>
+      <c r="E175" s="19"/>
+      <c r="F175" s="19"/>
+      <c r="G175" s="19"/>
       <c r="H175" s="10"/>
       <c r="I175" s="19"/>
       <c r="J175" s="35"/>
-      <c r="K175" s="27"/>
-      <c r="L175" s="25"/>
-      <c r="M175" s="27"/>
-      <c r="N175" s="27"/>
-    </row>
-    <row r="176" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="K175" s="23"/>
+      <c r="L175" s="20"/>
+      <c r="M175" s="23"/>
+      <c r="N175" s="23"/>
+    </row>
+    <row r="176" spans="1:19" ht="73.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="6"/>
       <c r="B176" s="7"/>
-      <c r="C176" s="24"/>
-      <c r="D176" s="17"/>
-      <c r="E176" s="17"/>
-      <c r="F176" s="17"/>
-      <c r="G176" s="17"/>
+      <c r="C176" s="17"/>
+      <c r="D176" s="19"/>
+      <c r="E176" s="19"/>
+      <c r="F176" s="19"/>
+      <c r="G176" s="19"/>
       <c r="H176" s="10"/>
       <c r="I176" s="19"/>
       <c r="J176" s="35"/>
-      <c r="K176" s="27"/>
-      <c r="L176" s="25"/>
-      <c r="M176" s="27"/>
-      <c r="N176" s="27"/>
-    </row>
-    <row r="177" spans="1:17" ht="100.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K176" s="23"/>
+      <c r="L176" s="20"/>
+      <c r="M176" s="23"/>
+      <c r="N176" s="23"/>
+      <c r="O176" s="42"/>
+      <c r="P176" s="41"/>
+      <c r="Q176" s="41"/>
+    </row>
+    <row r="177" spans="1:17" ht="102.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="6"/>
       <c r="B177" s="7"/>
-      <c r="C177" s="24"/>
-      <c r="D177" s="17"/>
-      <c r="E177" s="17"/>
-      <c r="F177" s="17"/>
-      <c r="G177" s="17"/>
+      <c r="C177" s="17"/>
+      <c r="D177" s="19"/>
+      <c r="E177" s="19"/>
+      <c r="F177" s="19"/>
+      <c r="G177" s="19"/>
       <c r="H177" s="10"/>
       <c r="I177" s="19"/>
       <c r="J177" s="35"/>
-      <c r="K177" s="27"/>
-      <c r="L177" s="25"/>
-      <c r="M177" s="27"/>
-      <c r="N177" s="27"/>
-    </row>
-    <row r="178" spans="1:17" ht="103.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K177" s="23"/>
+      <c r="L177" s="20"/>
+      <c r="M177" s="23"/>
+      <c r="N177" s="23"/>
+      <c r="O177" s="42"/>
+      <c r="P177" s="41"/>
+      <c r="Q177" s="41"/>
+    </row>
+    <row r="178" spans="1:17" ht="73.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="6"/>
       <c r="B178" s="7"/>
-      <c r="C178" s="24"/>
-      <c r="D178" s="17"/>
-      <c r="E178" s="17"/>
-      <c r="F178" s="17"/>
-      <c r="G178" s="17"/>
+      <c r="C178" s="17"/>
+      <c r="D178" s="19"/>
+      <c r="E178" s="19"/>
+      <c r="F178" s="19"/>
+      <c r="G178" s="19"/>
       <c r="H178" s="10"/>
       <c r="I178" s="19"/>
       <c r="J178" s="35"/>
-      <c r="K178" s="27"/>
-      <c r="L178" s="25"/>
-      <c r="M178" s="27"/>
-      <c r="N178" s="27"/>
-    </row>
-    <row r="179" spans="1:17" ht="89.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K178" s="23"/>
+      <c r="L178" s="20"/>
+      <c r="M178" s="23"/>
+      <c r="N178" s="23"/>
+    </row>
+    <row r="179" spans="1:17" ht="67.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="6"/>
       <c r="B179" s="7"/>
-      <c r="C179" s="28"/>
+      <c r="C179" s="24"/>
       <c r="D179" s="19"/>
       <c r="E179" s="19"/>
       <c r="F179" s="19"/>
@@ -4974,11 +5127,14 @@
       <c r="L179" s="20"/>
       <c r="M179" s="23"/>
       <c r="N179" s="23"/>
-    </row>
-    <row r="180" spans="1:17" ht="77.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O179" s="42"/>
+      <c r="P179" s="41"/>
+      <c r="Q179" s="41"/>
+    </row>
+    <row r="180" spans="1:17" ht="71.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="6"/>
       <c r="B180" s="7"/>
-      <c r="C180" s="28"/>
+      <c r="C180" s="24"/>
       <c r="D180" s="19"/>
       <c r="E180" s="19"/>
       <c r="F180" s="19"/>
@@ -4986,15 +5142,18 @@
       <c r="H180" s="10"/>
       <c r="I180" s="19"/>
       <c r="J180" s="35"/>
-      <c r="K180" s="23"/>
+      <c r="K180" s="27"/>
       <c r="L180" s="20"/>
-      <c r="M180" s="23"/>
-      <c r="N180" s="23"/>
-    </row>
-    <row r="181" spans="1:17" ht="73.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M180" s="39"/>
+      <c r="N180" s="39"/>
+      <c r="O180" s="42"/>
+      <c r="P180" s="41"/>
+      <c r="Q180" s="41"/>
+    </row>
+    <row r="181" spans="1:17" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="6"/>
       <c r="B181" s="7"/>
-      <c r="C181" s="17"/>
+      <c r="C181" s="24"/>
       <c r="D181" s="19"/>
       <c r="E181" s="19"/>
       <c r="F181" s="19"/>
@@ -5010,10 +5169,10 @@
       <c r="P181" s="41"/>
       <c r="Q181" s="41"/>
     </row>
-    <row r="182" spans="1:17" ht="102.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:17" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="6"/>
       <c r="B182" s="7"/>
-      <c r="C182" s="17"/>
+      <c r="C182" s="24"/>
       <c r="D182" s="19"/>
       <c r="E182" s="19"/>
       <c r="F182" s="19"/>
@@ -5021,7 +5180,7 @@
       <c r="H182" s="10"/>
       <c r="I182" s="19"/>
       <c r="J182" s="35"/>
-      <c r="K182" s="23"/>
+      <c r="K182" s="40"/>
       <c r="L182" s="20"/>
       <c r="M182" s="23"/>
       <c r="N182" s="23"/>
@@ -5029,10 +5188,10 @@
       <c r="P182" s="41"/>
       <c r="Q182" s="41"/>
     </row>
-    <row r="183" spans="1:17" ht="73.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:17" ht="53.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="6"/>
       <c r="B183" s="7"/>
-      <c r="C183" s="17"/>
+      <c r="C183" s="24"/>
       <c r="D183" s="19"/>
       <c r="E183" s="19"/>
       <c r="F183" s="19"/>
@@ -5042,10 +5201,13 @@
       <c r="J183" s="35"/>
       <c r="K183" s="23"/>
       <c r="L183" s="20"/>
-      <c r="M183" s="23"/>
-      <c r="N183" s="23"/>
-    </row>
-    <row r="184" spans="1:17" ht="67.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M183" s="27"/>
+      <c r="N183" s="27"/>
+      <c r="O183" s="33"/>
+      <c r="P183" s="41"/>
+      <c r="Q183" s="41"/>
+    </row>
+    <row r="184" spans="1:17" ht="79.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="6"/>
       <c r="B184" s="7"/>
       <c r="C184" s="24"/>
@@ -5058,13 +5220,13 @@
       <c r="J184" s="35"/>
       <c r="K184" s="23"/>
       <c r="L184" s="20"/>
-      <c r="M184" s="23"/>
-      <c r="N184" s="23"/>
-      <c r="O184" s="42"/>
+      <c r="M184" s="27"/>
+      <c r="N184" s="27"/>
+      <c r="O184" s="33"/>
       <c r="P184" s="41"/>
       <c r="Q184" s="41"/>
     </row>
-    <row r="185" spans="1:17" ht="71.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:17" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="6"/>
       <c r="B185" s="7"/>
       <c r="C185" s="24"/>
@@ -5077,16 +5239,16 @@
       <c r="J185" s="35"/>
       <c r="K185" s="27"/>
       <c r="L185" s="20"/>
-      <c r="M185" s="39"/>
-      <c r="N185" s="39"/>
-      <c r="O185" s="42"/>
+      <c r="M185" s="23"/>
+      <c r="N185" s="23"/>
+      <c r="O185" s="33"/>
       <c r="P185" s="41"/>
       <c r="Q185" s="41"/>
     </row>
-    <row r="186" spans="1:17" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:17" ht="94.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="6"/>
       <c r="B186" s="7"/>
-      <c r="C186" s="24"/>
+      <c r="C186" s="28"/>
       <c r="D186" s="19"/>
       <c r="E186" s="19"/>
       <c r="F186" s="19"/>
@@ -5098,14 +5260,11 @@
       <c r="L186" s="20"/>
       <c r="M186" s="23"/>
       <c r="N186" s="23"/>
-      <c r="O186" s="42"/>
-      <c r="P186" s="41"/>
-      <c r="Q186" s="41"/>
-    </row>
-    <row r="187" spans="1:17" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="187" spans="1:17" ht="67.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="6"/>
       <c r="B187" s="7"/>
-      <c r="C187" s="24"/>
+      <c r="C187" s="28"/>
       <c r="D187" s="19"/>
       <c r="E187" s="19"/>
       <c r="F187" s="19"/>
@@ -5113,18 +5272,15 @@
       <c r="H187" s="10"/>
       <c r="I187" s="19"/>
       <c r="J187" s="35"/>
-      <c r="K187" s="40"/>
+      <c r="K187" s="23"/>
       <c r="L187" s="20"/>
       <c r="M187" s="23"/>
       <c r="N187" s="23"/>
-      <c r="O187" s="42"/>
-      <c r="P187" s="41"/>
-      <c r="Q187" s="41"/>
-    </row>
-    <row r="188" spans="1:17" ht="53.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="188" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A188" s="6"/>
       <c r="B188" s="7"/>
-      <c r="C188" s="24"/>
+      <c r="C188" s="28"/>
       <c r="D188" s="19"/>
       <c r="E188" s="19"/>
       <c r="F188" s="19"/>
@@ -5134,16 +5290,13 @@
       <c r="J188" s="35"/>
       <c r="K188" s="23"/>
       <c r="L188" s="20"/>
-      <c r="M188" s="27"/>
-      <c r="N188" s="27"/>
-      <c r="O188" s="33"/>
-      <c r="P188" s="41"/>
-      <c r="Q188" s="41"/>
-    </row>
-    <row r="189" spans="1:17" ht="79.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M188" s="23"/>
+      <c r="N188" s="23"/>
+    </row>
+    <row r="189" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A189" s="6"/>
       <c r="B189" s="7"/>
-      <c r="C189" s="24"/>
+      <c r="C189" s="28"/>
       <c r="D189" s="19"/>
       <c r="E189" s="19"/>
       <c r="F189" s="19"/>
@@ -5153,16 +5306,13 @@
       <c r="J189" s="35"/>
       <c r="K189" s="23"/>
       <c r="L189" s="20"/>
-      <c r="M189" s="27"/>
-      <c r="N189" s="27"/>
-      <c r="O189" s="33"/>
-      <c r="P189" s="41"/>
-      <c r="Q189" s="41"/>
-    </row>
-    <row r="190" spans="1:17" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M189" s="23"/>
+      <c r="N189" s="23"/>
+    </row>
+    <row r="190" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A190" s="6"/>
       <c r="B190" s="7"/>
-      <c r="C190" s="24"/>
+      <c r="C190" s="28"/>
       <c r="D190" s="19"/>
       <c r="E190" s="19"/>
       <c r="F190" s="19"/>
@@ -5170,15 +5320,12 @@
       <c r="H190" s="10"/>
       <c r="I190" s="19"/>
       <c r="J190" s="35"/>
-      <c r="K190" s="27"/>
+      <c r="K190" s="23"/>
       <c r="L190" s="20"/>
       <c r="M190" s="23"/>
       <c r="N190" s="23"/>
-      <c r="O190" s="33"/>
-      <c r="P190" s="41"/>
-      <c r="Q190" s="41"/>
-    </row>
-    <row r="191" spans="1:17" ht="94.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="191" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A191" s="6"/>
       <c r="B191" s="7"/>
       <c r="C191" s="28"/>
@@ -5194,7 +5341,7 @@
       <c r="M191" s="23"/>
       <c r="N191" s="23"/>
     </row>
-    <row r="192" spans="1:17" ht="67.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A192" s="6"/>
       <c r="B192" s="7"/>
       <c r="C192" s="28"/>
@@ -5210,93 +5357,18 @@
       <c r="M192" s="23"/>
       <c r="N192" s="23"/>
     </row>
-    <row r="193" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A193" s="6"/>
-      <c r="B193" s="7"/>
-      <c r="C193" s="28"/>
-      <c r="D193" s="19"/>
-      <c r="E193" s="19"/>
-      <c r="F193" s="19"/>
-      <c r="G193" s="19"/>
-      <c r="H193" s="10"/>
-      <c r="I193" s="19"/>
-      <c r="J193" s="35"/>
-      <c r="K193" s="23"/>
-      <c r="L193" s="20"/>
-      <c r="M193" s="23"/>
-      <c r="N193" s="23"/>
-    </row>
-    <row r="194" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A194" s="6"/>
-      <c r="B194" s="7"/>
-      <c r="C194" s="28"/>
-      <c r="D194" s="19"/>
-      <c r="E194" s="19"/>
-      <c r="F194" s="19"/>
-      <c r="G194" s="19"/>
-      <c r="H194" s="10"/>
-      <c r="I194" s="19"/>
-      <c r="J194" s="35"/>
-      <c r="K194" s="23"/>
-      <c r="L194" s="20"/>
-      <c r="M194" s="23"/>
-      <c r="N194" s="23"/>
-    </row>
-    <row r="195" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A195" s="6"/>
-      <c r="B195" s="7"/>
-      <c r="C195" s="28"/>
-      <c r="D195" s="19"/>
-      <c r="E195" s="19"/>
-      <c r="F195" s="19"/>
-      <c r="G195" s="19"/>
-      <c r="H195" s="10"/>
-      <c r="I195" s="19"/>
-      <c r="J195" s="35"/>
-      <c r="K195" s="23"/>
-      <c r="L195" s="20"/>
-      <c r="M195" s="23"/>
-      <c r="N195" s="23"/>
-    </row>
-    <row r="196" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A196" s="6"/>
-      <c r="B196" s="7"/>
-      <c r="C196" s="28"/>
-      <c r="D196" s="19"/>
-      <c r="E196" s="19"/>
-      <c r="F196" s="19"/>
-      <c r="G196" s="19"/>
-      <c r="H196" s="10"/>
-      <c r="I196" s="19"/>
-      <c r="J196" s="35"/>
-      <c r="K196" s="23"/>
-      <c r="L196" s="20"/>
-      <c r="M196" s="23"/>
-      <c r="N196" s="23"/>
-    </row>
-    <row r="197" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A197" s="6"/>
-      <c r="B197" s="7"/>
-      <c r="C197" s="28"/>
-      <c r="D197" s="19"/>
-      <c r="E197" s="19"/>
-      <c r="F197" s="19"/>
-      <c r="G197" s="19"/>
-      <c r="H197" s="10"/>
-      <c r="I197" s="19"/>
-      <c r="J197" s="35"/>
-      <c r="K197" s="23"/>
-      <c r="L197" s="20"/>
-      <c r="M197" s="23"/>
-      <c r="N197" s="23"/>
-    </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H11:H23" r:id="rId1" display="https://user-center-thu.tunaikita.id/cashAccount"/>
+    <hyperlink ref="H6:H18" r:id="rId1" display="https://user-center-thu.tunaikita.id/cashAccount"/>
+    <hyperlink ref="H10" r:id="rId2"/>
+    <hyperlink ref="H13" r:id="rId3"/>
+    <hyperlink ref="H14" r:id="rId4"/>
+    <hyperlink ref="H15" r:id="rId5"/>
+    <hyperlink ref="H16" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <legacyDrawing r:id="rId8"/>
 </worksheet>
 </file>